--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378352C1-2B0E-4701-8C06-F4FBD68DE5DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025CDF6-479F-46F8-878F-ADE4A01D4E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="758" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -990,7 +984,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1404,66 +1398,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1483,15 +1444,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1808,194 +1802,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C0014-F7B1-460D-B1E9-9CA83663BBBB}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="145.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="10" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
         <v>5</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+    <row r="12" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+    <row r="17" spans="2:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
         <v>4</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
@@ -2015,192 +2009,192 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="145.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+    <row r="13" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
         <v>4</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
@@ -2220,139 +2214,139 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="145.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+    <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="27" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="17" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
         <v>5</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
@@ -2376,7 +2370,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2393,7 +2387,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2406,41 +2400,41 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2455,7 +2449,7 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -2476,7 +2470,7 @@
       <c r="M1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>246</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -2495,11 +2489,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="str">
+        <f>_xlfn.CONCAT(C2,  " ", D2,  " ", F2)</f>
+        <v>Ms. Annie Abbott</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2510,7 +2507,7 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="25">
         <v>35699</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2522,7 +2519,7 @@
       <c r="J2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="4">
@@ -2542,11 +2539,14 @@
         <v>80727</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B51" si="0">_xlfn.CONCAT(C3,  " ", D3,  " ", F3)</f>
+        <v>Ms. Aurelie Liesuchke</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="25">
         <v>33641</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2569,7 +2569,6 @@
       <c r="J3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4">
@@ -2589,11 +2588,14 @@
         <v>87471</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sr. Tomas Filho</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="25">
         <v>25394</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2638,11 +2640,14 @@
         <v>64724</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Darby Cruickshank</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2653,7 +2658,7 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="25">
         <v>27532</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2685,11 +2690,14 @@
         <v>110823</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Jaydon Borer</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2708,7 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="25">
         <v>25706</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2732,11 +2740,14 @@
         <v>56916</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Moriah  Lynch</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2747,7 +2758,7 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="25">
         <v>33944</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2779,11 +2790,14 @@
         <v>51133</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Amiya Eichmann</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2808,7 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="25">
         <v>36370</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2826,11 +2840,14 @@
         <v>65465</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Pierce Rau</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2841,7 +2858,7 @@
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="25">
         <v>23141</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2873,11 +2890,14 @@
         <v>109885</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Amelia Stevens</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2908,7 @@
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="25">
         <v>25965</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2920,11 +2940,14 @@
         <v>60061</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Toby Simpson</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +2958,7 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="25">
         <v>23732</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2967,11 +2990,14 @@
         <v>32758</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sir Ethan Murphy</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2982,7 +3008,7 @@
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="25">
         <v>31733</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3014,11 +3040,14 @@
         <v>99613</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mrs. Ashley Wood</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
@@ -3029,7 +3058,7 @@
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="25">
         <v>28412</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3061,11 +3090,14 @@
         <v>56595</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Megan Scott</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3108,7 @@
       <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="25">
         <v>28168</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3108,11 +3140,14 @@
         <v>117408</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Helmut Weinhae</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
@@ -3123,7 +3158,7 @@
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="25">
         <v>21788</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3155,11 +3190,14 @@
         <v>64862</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Prof. Milena Schotin</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3170,7 +3208,7 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="25">
         <v>23804</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3202,11 +3240,14 @@
         <v>10241</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Lothar Birnbaum</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3258,7 @@
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="25">
         <v>25405</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3249,11 +3290,14 @@
         <v>88762</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Pietro Stolze</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
@@ -3264,7 +3308,7 @@
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="25">
         <v>26582</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3296,11 +3340,14 @@
         <v>80757</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Richard  Tlustek</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
@@ -3311,7 +3358,7 @@
       <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="25">
         <v>21793</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3343,11 +3390,14 @@
         <v>88794</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Earnestine Raynor</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3358,7 +3408,7 @@
       <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="25">
         <v>28262</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3390,11 +3440,14 @@
         <v>63526</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Jason Gaylord</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -3405,7 +3458,7 @@
       <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="25">
         <v>27767</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3437,11 +3490,14 @@
         <v>46352</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mr. Kendrick Sauer</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3452,7 +3508,7 @@
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="25">
         <v>35268</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -3484,11 +3540,14 @@
         <v>106808</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Annabell Olson</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3499,7 +3558,7 @@
       <c r="F23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="25">
         <v>23483</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3531,11 +3590,14 @@
         <v>96468</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Jena Upton</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3546,7 +3608,7 @@
       <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="25">
         <v>20437</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3578,11 +3640,14 @@
         <v>16526</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Shanny Bins</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3593,7 +3658,7 @@
       <c r="F25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="25">
         <v>36400</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3625,11 +3690,14 @@
         <v>21891</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Tia Abshire</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3640,7 +3708,7 @@
       <c r="F26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="25">
         <v>24309</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -3672,11 +3740,14 @@
         <v>62037</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Isabel Runolfsdottir</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3758,7 @@
       <c r="F27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="25">
         <v>28570</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -3719,11 +3790,14 @@
         <v>89737</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Barney Wesack</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -3734,7 +3808,7 @@
       <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="25">
         <v>25767</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3766,11 +3840,14 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hr. Baruch Kade</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3858,7 @@
       <c r="F29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="25">
         <v>30020</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3813,11 +3890,14 @@
         <v>28458</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Prof. Liesbeth Rosemann</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
@@ -3828,7 +3908,7 @@
       <c r="F30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="25">
         <v>34361</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3860,11 +3940,14 @@
         <v>55007</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mme. Valentine Moreau</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
@@ -3875,7 +3958,7 @@
       <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="25">
         <v>29137</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -3907,11 +3990,14 @@
         <v>69041</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mme. Paulette Durand</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>84</v>
       </c>
@@ -3922,7 +4008,7 @@
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="25">
         <v>32867</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -3954,11 +4040,14 @@
         <v>86262</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mme. Laure-Alix Chevalier</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
@@ -3969,7 +4058,7 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="25">
         <v>25925</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4001,11 +4090,14 @@
         <v>19234</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Claude Toussaint</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>91</v>
       </c>
@@ -4016,7 +4108,7 @@
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="25">
         <v>29529</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -4048,11 +4140,14 @@
         <v>95123</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Victor Lenoir</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>91</v>
       </c>
@@ -4063,7 +4158,7 @@
       <c r="F35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="25">
         <v>29875</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -4095,11 +4190,14 @@
         <v>62761</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Arthur Lenoir</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4208,7 @@
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="25">
         <v>20300</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -4142,11 +4240,14 @@
         <v>108431</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Benjamin Lebrun-Brun</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
@@ -4157,7 +4258,7 @@
       <c r="F37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="25">
         <v>27428</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -4189,11 +4290,14 @@
         <v>66268</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Antoine Maillard</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
@@ -4204,7 +4308,7 @@
       <c r="F38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="25">
         <v>31585</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -4236,11 +4340,14 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Bernard Hoarau-Guyon</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>91</v>
       </c>
@@ -4251,7 +4358,7 @@
       <c r="F39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="25">
         <v>30327</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -4283,11 +4390,14 @@
         <v>71352</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sr. Hidalgo Tercero</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
@@ -4300,7 +4410,7 @@
       <c r="F40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="25">
         <v>31016</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -4332,11 +4442,14 @@
         <v>116376</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sr. Hadalgo Polanco</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4460,7 @@
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="25">
         <v>32314</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -4379,11 +4492,14 @@
         <v>114144</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sra. Laura Oliviera</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
@@ -4394,7 +4510,7 @@
       <c r="F42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="25">
         <v>27076</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -4426,11 +4542,14 @@
         <v>79872</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sra. Ainhoa Garza</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
@@ -4441,7 +4560,7 @@
       <c r="F43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="25">
         <v>32941</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -4473,11 +4592,14 @@
         <v>101969</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sra. Isabel Banda</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>109</v>
       </c>
@@ -4488,7 +4610,7 @@
       <c r="F44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="25">
         <v>21927</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -4520,11 +4642,14 @@
         <v>50659</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sra. Carolota Mateos</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>109</v>
       </c>
@@ -4535,7 +4660,7 @@
       <c r="F45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="25">
         <v>23952</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -4567,11 +4692,14 @@
         <v>58215</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mw. Elize Prins</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>117</v>
       </c>
@@ -4582,7 +4710,7 @@
       <c r="F46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="25">
         <v>22044</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -4614,11 +4742,14 @@
         <v>39935</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>dhr. Ryan Pham</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>120</v>
       </c>
@@ -4629,7 +4760,7 @@
       <c r="F47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="25">
         <v>26940</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -4661,11 +4792,14 @@
         <v>44865</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Mw Elise Rotteveel</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>123</v>
       </c>
@@ -4676,7 +4810,7 @@
       <c r="F48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="25">
         <v>24936</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -4708,11 +4842,14 @@
         <v>90478</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Fru. Mirjam Soderberg</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>126</v>
       </c>
@@ -4723,7 +4860,7 @@
       <c r="F49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="25">
         <v>35567</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -4755,11 +4892,14 @@
         <v>38965</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>H. Berndt Palsson</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>129</v>
       </c>
@@ -4770,7 +4910,7 @@
       <c r="F50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="25">
         <v>31832</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -4802,11 +4942,14 @@
         <v>35387</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sr. Adriano Sobrinho</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
@@ -4819,7 +4962,7 @@
       <c r="F51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="25">
         <v>34178</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -4867,273 +5010,273 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="34" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="34" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5153,16 +5296,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5199,7 +5342,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>137</v>
       </c>
@@ -5240,7 +5383,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>228</v>
       </c>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025CDF6-479F-46F8-878F-ADE4A01D4E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F82FBB-37CC-46FC-9C8C-131F75C98BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -1453,6 +1453,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1482,9 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1815,20 +1815,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1846,11 +1846,11 @@
       <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
@@ -1927,11 +1927,11 @@
       <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
@@ -2020,20 +2020,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2059,11 +2059,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2132,11 +2132,11 @@
       <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
@@ -2225,20 +2225,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2264,11 +2264,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2404,7 +2404,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,10 @@
       <c r="J2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="35" t="str">
+        <f>HLOOKUP($J2, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="4">
@@ -2569,6 +2572,10 @@
       <c r="J3" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="K3" s="35" t="str">
+        <f>HLOOKUP($J3, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4">
@@ -2620,7 +2627,10 @@
       <c r="J4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="35" t="str">
+        <f>HLOOKUP($J4, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>BRAZIL</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="4">
@@ -2670,7 +2680,10 @@
       <c r="J5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="35" t="str">
+        <f>HLOOKUP($J5, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="4">
@@ -2720,7 +2733,10 @@
       <c r="J6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="35" t="str">
+        <f>HLOOKUP($J6, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="4">
@@ -2770,7 +2786,10 @@
       <c r="J7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="35" t="str">
+        <f>HLOOKUP($J7, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4">
@@ -2820,7 +2839,10 @@
       <c r="J8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="35" t="str">
+        <f>HLOOKUP($J8, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="4">
@@ -2870,7 +2892,10 @@
       <c r="J9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="35" t="str">
+        <f>HLOOKUP($J9, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>USA</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="4">
@@ -2920,7 +2945,10 @@
       <c r="J10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="35" t="str">
+        <f>HLOOKUP($J10, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>UK</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="4">
@@ -2970,7 +2998,10 @@
       <c r="J11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="35" t="str">
+        <f>HLOOKUP($J11, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>UK</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4">
@@ -3020,7 +3051,10 @@
       <c r="J12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="35" t="str">
+        <f>HLOOKUP($J12, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>UK</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="4">
@@ -3070,7 +3104,10 @@
       <c r="J13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="35" t="str">
+        <f>HLOOKUP($J13, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>UK</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4">
@@ -3120,7 +3157,10 @@
       <c r="J14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="35" t="str">
+        <f>HLOOKUP($J14, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>UK</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="4">
@@ -3170,7 +3210,10 @@
       <c r="J15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="35" t="str">
+        <f>HLOOKUP($J15, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>GERMANY</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="4">
@@ -3220,7 +3263,10 @@
       <c r="J16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="35" t="str">
+        <f>HLOOKUP($J16, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>GERMANY</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4">
@@ -3270,7 +3316,10 @@
       <c r="J17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="35" t="str">
+        <f>HLOOKUP($J17, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>GERMANY</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4">
@@ -3320,7 +3369,10 @@
       <c r="J18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="35" t="str">
+        <f>HLOOKUP($J18, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>GERMANY</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="4">
@@ -3370,7 +3422,10 @@
       <c r="J19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="35" t="str">
+        <f>HLOOKUP($J19, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>GERMANY</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4">
@@ -3420,7 +3475,10 @@
       <c r="J20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="35" t="str">
+        <f>HLOOKUP($J20, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="4">
@@ -3470,7 +3528,10 @@
       <c r="J21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="35" t="str">
+        <f>HLOOKUP($J21, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="4">
@@ -3520,7 +3581,10 @@
       <c r="J22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="35" t="str">
+        <f>HLOOKUP($J22, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="4">
@@ -3570,7 +3634,10 @@
       <c r="J23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="35" t="str">
+        <f>HLOOKUP($J23, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="4">
@@ -3620,7 +3687,10 @@
       <c r="J24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="35" t="str">
+        <f>HLOOKUP($J24, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="4">
@@ -3670,7 +3740,10 @@
       <c r="J25" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="35" t="str">
+        <f>HLOOKUP($J25, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="4">
@@ -3720,7 +3793,10 @@
       <c r="J26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="35" t="str">
+        <f>HLOOKUP($J26, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="4">
@@ -3770,7 +3846,10 @@
       <c r="J27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="35" t="str">
+        <f>HLOOKUP($J27, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRALIA</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
@@ -3820,7 +3899,10 @@
       <c r="J28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="35" t="str">
+        <f>HLOOKUP($J28, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRIA</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4">
@@ -3870,7 +3952,10 @@
       <c r="J29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="35" t="str">
+        <f>HLOOKUP($J29, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRIA</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="4">
@@ -3920,7 +4005,10 @@
       <c r="J30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="35" t="str">
+        <f>HLOOKUP($J30, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>AUSTRIA</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="4">
@@ -3970,7 +4058,10 @@
       <c r="J31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="35" t="str">
+        <f>HLOOKUP($J31, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="4">
@@ -4020,7 +4111,10 @@
       <c r="J32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="35" t="str">
+        <f>HLOOKUP($J32, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="4">
@@ -4070,7 +4164,10 @@
       <c r="J33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="35" t="str">
+        <f>HLOOKUP($J33, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="4">
@@ -4120,7 +4217,10 @@
       <c r="J34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="35" t="str">
+        <f>HLOOKUP($J34, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="4">
@@ -4170,7 +4270,10 @@
       <c r="J35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="35" t="str">
+        <f>HLOOKUP($J35, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="4">
@@ -4220,7 +4323,10 @@
       <c r="J36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="35" t="str">
+        <f>HLOOKUP($J36, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="4">
@@ -4270,7 +4376,10 @@
       <c r="J37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="35" t="str">
+        <f>HLOOKUP($J37, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="4">
@@ -4320,7 +4429,10 @@
       <c r="J38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="35" t="str">
+        <f>HLOOKUP($J38, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="4">
@@ -4370,7 +4482,10 @@
       <c r="J39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="35" t="str">
+        <f>HLOOKUP($J39, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>FRANCE</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4">
@@ -4422,7 +4537,10 @@
       <c r="J40" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="35" t="str">
+        <f>HLOOKUP($J40, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>ARGENTINA</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4">
@@ -4472,7 +4590,10 @@
       <c r="J41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="35" t="str">
+        <f>HLOOKUP($J41, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>ARGENTINA</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="4">
@@ -4522,7 +4643,10 @@
       <c r="J42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="35" t="str">
+        <f>HLOOKUP($J42, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>ARGENTINA</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="4">
@@ -4572,7 +4696,10 @@
       <c r="J43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="35" t="str">
+        <f>HLOOKUP($J43, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>SPAIN</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="4">
@@ -4622,7 +4749,10 @@
       <c r="J44" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="35" t="str">
+        <f>HLOOKUP($J44, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>SPAIN</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4">
@@ -4672,7 +4802,10 @@
       <c r="J45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="35" t="str">
+        <f>HLOOKUP($J45, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>SPAIN</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="4">
@@ -4722,7 +4855,10 @@
       <c r="J46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="35" t="str">
+        <f>HLOOKUP($J46, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>NETHERLANDS</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="4">
@@ -4772,7 +4908,10 @@
       <c r="J47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="35" t="str">
+        <f>HLOOKUP($J47, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>NETHERLANDS</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="4">
@@ -4822,7 +4961,10 @@
       <c r="J48" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="35" t="str">
+        <f>HLOOKUP($J48, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>NETHERLANDS</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="4">
@@ -4872,7 +5014,10 @@
       <c r="J49" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="35" t="str">
+        <f>HLOOKUP($J49, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>SWEDEN</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4">
@@ -4922,7 +5067,10 @@
       <c r="J50" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="35" t="str">
+        <f>HLOOKUP($J50, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>SWEDEN</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="4">
@@ -4974,7 +5122,10 @@
       <c r="J51" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="35" t="str">
+        <f>HLOOKUP($J51, LOCATION!$B$2:$M$3, 2, FALSE)</f>
+        <v>BRAZIL</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="4">
@@ -5293,7 +5444,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F82FBB-37CC-46FC-9C8C-131F75C98BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877E0A2-34A0-4649-A298-8A050AEB8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -983,8 +983,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="168" formatCode="dd\ mmm\'\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="0.0\ &quot;kg&quot;"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1389,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1434,9 +1437,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,6 +1486,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C0014-F7B1-460D-B1E9-9CA83663BBBB}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1815,20 +1820,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1846,11 +1851,11 @@
       <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
@@ -1904,7 +1909,7 @@
       <c r="D10" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1927,11 +1932,11 @@
       <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
@@ -2020,20 +2025,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2059,11 +2064,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2132,11 +2137,11 @@
       <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
@@ -2225,20 +2230,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2264,11 +2269,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2292,7 +2297,7 @@
         <v>227</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2321,14 +2326,14 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="29" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2401,10 +2406,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2420,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -2490,7 +2495,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="str">
@@ -2507,7 +2512,7 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="46">
         <v>35699</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2519,12 +2524,18 @@
       <c r="J2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="35" t="str">
+      <c r="K2" s="34" t="str">
         <f>HLOOKUP($J2, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J2, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M2" s="5" t="str">
+        <f>LOWER(IF($L2="English",_xlfn.CONCAT($F2,".",$D2,"@xyz.org"),_xlfn.CONCAT($F2,".",$D2,"@xyz.com")))</f>
+        <v>abbott.annie@xyz.org</v>
+      </c>
       <c r="N2" s="4">
         <v>94</v>
       </c>
@@ -2534,7 +2545,10 @@
       <c r="P2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R2, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R2" s="3" t="s">
         <v>174</v>
       </c>
@@ -2543,7 +2557,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -2560,7 +2574,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="46">
         <v>33641</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2572,12 +2586,18 @@
       <c r="J3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="35" t="str">
+      <c r="K3" s="34" t="str">
         <f>HLOOKUP($J3, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J3, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M3" s="5" t="str">
+        <f t="shared" ref="M3:M51" si="1">LOWER(IF($L3="English",_xlfn.CONCAT($F3,".",$D3,"@xyz.org"),_xlfn.CONCAT($F3,".",$D3,"@xyz.com")))</f>
+        <v>liesuchke.aurelie@xyz.org</v>
+      </c>
       <c r="N3" s="4">
         <v>84.2</v>
       </c>
@@ -2587,7 +2607,10 @@
       <c r="P3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R3, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R3" s="2" t="s">
         <v>175</v>
       </c>
@@ -2596,7 +2619,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -2615,7 +2638,7 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="46">
         <v>25394</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2627,12 +2650,18 @@
       <c r="J4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="35" t="str">
+      <c r="K4" s="34" t="str">
         <f>HLOOKUP($J4, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>BRAZIL</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J4, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Portuguese</v>
+      </c>
+      <c r="M4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>filho.tomas@xyz.com</v>
+      </c>
       <c r="N4" s="4">
         <v>52.9</v>
       </c>
@@ -2642,7 +2671,10 @@
       <c r="P4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R4, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R4" s="2" t="s">
         <v>177</v>
       </c>
@@ -2651,7 +2683,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="45">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -2668,7 +2700,7 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="46">
         <v>27532</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2680,12 +2712,18 @@
       <c r="J5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="34" t="str">
         <f>HLOOKUP($J5, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J5, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>cruickshank.darby@xyz.org</v>
+      </c>
       <c r="N5" s="4">
         <v>48.9</v>
       </c>
@@ -2695,7 +2733,10 @@
       <c r="P5" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R5, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R5" s="2" t="s">
         <v>178</v>
       </c>
@@ -2704,7 +2745,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="45">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -2721,7 +2762,7 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="46">
         <v>25706</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2733,12 +2774,18 @@
       <c r="J6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="35" t="str">
+      <c r="K6" s="34" t="str">
         <f>HLOOKUP($J6, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J6, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>borer.jaydon@xyz.org</v>
+      </c>
       <c r="N6" s="4">
         <v>84.8</v>
       </c>
@@ -2748,7 +2795,10 @@
       <c r="P6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R6, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R6" s="2" t="s">
         <v>179</v>
       </c>
@@ -2757,7 +2807,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -2774,7 +2824,7 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="46">
         <v>33944</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2786,12 +2836,18 @@
       <c r="J7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="35" t="str">
+      <c r="K7" s="34" t="str">
         <f>HLOOKUP($J7, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J7, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lynch.moriah @xyz.org</v>
+      </c>
       <c r="N7" s="4">
         <v>83.2</v>
       </c>
@@ -2801,7 +2857,10 @@
       <c r="P7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R7, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R7" s="2" t="s">
         <v>180</v>
       </c>
@@ -2810,7 +2869,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -2827,7 +2886,7 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="46">
         <v>36370</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2839,12 +2898,18 @@
       <c r="J8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="35" t="str">
+      <c r="K8" s="34" t="str">
         <f>HLOOKUP($J8, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J8, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>eichmann.amiya@xyz.org</v>
+      </c>
       <c r="N8" s="4">
         <v>61.1</v>
       </c>
@@ -2854,7 +2919,10 @@
       <c r="P8" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R8, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R8" s="2" t="s">
         <v>181</v>
       </c>
@@ -2863,7 +2931,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -2880,7 +2948,7 @@
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="46">
         <v>23141</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2892,12 +2960,18 @@
       <c r="J9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="35" t="str">
+      <c r="K9" s="34" t="str">
         <f>HLOOKUP($J9, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J9, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>rau.pierce@xyz.org</v>
+      </c>
       <c r="N9" s="4">
         <v>105.7</v>
       </c>
@@ -2907,7 +2981,10 @@
       <c r="P9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R9, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R9" s="2" t="s">
         <v>182</v>
       </c>
@@ -2916,7 +2993,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -2933,7 +3010,7 @@
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="46">
         <v>25965</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2945,12 +3022,18 @@
       <c r="J10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="35" t="str">
+      <c r="K10" s="34" t="str">
         <f>HLOOKUP($J10, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>UK</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J10, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>stevens.amelia@xyz.org</v>
+      </c>
       <c r="N10" s="4">
         <v>65.3</v>
       </c>
@@ -2960,7 +3043,10 @@
       <c r="P10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R10, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R10" s="2" t="s">
         <v>183</v>
       </c>
@@ -2969,7 +3055,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -2986,7 +3072,7 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="46">
         <v>23732</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2998,12 +3084,18 @@
       <c r="J11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="35" t="str">
+      <c r="K11" s="34" t="str">
         <f>HLOOKUP($J11, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>UK</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J11, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>simpson.toby@xyz.org</v>
+      </c>
       <c r="N11" s="4">
         <v>62.9</v>
       </c>
@@ -3013,7 +3105,10 @@
       <c r="P11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R11, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R11" s="2" t="s">
         <v>181</v>
       </c>
@@ -3022,7 +3117,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="45">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -3039,7 +3134,7 @@
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="46">
         <v>31733</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3051,12 +3146,18 @@
       <c r="J12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="35" t="str">
+      <c r="K12" s="34" t="str">
         <f>HLOOKUP($J12, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>UK</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J12, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>murphy.ethan@xyz.org</v>
+      </c>
       <c r="N12" s="4">
         <v>104.3</v>
       </c>
@@ -3066,7 +3167,10 @@
       <c r="P12" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R12, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R12" s="2" t="s">
         <v>184</v>
       </c>
@@ -3075,7 +3179,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="45">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -3092,7 +3196,7 @@
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="46">
         <v>28412</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3104,12 +3208,18 @@
       <c r="J13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="35" t="str">
+      <c r="K13" s="34" t="str">
         <f>HLOOKUP($J13, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>UK</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J13, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wood.ashley@xyz.org</v>
+      </c>
       <c r="N13" s="4">
         <v>100.7</v>
       </c>
@@ -3119,7 +3229,10 @@
       <c r="P13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R13, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R13" s="2" t="s">
         <v>185</v>
       </c>
@@ -3128,7 +3241,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -3145,7 +3258,7 @@
       <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="46">
         <v>28168</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3157,12 +3270,18 @@
       <c r="J14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="35" t="str">
+      <c r="K14" s="34" t="str">
         <f>HLOOKUP($J14, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>UK</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J14, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>scott.megan@xyz.org</v>
+      </c>
       <c r="N14" s="4">
         <v>70.900000000000006</v>
       </c>
@@ -3172,7 +3291,10 @@
       <c r="P14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R14, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R14" s="2" t="s">
         <v>186</v>
       </c>
@@ -3181,7 +3303,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="45">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="str">
@@ -3198,7 +3320,7 @@
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="46">
         <v>21788</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3210,12 +3332,18 @@
       <c r="J15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="35" t="str">
+      <c r="K15" s="34" t="str">
         <f>HLOOKUP($J15, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>GERMANY</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J15, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>weinhae.helmut@xyz.com</v>
+      </c>
       <c r="N15" s="4">
         <v>68.3</v>
       </c>
@@ -3225,7 +3353,10 @@
       <c r="P15" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R15, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R15" s="2" t="s">
         <v>187</v>
       </c>
@@ -3234,7 +3365,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="45">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -3251,7 +3382,7 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="46">
         <v>23804</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3263,12 +3394,18 @@
       <c r="J16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="35" t="str">
+      <c r="K16" s="34" t="str">
         <f>HLOOKUP($J16, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>GERMANY</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J16, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>schotin.milena@xyz.com</v>
+      </c>
       <c r="N16" s="4">
         <v>105.3</v>
       </c>
@@ -3278,7 +3415,10 @@
       <c r="P16" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R16, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R16" s="2" t="s">
         <v>188</v>
       </c>
@@ -3287,7 +3427,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="45">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="str">
@@ -3304,7 +3444,7 @@
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="46">
         <v>25405</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3316,12 +3456,18 @@
       <c r="J17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="35" t="str">
+      <c r="K17" s="34" t="str">
         <f>HLOOKUP($J17, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>GERMANY</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J17, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>birnbaum.lothar@xyz.com</v>
+      </c>
       <c r="N17" s="4">
         <v>48.6</v>
       </c>
@@ -3331,7 +3477,10 @@
       <c r="P17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R17, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R17" s="2" t="s">
         <v>178</v>
       </c>
@@ -3340,7 +3489,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="45">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="str">
@@ -3357,7 +3506,7 @@
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="46">
         <v>26582</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3369,12 +3518,18 @@
       <c r="J18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="35" t="str">
+      <c r="K18" s="34" t="str">
         <f>HLOOKUP($J18, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>GERMANY</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J18, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>stolze.pietro@xyz.com</v>
+      </c>
       <c r="N18" s="4">
         <v>105.9</v>
       </c>
@@ -3384,7 +3539,10 @@
       <c r="P18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R18, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R18" s="2" t="s">
         <v>189</v>
       </c>
@@ -3393,7 +3551,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="45">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
@@ -3410,7 +3568,7 @@
       <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="46">
         <v>21793</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3422,12 +3580,18 @@
       <c r="J19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="35" t="str">
+      <c r="K19" s="34" t="str">
         <f>HLOOKUP($J19, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>GERMANY</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J19, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tlustek.richard @xyz.com</v>
+      </c>
       <c r="N19" s="4">
         <v>71.099999999999994</v>
       </c>
@@ -3437,7 +3601,10 @@
       <c r="P19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R19, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R19" s="2" t="s">
         <v>190</v>
       </c>
@@ -3446,7 +3613,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="45">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="str">
@@ -3463,7 +3630,7 @@
       <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="46">
         <v>28262</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3475,12 +3642,18 @@
       <c r="J20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="35" t="str">
+      <c r="K20" s="34" t="str">
         <f>HLOOKUP($J20, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J20, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>raynor.earnestine@xyz.org</v>
+      </c>
       <c r="N20" s="4">
         <v>70.3</v>
       </c>
@@ -3490,7 +3663,10 @@
       <c r="P20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R20, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R20" s="2" t="s">
         <v>191</v>
       </c>
@@ -3499,7 +3675,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="45">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="str">
@@ -3516,7 +3692,7 @@
       <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="46">
         <v>27767</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3528,12 +3704,18 @@
       <c r="J21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="35" t="str">
+      <c r="K21" s="34" t="str">
         <f>HLOOKUP($J21, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J21, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gaylord.jason@xyz.org</v>
+      </c>
       <c r="N21" s="4">
         <v>54.7</v>
       </c>
@@ -3543,7 +3725,10 @@
       <c r="P21" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R21, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R21" s="2" t="s">
         <v>192</v>
       </c>
@@ -3552,7 +3737,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="45">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="str">
@@ -3569,7 +3754,7 @@
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="46">
         <v>35268</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -3581,12 +3766,18 @@
       <c r="J22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="35" t="str">
+      <c r="K22" s="34" t="str">
         <f>HLOOKUP($J22, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J22, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>sauer.kendrick@xyz.org</v>
+      </c>
       <c r="N22" s="4">
         <v>100.9</v>
       </c>
@@ -3596,7 +3787,10 @@
       <c r="P22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R22, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R22" s="2" t="s">
         <v>193</v>
       </c>
@@ -3605,7 +3799,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="45">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="str">
@@ -3622,7 +3816,7 @@
       <c r="F23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="46">
         <v>23483</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3634,12 +3828,18 @@
       <c r="J23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="35" t="str">
+      <c r="K23" s="34" t="str">
         <f>HLOOKUP($J23, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J23, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>olson.annabell@xyz.org</v>
+      </c>
       <c r="N23" s="4">
         <v>84.3</v>
       </c>
@@ -3649,7 +3849,10 @@
       <c r="P23" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R23, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R23" s="2" t="s">
         <v>194</v>
       </c>
@@ -3658,7 +3861,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="45">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="str">
@@ -3675,7 +3878,7 @@
       <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="46">
         <v>20437</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3687,12 +3890,18 @@
       <c r="J24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="35" t="str">
+      <c r="K24" s="34" t="str">
         <f>HLOOKUP($J24, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J24, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>upton.jena@xyz.org</v>
+      </c>
       <c r="N24" s="4">
         <v>66.8</v>
       </c>
@@ -3702,7 +3911,10 @@
       <c r="P24" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R24, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R24" s="2" t="s">
         <v>195</v>
       </c>
@@ -3711,7 +3923,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="45">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="str">
@@ -3728,7 +3940,7 @@
       <c r="F25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="46">
         <v>36400</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3740,13 +3952,19 @@
       <c r="J25" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="35" t="str">
+      <c r="K25" s="34" t="str">
         <f>HLOOKUP($J25, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="4">
+      <c r="L25" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J25, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bins.shanny@xyz.org</v>
+      </c>
+      <c r="N25" s="47">
         <v>59.4</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -3755,7 +3973,10 @@
       <c r="P25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R25, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R25" s="2" t="s">
         <v>196</v>
       </c>
@@ -3764,7 +3985,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="45">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="str">
@@ -3781,7 +4002,7 @@
       <c r="F26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="46">
         <v>24309</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -3793,13 +4014,19 @@
       <c r="J26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="35" t="str">
+      <c r="K26" s="34" t="str">
         <f>HLOOKUP($J26, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4">
+      <c r="L26" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J26, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>abshire.tia@xyz.org</v>
+      </c>
+      <c r="N26" s="47">
         <v>77.8</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -3808,7 +4035,10 @@
       <c r="P26" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R26, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R26" s="2" t="s">
         <v>181</v>
       </c>
@@ -3817,7 +4047,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="45">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
@@ -3834,7 +4064,7 @@
       <c r="F27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="46">
         <v>28570</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -3846,13 +4076,19 @@
       <c r="J27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="35" t="str">
+      <c r="K27" s="34" t="str">
         <f>HLOOKUP($J27, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRALIA</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="4">
+      <c r="L27" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J27, LOCATION!$B$2:$M$2, 0))</f>
+        <v>English</v>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>runolfsdottir.isabel@xyz.org</v>
+      </c>
+      <c r="N27" s="47">
         <v>85.9</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -3861,7 +4097,10 @@
       <c r="P27" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R27, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R27" s="2" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +4109,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="45">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="str">
@@ -3887,7 +4126,7 @@
       <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="46">
         <v>25767</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3899,13 +4138,19 @@
       <c r="J28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="35" t="str">
+      <c r="K28" s="34" t="str">
         <f>HLOOKUP($J28, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRIA</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4">
+      <c r="L28" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J28, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wesack.barney@xyz.com</v>
+      </c>
+      <c r="N28" s="47">
         <v>93.4</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -3914,7 +4159,10 @@
       <c r="P28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R28, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R28" s="2" t="s">
         <v>197</v>
       </c>
@@ -3923,7 +4171,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="45">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="str">
@@ -3940,7 +4188,7 @@
       <c r="F29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="46">
         <v>30020</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3952,13 +4200,19 @@
       <c r="J29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="35" t="str">
+      <c r="K29" s="34" t="str">
         <f>HLOOKUP($J29, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRIA</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="4">
+      <c r="L29" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J29, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>kade.baruch@xyz.com</v>
+      </c>
+      <c r="N29" s="47">
         <v>95.5</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -3967,7 +4221,10 @@
       <c r="P29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R29, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R29" s="2" t="s">
         <v>186</v>
       </c>
@@ -3976,7 +4233,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="45">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="str">
@@ -3993,7 +4250,7 @@
       <c r="F30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="46">
         <v>34361</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -4005,13 +4262,19 @@
       <c r="J30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K30" s="35" t="str">
+      <c r="K30" s="34" t="str">
         <f>HLOOKUP($J30, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>AUSTRIA</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="4">
+      <c r="L30" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J30, LOCATION!$B$2:$M$2, 0))</f>
+        <v>German</v>
+      </c>
+      <c r="M30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>rosemann.liesbeth@xyz.com</v>
+      </c>
+      <c r="N30" s="47">
         <v>52.2</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -4020,7 +4283,10 @@
       <c r="P30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R30, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R30" s="2" t="s">
         <v>181</v>
       </c>
@@ -4029,7 +4295,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="45">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="str">
@@ -4046,7 +4312,7 @@
       <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="46">
         <v>29137</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -4058,13 +4324,19 @@
       <c r="J31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="35" t="str">
+      <c r="K31" s="34" t="str">
         <f>HLOOKUP($J31, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4">
+      <c r="L31" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J31, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>moreau.valentine@xyz.com</v>
+      </c>
+      <c r="N31" s="47">
         <v>74.599999999999994</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -4073,7 +4345,10 @@
       <c r="P31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R31, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R31" s="2" t="s">
         <v>198</v>
       </c>
@@ -4082,7 +4357,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="45">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="str">
@@ -4099,7 +4374,7 @@
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="46">
         <v>32867</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4111,13 +4386,19 @@
       <c r="J32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="35" t="str">
+      <c r="K32" s="34" t="str">
         <f>HLOOKUP($J32, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="4">
+      <c r="L32" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J32, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>durand.paulette@xyz.com</v>
+      </c>
+      <c r="N32" s="47">
         <v>81.7</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -4126,7 +4407,10 @@
       <c r="P32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R32, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R32" s="2" t="s">
         <v>197</v>
       </c>
@@ -4135,7 +4419,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="45">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="str">
@@ -4152,7 +4436,7 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="46">
         <v>25925</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4164,13 +4448,19 @@
       <c r="J33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="35" t="str">
+      <c r="K33" s="34" t="str">
         <f>HLOOKUP($J33, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4">
+      <c r="L33" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J33, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>chevalier.laure-alix@xyz.com</v>
+      </c>
+      <c r="N33" s="47">
         <v>78.099999999999994</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -4179,7 +4469,10 @@
       <c r="P33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R33, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R33" s="2" t="s">
         <v>195</v>
       </c>
@@ -4188,7 +4481,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="45">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="str">
@@ -4205,7 +4498,7 @@
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="46">
         <v>29529</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -4217,13 +4510,19 @@
       <c r="J34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K34" s="35" t="str">
+      <c r="K34" s="34" t="str">
         <f>HLOOKUP($J34, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4">
+      <c r="L34" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J34, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>toussaint.claude@xyz.com</v>
+      </c>
+      <c r="N34" s="47">
         <v>57.1</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -4232,7 +4531,10 @@
       <c r="P34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R34, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R34" s="2" t="s">
         <v>199</v>
       </c>
@@ -4241,7 +4543,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="45">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="str">
@@ -4258,7 +4560,7 @@
       <c r="F35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="46">
         <v>29875</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -4270,13 +4572,19 @@
       <c r="J35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="35" t="str">
+      <c r="K35" s="34" t="str">
         <f>HLOOKUP($J35, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="4">
+      <c r="L35" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J35, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lenoir.victor@xyz.com</v>
+      </c>
+      <c r="N35" s="47">
         <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -4285,7 +4593,10 @@
       <c r="P35" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R35, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R35" s="2" t="s">
         <v>193</v>
       </c>
@@ -4294,7 +4605,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="45">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="str">
@@ -4311,7 +4622,7 @@
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="46">
         <v>20300</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -4323,13 +4634,19 @@
       <c r="J36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="35" t="str">
+      <c r="K36" s="34" t="str">
         <f>HLOOKUP($J36, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="4">
+      <c r="L36" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J36, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lenoir.arthur@xyz.com</v>
+      </c>
+      <c r="N36" s="47">
         <v>88.6</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -4338,7 +4655,10 @@
       <c r="P36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R36, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R36" s="2" t="s">
         <v>200</v>
       </c>
@@ -4347,7 +4667,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="45">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="str">
@@ -4364,7 +4684,7 @@
       <c r="F37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="46">
         <v>27428</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -4376,13 +4696,19 @@
       <c r="J37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="35" t="str">
+      <c r="K37" s="34" t="str">
         <f>HLOOKUP($J37, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="4">
+      <c r="L37" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J37, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lebrun-brun.benjamin@xyz.com</v>
+      </c>
+      <c r="N37" s="47">
         <v>78.2</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -4391,7 +4717,10 @@
       <c r="P37" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R37, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R37" s="2" t="s">
         <v>193</v>
       </c>
@@ -4400,7 +4729,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="45">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="str">
@@ -4417,7 +4746,7 @@
       <c r="F38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="46">
         <v>31585</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -4429,13 +4758,19 @@
       <c r="J38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K38" s="35" t="str">
+      <c r="K38" s="34" t="str">
         <f>HLOOKUP($J38, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="4">
+      <c r="L38" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J38, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>maillard.antoine@xyz.com</v>
+      </c>
+      <c r="N38" s="47">
         <v>95.8</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -4444,7 +4779,10 @@
       <c r="P38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R38, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R38" s="2" t="s">
         <v>201</v>
       </c>
@@ -4453,7 +4791,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="45">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="str">
@@ -4470,7 +4808,7 @@
       <c r="F39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="46">
         <v>30327</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -4482,13 +4820,19 @@
       <c r="J39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="35" t="str">
+      <c r="K39" s="34" t="str">
         <f>HLOOKUP($J39, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>FRANCE</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="4">
+      <c r="L39" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J39, LOCATION!$B$2:$M$2, 0))</f>
+        <v>French</v>
+      </c>
+      <c r="M39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>hoarau-guyon.bernard@xyz.com</v>
+      </c>
+      <c r="N39" s="47">
         <v>59.7</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -4497,7 +4841,10 @@
       <c r="P39" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R39, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R39" s="2" t="s">
         <v>174</v>
       </c>
@@ -4506,7 +4853,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="45">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="str">
@@ -4525,7 +4872,7 @@
       <c r="F40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="46">
         <v>31016</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -4537,13 +4884,19 @@
       <c r="J40" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K40" s="35" t="str">
+      <c r="K40" s="34" t="str">
         <f>HLOOKUP($J40, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>ARGENTINA</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="4">
+      <c r="L40" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J40, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tercero.hidalgo@xyz.com</v>
+      </c>
+      <c r="N40" s="47">
         <v>77.7</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -4552,7 +4905,10 @@
       <c r="P40" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R40, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R40" s="2" t="s">
         <v>196</v>
       </c>
@@ -4561,7 +4917,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="45">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="str">
@@ -4578,7 +4934,7 @@
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="46">
         <v>32314</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -4590,13 +4946,19 @@
       <c r="J41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K41" s="35" t="str">
+      <c r="K41" s="34" t="str">
         <f>HLOOKUP($J41, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>ARGENTINA</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="4">
+      <c r="L41" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J41, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>polanco.hadalgo@xyz.com</v>
+      </c>
+      <c r="N41" s="47">
         <v>98</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -4605,7 +4967,10 @@
       <c r="P41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R41, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R41" s="2" t="s">
         <v>195</v>
       </c>
@@ -4614,7 +4979,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="45">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="str">
@@ -4631,7 +4996,7 @@
       <c r="F42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="46">
         <v>27076</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -4643,13 +5008,19 @@
       <c r="J42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K42" s="35" t="str">
+      <c r="K42" s="34" t="str">
         <f>HLOOKUP($J42, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>ARGENTINA</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="4">
+      <c r="L42" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J42, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>oliviera.laura@xyz.com</v>
+      </c>
+      <c r="N42" s="47">
         <v>51.9</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -4658,7 +5029,10 @@
       <c r="P42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R42, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R42" s="2" t="s">
         <v>202</v>
       </c>
@@ -4667,7 +5041,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="45">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="str">
@@ -4684,7 +5058,7 @@
       <c r="F43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="46">
         <v>32941</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -4696,13 +5070,19 @@
       <c r="J43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="35" t="str">
+      <c r="K43" s="34" t="str">
         <f>HLOOKUP($J43, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>SPAIN</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="4">
+      <c r="L43" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J43, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>garza.ainhoa@xyz.com</v>
+      </c>
+      <c r="N43" s="47">
         <v>55.6</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -4711,7 +5091,10 @@
       <c r="P43" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R43, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R43" s="2" t="s">
         <v>203</v>
       </c>
@@ -4720,7 +5103,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="45">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="str">
@@ -4737,7 +5120,7 @@
       <c r="F44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="46">
         <v>21927</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -4749,13 +5132,19 @@
       <c r="J44" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K44" s="35" t="str">
+      <c r="K44" s="34" t="str">
         <f>HLOOKUP($J44, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>SPAIN</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="4">
+      <c r="L44" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J44, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>banda.isabel@xyz.com</v>
+      </c>
+      <c r="N44" s="47">
         <v>102.3</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -4764,7 +5153,10 @@
       <c r="P44" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R44, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R44" s="2" t="s">
         <v>196</v>
       </c>
@@ -4773,7 +5165,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="45">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="str">
@@ -4790,7 +5182,7 @@
       <c r="F45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="46">
         <v>23952</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -4802,13 +5194,19 @@
       <c r="J45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K45" s="35" t="str">
+      <c r="K45" s="34" t="str">
         <f>HLOOKUP($J45, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>SPAIN</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="4">
+      <c r="L45" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J45, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Spanish</v>
+      </c>
+      <c r="M45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>mateos.carolota@xyz.com</v>
+      </c>
+      <c r="N45" s="47">
         <v>58.8</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -4817,7 +5215,10 @@
       <c r="P45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R45, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R45" s="2" t="s">
         <v>202</v>
       </c>
@@ -4826,7 +5227,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="45">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="str">
@@ -4843,7 +5244,7 @@
       <c r="F46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="46">
         <v>22044</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -4855,13 +5256,19 @@
       <c r="J46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K46" s="35" t="str">
+      <c r="K46" s="34" t="str">
         <f>HLOOKUP($J46, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>NETHERLANDS</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="4">
+      <c r="L46" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J46, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Dutch</v>
+      </c>
+      <c r="M46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>prins.elize@xyz.com</v>
+      </c>
+      <c r="N46" s="47">
         <v>63.8</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -4870,7 +5277,10 @@
       <c r="P46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R46, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R46" s="2" t="s">
         <v>204</v>
       </c>
@@ -4879,7 +5289,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="45">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="str">
@@ -4896,7 +5306,7 @@
       <c r="F47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="46">
         <v>26940</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -4908,13 +5318,19 @@
       <c r="J47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K47" s="35" t="str">
+      <c r="K47" s="34" t="str">
         <f>HLOOKUP($J47, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>NETHERLANDS</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="4">
+      <c r="L47" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J47, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Dutch</v>
+      </c>
+      <c r="M47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>pham.ryan@xyz.com</v>
+      </c>
+      <c r="N47" s="47">
         <v>98.6</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -4923,7 +5339,10 @@
       <c r="P47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R47, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R47" s="2" t="s">
         <v>195</v>
       </c>
@@ -4932,7 +5351,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="45">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="str">
@@ -4949,7 +5368,7 @@
       <c r="F48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="46">
         <v>24936</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -4961,13 +5380,19 @@
       <c r="J48" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="35" t="str">
+      <c r="K48" s="34" t="str">
         <f>HLOOKUP($J48, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>NETHERLANDS</v>
       </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="4">
+      <c r="L48" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J48, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Dutch</v>
+      </c>
+      <c r="M48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>rotteveel.elise@xyz.com</v>
+      </c>
+      <c r="N48" s="47">
         <v>61.8</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -4976,7 +5401,10 @@
       <c r="P48" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R48, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R48" s="2" t="s">
         <v>195</v>
       </c>
@@ -4985,7 +5413,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="45">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="str">
@@ -5002,7 +5430,7 @@
       <c r="F49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="46">
         <v>35567</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -5014,13 +5442,19 @@
       <c r="J49" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K49" s="35" t="str">
+      <c r="K49" s="34" t="str">
         <f>HLOOKUP($J49, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>SWEDEN</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="4">
+      <c r="L49" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J49, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Swedish</v>
+      </c>
+      <c r="M49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>soderberg.mirjam@xyz.com</v>
+      </c>
+      <c r="N49" s="47">
         <v>50</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -5029,7 +5463,10 @@
       <c r="P49" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R49, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R49" s="2" t="s">
         <v>177</v>
       </c>
@@ -5038,7 +5475,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="45">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="str">
@@ -5055,7 +5492,7 @@
       <c r="F50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="46">
         <v>31832</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -5067,13 +5504,19 @@
       <c r="J50" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K50" s="35" t="str">
+      <c r="K50" s="34" t="str">
         <f>HLOOKUP($J50, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>SWEDEN</v>
       </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="4">
+      <c r="L50" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J50, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Swedish</v>
+      </c>
+      <c r="M50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>palsson.berndt@xyz.com</v>
+      </c>
+      <c r="N50" s="47">
         <v>45.9</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -5082,7 +5525,10 @@
       <c r="P50" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R50, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>OUTDOOR</v>
+      </c>
       <c r="R50" s="2" t="s">
         <v>205</v>
       </c>
@@ -5091,7 +5537,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="45">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="str">
@@ -5110,7 +5556,7 @@
       <c r="F51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="46">
         <v>34178</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -5122,13 +5568,19 @@
       <c r="J51" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K51" s="35" t="str">
+      <c r="K51" s="34" t="str">
         <f>HLOOKUP($J51, LOCATION!$B$2:$M$3, 2, FALSE)</f>
         <v>BRAZIL</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="4">
+      <c r="L51" s="34" t="str">
+        <f>INDEX(LOCATION!$B$1:$M$3, 1, MATCH($J51, LOCATION!$B$2:$M$2, 0))</f>
+        <v>Portuguese</v>
+      </c>
+      <c r="M51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>sobrinho.adriano@xyz.com</v>
+      </c>
+      <c r="N51" s="47">
         <v>92.5</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -5137,7 +5589,10 @@
       <c r="P51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" s="3" t="str">
+        <f>INDEX(SPORT!$A$2:$B$33, MATCH($R51, SPORT!$B$2:$B$33, 0), 1)</f>
+        <v>INDOOR</v>
+      </c>
       <c r="R51" s="2" t="s">
         <v>206</v>
       </c>
@@ -5147,6 +5602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5157,8 +5613,8 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5168,266 +5624,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5444,7 +5900,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877E0A2-34A0-4649-A298-8A050AEB8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305A45C-AB5D-46F9-BB25-C656BCE11D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -985,9 +985,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="000"/>
-    <numFmt numFmtId="168" formatCode="dd\ mmm\'\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="165" formatCode="000"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmm\'\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0\ &quot;kg&quot;"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1392,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1456,6 +1456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1486,11 +1491,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1820,20 +1821,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1851,11 +1852,11 @@
       <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
@@ -1932,11 +1933,11 @@
       <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
@@ -2025,20 +2026,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2064,11 +2065,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2137,11 +2138,11 @@
       <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
@@ -2230,20 +2231,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2269,11 +2270,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -2406,10 +2407,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,7 +2496,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="str">
@@ -2512,7 +2513,7 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="36">
         <v>35699</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2552,12 +2553,12 @@
       <c r="R2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="48">
         <v>80727</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -2574,7 +2575,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="36">
         <v>33641</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2619,7 +2620,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -2638,7 +2639,7 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="36">
         <v>25394</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2683,7 +2684,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -2700,7 +2701,7 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="36">
         <v>27532</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2745,7 +2746,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -2762,7 +2763,7 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="36">
         <v>25706</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2807,7 +2808,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -2824,7 +2825,7 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="36">
         <v>33944</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2869,7 +2870,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -2886,7 +2887,7 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="36">
         <v>36370</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2931,7 +2932,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -2948,7 +2949,7 @@
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="36">
         <v>23141</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2993,7 +2994,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -3010,7 +3011,7 @@
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="36">
         <v>25965</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3055,7 +3056,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -3072,7 +3073,7 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="36">
         <v>23732</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3117,7 +3118,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -3134,7 +3135,7 @@
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="36">
         <v>31733</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3179,7 +3180,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -3196,7 +3197,7 @@
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="36">
         <v>28412</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3241,7 +3242,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -3258,7 +3259,7 @@
       <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="36">
         <v>28168</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3303,7 +3304,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="str">
@@ -3320,7 +3321,7 @@
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="36">
         <v>21788</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3365,7 +3366,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -3382,7 +3383,7 @@
       <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="36">
         <v>23804</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3427,7 +3428,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="str">
@@ -3444,7 +3445,7 @@
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="36">
         <v>25405</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3489,7 +3490,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="str">
@@ -3506,7 +3507,7 @@
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="36">
         <v>26582</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3551,7 +3552,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
@@ -3568,7 +3569,7 @@
       <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="36">
         <v>21793</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3613,7 +3614,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="str">
@@ -3630,7 +3631,7 @@
       <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="36">
         <v>28262</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3675,7 +3676,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
+      <c r="A21" s="35">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="str">
@@ -3692,7 +3693,7 @@
       <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="36">
         <v>27767</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3737,7 +3738,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="35">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="str">
@@ -3754,7 +3755,7 @@
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="36">
         <v>35268</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -3799,7 +3800,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="35">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="str">
@@ -3816,7 +3817,7 @@
       <c r="F23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="36">
         <v>23483</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3861,7 +3862,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="35">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="str">
@@ -3878,7 +3879,7 @@
       <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="36">
         <v>20437</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3923,7 +3924,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="35">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="str">
@@ -3940,7 +3941,7 @@
       <c r="F25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="36">
         <v>36400</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3964,7 +3965,7 @@
         <f t="shared" si="1"/>
         <v>bins.shanny@xyz.org</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="37">
         <v>59.4</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -3985,7 +3986,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="45">
+      <c r="A26" s="35">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="str">
@@ -4002,7 +4003,7 @@
       <c r="F26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="36">
         <v>24309</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -4026,7 +4027,7 @@
         <f t="shared" si="1"/>
         <v>abshire.tia@xyz.org</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="37">
         <v>77.8</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -4047,7 +4048,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+      <c r="A27" s="35">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
@@ -4064,7 +4065,7 @@
       <c r="F27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="36">
         <v>28570</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4088,7 +4089,7 @@
         <f t="shared" si="1"/>
         <v>runolfsdottir.isabel@xyz.org</v>
       </c>
-      <c r="N27" s="47">
+      <c r="N27" s="37">
         <v>85.9</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -4109,7 +4110,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="45">
+      <c r="A28" s="35">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="str">
@@ -4126,7 +4127,7 @@
       <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="36">
         <v>25767</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -4150,7 +4151,7 @@
         <f t="shared" si="1"/>
         <v>wesack.barney@xyz.com</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="37">
         <v>93.4</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -4171,7 +4172,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+      <c r="A29" s="35">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="str">
@@ -4188,7 +4189,7 @@
       <c r="F29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="36">
         <v>30020</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -4212,7 +4213,7 @@
         <f t="shared" si="1"/>
         <v>kade.baruch@xyz.com</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="37">
         <v>95.5</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -4233,7 +4234,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+      <c r="A30" s="35">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="str">
@@ -4250,7 +4251,7 @@
       <c r="F30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="36">
         <v>34361</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -4274,7 +4275,7 @@
         <f t="shared" si="1"/>
         <v>rosemann.liesbeth@xyz.com</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N30" s="37">
         <v>52.2</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -4295,7 +4296,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="45">
+      <c r="A31" s="35">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="str">
@@ -4312,7 +4313,7 @@
       <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="36">
         <v>29137</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -4336,7 +4337,7 @@
         <f t="shared" si="1"/>
         <v>moreau.valentine@xyz.com</v>
       </c>
-      <c r="N31" s="47">
+      <c r="N31" s="37">
         <v>74.599999999999994</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -4357,7 +4358,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
+      <c r="A32" s="35">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="str">
@@ -4374,7 +4375,7 @@
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="36">
         <v>32867</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4398,7 +4399,7 @@
         <f t="shared" si="1"/>
         <v>durand.paulette@xyz.com</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="37">
         <v>81.7</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -4419,7 +4420,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+      <c r="A33" s="35">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="str">
@@ -4436,7 +4437,7 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="36">
         <v>25925</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4460,7 +4461,7 @@
         <f t="shared" si="1"/>
         <v>chevalier.laure-alix@xyz.com</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="37">
         <v>78.099999999999994</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -4481,7 +4482,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+      <c r="A34" s="35">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="str">
@@ -4498,7 +4499,7 @@
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="36">
         <v>29529</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -4522,7 +4523,7 @@
         <f t="shared" si="1"/>
         <v>toussaint.claude@xyz.com</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="37">
         <v>57.1</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -4543,7 +4544,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="45">
+      <c r="A35" s="35">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="str">
@@ -4560,7 +4561,7 @@
       <c r="F35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="36">
         <v>29875</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -4584,7 +4585,7 @@
         <f t="shared" si="1"/>
         <v>lenoir.victor@xyz.com</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="37">
         <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -4605,7 +4606,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="45">
+      <c r="A36" s="35">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="str">
@@ -4622,7 +4623,7 @@
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="36">
         <v>20300</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -4646,7 +4647,7 @@
         <f t="shared" si="1"/>
         <v>lenoir.arthur@xyz.com</v>
       </c>
-      <c r="N36" s="47">
+      <c r="N36" s="37">
         <v>88.6</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -4667,7 +4668,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="45">
+      <c r="A37" s="35">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="str">
@@ -4684,7 +4685,7 @@
       <c r="F37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="36">
         <v>27428</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -4708,7 +4709,7 @@
         <f t="shared" si="1"/>
         <v>lebrun-brun.benjamin@xyz.com</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="37">
         <v>78.2</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -4729,7 +4730,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="45">
+      <c r="A38" s="35">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="str">
@@ -4746,7 +4747,7 @@
       <c r="F38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="36">
         <v>31585</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -4770,7 +4771,7 @@
         <f t="shared" si="1"/>
         <v>maillard.antoine@xyz.com</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="37">
         <v>95.8</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -4791,7 +4792,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
+      <c r="A39" s="35">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="str">
@@ -4808,7 +4809,7 @@
       <c r="F39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="36">
         <v>30327</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -4832,7 +4833,7 @@
         <f t="shared" si="1"/>
         <v>hoarau-guyon.bernard@xyz.com</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="37">
         <v>59.7</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -4853,7 +4854,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="45">
+      <c r="A40" s="35">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="str">
@@ -4872,7 +4873,7 @@
       <c r="F40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="36">
         <v>31016</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -4896,7 +4897,7 @@
         <f t="shared" si="1"/>
         <v>tercero.hidalgo@xyz.com</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="37">
         <v>77.7</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -4917,7 +4918,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="45">
+      <c r="A41" s="35">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="str">
@@ -4934,7 +4935,7 @@
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="36">
         <v>32314</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -4958,7 +4959,7 @@
         <f t="shared" si="1"/>
         <v>polanco.hadalgo@xyz.com</v>
       </c>
-      <c r="N41" s="47">
+      <c r="N41" s="37">
         <v>98</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -4979,7 +4980,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+      <c r="A42" s="35">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="str">
@@ -4996,7 +4997,7 @@
       <c r="F42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="36">
         <v>27076</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -5020,7 +5021,7 @@
         <f t="shared" si="1"/>
         <v>oliviera.laura@xyz.com</v>
       </c>
-      <c r="N42" s="47">
+      <c r="N42" s="37">
         <v>51.9</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -5041,7 +5042,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="45">
+      <c r="A43" s="35">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="str">
@@ -5058,7 +5059,7 @@
       <c r="F43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="36">
         <v>32941</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -5082,7 +5083,7 @@
         <f t="shared" si="1"/>
         <v>garza.ainhoa@xyz.com</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="37">
         <v>55.6</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -5103,7 +5104,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
+      <c r="A44" s="35">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="str">
@@ -5120,7 +5121,7 @@
       <c r="F44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="36">
         <v>21927</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -5144,7 +5145,7 @@
         <f t="shared" si="1"/>
         <v>banda.isabel@xyz.com</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N44" s="37">
         <v>102.3</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -5165,7 +5166,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="45">
+      <c r="A45" s="35">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="str">
@@ -5182,7 +5183,7 @@
       <c r="F45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="36">
         <v>23952</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -5206,7 +5207,7 @@
         <f t="shared" si="1"/>
         <v>mateos.carolota@xyz.com</v>
       </c>
-      <c r="N45" s="47">
+      <c r="N45" s="37">
         <v>58.8</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -5227,7 +5228,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="45">
+      <c r="A46" s="35">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="str">
@@ -5244,7 +5245,7 @@
       <c r="F46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="36">
         <v>22044</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -5268,7 +5269,7 @@
         <f t="shared" si="1"/>
         <v>prins.elize@xyz.com</v>
       </c>
-      <c r="N46" s="47">
+      <c r="N46" s="37">
         <v>63.8</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -5289,7 +5290,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="45">
+      <c r="A47" s="35">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="str">
@@ -5306,7 +5307,7 @@
       <c r="F47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="36">
         <v>26940</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -5330,7 +5331,7 @@
         <f t="shared" si="1"/>
         <v>pham.ryan@xyz.com</v>
       </c>
-      <c r="N47" s="47">
+      <c r="N47" s="37">
         <v>98.6</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -5351,7 +5352,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="45">
+      <c r="A48" s="35">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="str">
@@ -5368,7 +5369,7 @@
       <c r="F48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="36">
         <v>24936</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -5392,7 +5393,7 @@
         <f t="shared" si="1"/>
         <v>rotteveel.elise@xyz.com</v>
       </c>
-      <c r="N48" s="47">
+      <c r="N48" s="37">
         <v>61.8</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -5413,7 +5414,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="45">
+      <c r="A49" s="35">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="str">
@@ -5430,7 +5431,7 @@
       <c r="F49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="36">
         <v>35567</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -5454,7 +5455,7 @@
         <f t="shared" si="1"/>
         <v>soderberg.mirjam@xyz.com</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="37">
         <v>50</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -5475,7 +5476,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="45">
+      <c r="A50" s="35">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="str">
@@ -5492,7 +5493,7 @@
       <c r="F50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="36">
         <v>31832</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -5516,7 +5517,7 @@
         <f t="shared" si="1"/>
         <v>palsson.berndt@xyz.com</v>
       </c>
-      <c r="N50" s="47">
+      <c r="N50" s="37">
         <v>45.9</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -5537,7 +5538,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="45">
+      <c r="A51" s="35">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="str">
@@ -5556,7 +5557,7 @@
       <c r="F51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="36">
         <v>34178</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -5580,7 +5581,7 @@
         <f t="shared" si="1"/>
         <v>sobrinho.adriano@xyz.com</v>
       </c>
-      <c r="N51" s="47">
+      <c r="N51" s="37">
         <v>92.5</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -5601,6 +5602,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>100000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305A45C-AB5D-46F9-BB25-C656BCE11D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600522C5-80F8-4E04-AE8D-AAB024BE853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -1392,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1491,12 +1491,30 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0,\ &quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0,\ &quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2410,7 +2428,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2571,7 @@
       <c r="R2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="48">
+      <c r="S2" s="2">
         <v>80727</v>
       </c>
     </row>
@@ -5602,8 +5620,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="S2:S51">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>100000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600522C5-80F8-4E04-AE8D-AAB024BE853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3D3D-53AD-4B26-95C0-D95709B53E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="3" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,13 @@
     <sheet name="SPORT" sheetId="5" r:id="rId7"/>
     <sheet name="LOCATION" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SPORTSMEN!$A$1:$S$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="286">
   <si>
     <t>PREFIX</t>
   </si>
@@ -977,6 +983,15 @@
       </rPr>
       <t>(Note: All lowercase)</t>
     </r>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of MEMBER ID</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1491,23 +1506,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0,\ &quot;k&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="169" formatCode="0.0,\ &quot;k&quot;"/>
     </dxf>
@@ -1525,6 +1530,1257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SAKSHI" refreshedDate="44951.888848495371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{D6F3A309-5779-4CB4-92F7-946A7D3034CE}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:S51" sheet="SPORTSMEN"/>
+  </cacheSource>
+  <cacheFields count="19">
+    <cacheField name="MEMBER ID" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
+    </cacheField>
+    <cacheField name="FULL NAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PREFIX" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FIRSTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MIDDLENAME" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LASTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BIRTHDATE" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1955-07-30T00:00:00" maxDate="1999-08-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="ZODIAC" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GENDER" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Female"/>
+        <s v="Male"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COUNTRYCODE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="COUNTRY NAME" numFmtId="0">
+      <sharedItems count="11">
+        <s v="USA"/>
+        <s v="BRAZIL"/>
+        <s v="UK"/>
+        <s v="GERMANY"/>
+        <s v="AUSTRALIA"/>
+        <s v="AUSTRIA"/>
+        <s v="FRANCE"/>
+        <s v="ARGENTINA"/>
+        <s v="SPAIN"/>
+        <s v="NETHERLANDS"/>
+        <s v="SWEDEN"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LANGUAGE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="EMAIL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="WEIGHT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.9" maxValue="105.9"/>
+    </cacheField>
+    <cacheField name="EYECOLOR" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BLOODTYPE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SPORT LOCATION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SPORTS" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SALARY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10241" maxValue="117408"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <n v="1"/>
+    <s v="Ms. Annie Abbott"/>
+    <s v="Ms."/>
+    <s v="Annie"/>
+    <m/>
+    <s v="Abbott"/>
+    <d v="1997-09-26T00:00:00"/>
+    <s v="Libra"/>
+    <x v="0"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="abbott.annie@xyz.org"/>
+    <n v="94"/>
+    <s v="Green"/>
+    <s v="A−"/>
+    <s v="INDOOR"/>
+    <s v="Cycling Track"/>
+    <n v="80727"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Ms. Aurelie Liesuchke"/>
+    <s v="Ms."/>
+    <s v="Aurelie"/>
+    <m/>
+    <s v="Liesuchke"/>
+    <d v="1992-02-07T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="0"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="liesuchke.aurelie@xyz.org"/>
+    <n v="84.2"/>
+    <s v="Brown"/>
+    <s v="O−"/>
+    <s v="INDOOR"/>
+    <s v="Boxing"/>
+    <n v="87471"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Sr. Tomas Filho"/>
+    <s v="Sr."/>
+    <s v="Tomas"/>
+    <s v="Ferreira"/>
+    <s v="Filho"/>
+    <d v="1969-07-10T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="1"/>
+    <s v="BR"/>
+    <x v="1"/>
+    <s v="Portuguese"/>
+    <s v="filho.tomas@xyz.com"/>
+    <n v="52.9"/>
+    <s v="Amber"/>
+    <s v="A−"/>
+    <s v="OUTDOOR"/>
+    <s v="Football"/>
+    <n v="64724"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Ms. Darby Cruickshank"/>
+    <s v="Ms."/>
+    <s v="Darby"/>
+    <m/>
+    <s v="Cruickshank"/>
+    <d v="1975-05-18T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="0"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="cruickshank.darby@xyz.org"/>
+    <n v="48.9"/>
+    <s v="Green"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Alpine Skiing"/>
+    <n v="110823"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Dr. Jaydon Borer"/>
+    <s v="Dr."/>
+    <s v="Jaydon"/>
+    <m/>
+    <s v="Borer"/>
+    <d v="1970-05-18T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="1"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="borer.jaydon@xyz.org"/>
+    <n v="84.8"/>
+    <s v="Blue"/>
+    <s v="B−"/>
+    <s v="INDOOR"/>
+    <s v="Water Polo"/>
+    <n v="56916"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Mr. Moriah  Lynch"/>
+    <s v="Mr."/>
+    <s v="Moriah "/>
+    <m/>
+    <s v="Lynch"/>
+    <d v="1992-12-06T00:00:00"/>
+    <s v="Sagittarius"/>
+    <x v="1"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="lynch.moriah @xyz.org"/>
+    <n v="83.2"/>
+    <s v="Blue"/>
+    <s v="O−"/>
+    <s v="INDOOR"/>
+    <s v="Fencing"/>
+    <n v="51133"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Ms. Amiya Eichmann"/>
+    <s v="Ms."/>
+    <s v="Amiya"/>
+    <m/>
+    <s v="Eichmann"/>
+    <d v="1999-07-29T00:00:00"/>
+    <s v="Leo"/>
+    <x v="0"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="eichmann.amiya@xyz.org"/>
+    <n v="61.1"/>
+    <s v="Blue"/>
+    <s v="B−"/>
+    <s v="OUTDOOR"/>
+    <s v="Cycling Road"/>
+    <n v="65465"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Mr. Pierce Rau"/>
+    <s v="Mr."/>
+    <s v="Pierce"/>
+    <m/>
+    <s v="Rau"/>
+    <d v="1963-05-10T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="1"/>
+    <s v="US"/>
+    <x v="0"/>
+    <s v="English"/>
+    <s v="rau.pierce@xyz.org"/>
+    <n v="105.7"/>
+    <s v="Amber"/>
+    <s v="A+"/>
+    <s v="INDOOR"/>
+    <s v="Curling"/>
+    <n v="109885"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Ms. Amelia Stevens"/>
+    <s v="Ms."/>
+    <s v="Amelia"/>
+    <m/>
+    <s v="Stevens"/>
+    <d v="1971-02-01T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="0"/>
+    <s v="GB"/>
+    <x v="2"/>
+    <s v="English"/>
+    <s v="stevens.amelia@xyz.org"/>
+    <n v="65.3"/>
+    <s v="Blue"/>
+    <s v="A+"/>
+    <s v="INDOOR"/>
+    <s v="Shooting"/>
+    <n v="60061"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Mr. Toby Simpson"/>
+    <s v="Mr."/>
+    <s v="Toby"/>
+    <m/>
+    <s v="Simpson"/>
+    <d v="1964-12-21T00:00:00"/>
+    <s v="Sagittarius"/>
+    <x v="1"/>
+    <s v="GB"/>
+    <x v="2"/>
+    <s v="English"/>
+    <s v="simpson.toby@xyz.org"/>
+    <n v="62.9"/>
+    <s v="Amber"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Cycling Road"/>
+    <n v="32758"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Sir Ethan Murphy"/>
+    <s v="Sir"/>
+    <s v="Ethan"/>
+    <m/>
+    <s v="Murphy"/>
+    <d v="1986-11-17T00:00:00"/>
+    <s v="Scorpio"/>
+    <x v="1"/>
+    <s v="GB"/>
+    <x v="2"/>
+    <s v="English"/>
+    <s v="murphy.ethan@xyz.org"/>
+    <n v="104.3"/>
+    <s v="Brown"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Freestyle Skiing"/>
+    <n v="99613"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Mrs. Ashley Wood"/>
+    <s v="Mrs."/>
+    <s v="Ashley"/>
+    <m/>
+    <s v="Wood"/>
+    <d v="1977-10-14T00:00:00"/>
+    <s v="Libra"/>
+    <x v="0"/>
+    <s v="GB"/>
+    <x v="2"/>
+    <s v="English"/>
+    <s v="wood.ashley@xyz.org"/>
+    <n v="100.7"/>
+    <s v="Brown"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Archery"/>
+    <n v="56595"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Ms. Megan Scott"/>
+    <s v="Ms."/>
+    <s v="Megan"/>
+    <m/>
+    <s v="Scott"/>
+    <d v="1977-02-12T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="0"/>
+    <s v="GB"/>
+    <x v="2"/>
+    <s v="English"/>
+    <s v="scott.megan@xyz.org"/>
+    <n v="70.900000000000006"/>
+    <s v="Green"/>
+    <s v="A−"/>
+    <s v="OUTDOOR"/>
+    <s v="Rugby"/>
+    <n v="117408"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Hr. Helmut Weinhae"/>
+    <s v="Hr."/>
+    <s v="Helmut"/>
+    <m/>
+    <s v="Weinhae"/>
+    <d v="1959-08-26T00:00:00"/>
+    <s v="Virgo"/>
+    <x v="1"/>
+    <s v="DE"/>
+    <x v="3"/>
+    <s v="German"/>
+    <s v="weinhae.helmut@xyz.com"/>
+    <n v="68.3"/>
+    <s v="Gray"/>
+    <s v="A+"/>
+    <s v="OUTDOOR"/>
+    <s v="Canoe Sprint"/>
+    <n v="64862"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Prof. Milena Schotin"/>
+    <s v="Prof."/>
+    <s v="Milena"/>
+    <m/>
+    <s v="Schotin"/>
+    <d v="1965-03-03T00:00:00"/>
+    <s v="Pisces"/>
+    <x v="0"/>
+    <s v="DE"/>
+    <x v="3"/>
+    <s v="German"/>
+    <s v="schotin.milena@xyz.com"/>
+    <n v="105.3"/>
+    <s v="Gray"/>
+    <s v="O+"/>
+    <s v="INDOOR"/>
+    <s v="Cycling BMX"/>
+    <n v="10241"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Hr. Lothar Birnbaum"/>
+    <s v="Hr."/>
+    <s v="Lothar"/>
+    <m/>
+    <s v="Birnbaum"/>
+    <d v="1969-07-21T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="1"/>
+    <s v="DE"/>
+    <x v="3"/>
+    <s v="German"/>
+    <s v="birnbaum.lothar@xyz.com"/>
+    <n v="48.6"/>
+    <s v="Blue"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Alpine Skiing"/>
+    <n v="88762"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Hr. Pietro Stolze"/>
+    <s v="Hr."/>
+    <s v="Pietro"/>
+    <m/>
+    <s v="Stolze"/>
+    <d v="1972-10-10T00:00:00"/>
+    <s v="Libra"/>
+    <x v="1"/>
+    <s v="DE"/>
+    <x v="3"/>
+    <s v="German"/>
+    <s v="stolze.pietro@xyz.com"/>
+    <n v="105.9"/>
+    <s v="Blue"/>
+    <s v="A−"/>
+    <s v="INDOOR"/>
+    <s v="Handball"/>
+    <n v="80757"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Hr. Richard  Tlustek"/>
+    <s v="Hr."/>
+    <s v="Richard "/>
+    <m/>
+    <s v="Tlustek"/>
+    <d v="1959-08-31T00:00:00"/>
+    <s v="Virgo"/>
+    <x v="1"/>
+    <s v="DE"/>
+    <x v="3"/>
+    <s v="German"/>
+    <s v="tlustek.richard @xyz.com"/>
+    <n v="71.099999999999994"/>
+    <s v="Blue"/>
+    <s v="A−"/>
+    <s v="OUTDOOR"/>
+    <s v="Cycling Mountain Bike"/>
+    <n v="88794"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Dr. Earnestine Raynor"/>
+    <s v="Dr."/>
+    <s v="Earnestine"/>
+    <m/>
+    <s v="Raynor"/>
+    <d v="1977-05-17T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="raynor.earnestine@xyz.org"/>
+    <n v="70.3"/>
+    <s v="Blue"/>
+    <s v="A+"/>
+    <s v="INDOOR"/>
+    <s v="Short Track Speed Skating"/>
+    <n v="63526"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Mr. Jason Gaylord"/>
+    <s v="Mr."/>
+    <s v="Jason"/>
+    <m/>
+    <s v="Gaylord"/>
+    <d v="1976-01-08T00:00:00"/>
+    <s v="Capricorn"/>
+    <x v="1"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="gaylord.jason@xyz.org"/>
+    <n v="54.7"/>
+    <s v="Brown"/>
+    <s v="O−"/>
+    <s v="INDOOR"/>
+    <s v="Basketball"/>
+    <n v="46352"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Mr. Kendrick Sauer"/>
+    <s v="Mr."/>
+    <s v="Kendrick"/>
+    <m/>
+    <s v="Sauer"/>
+    <d v="1996-07-22T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="1"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="sauer.kendrick@xyz.org"/>
+    <n v="100.9"/>
+    <s v="Blue"/>
+    <s v="B−"/>
+    <s v="OUTDOOR"/>
+    <s v="Triathlon"/>
+    <n v="106808"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Dr. Annabell Olson"/>
+    <s v="Dr."/>
+    <s v="Annabell"/>
+    <m/>
+    <s v="Olson"/>
+    <d v="1964-04-16T00:00:00"/>
+    <s v="Aries"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="olson.annabell@xyz.org"/>
+    <n v="84.3"/>
+    <s v="Green"/>
+    <s v="A+"/>
+    <s v="OUTDOOR"/>
+    <s v="Equestrian / Dressage"/>
+    <n v="96468"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Dr. Jena Upton"/>
+    <s v="Dr."/>
+    <s v="Jena"/>
+    <m/>
+    <s v="Upton"/>
+    <d v="1955-12-14T00:00:00"/>
+    <s v="Sagittarius"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="upton.jena@xyz.org"/>
+    <n v="66.8"/>
+    <s v="Blue"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Beach Volleyball"/>
+    <n v="16526"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Dr. Shanny Bins"/>
+    <s v="Dr."/>
+    <s v="Shanny"/>
+    <m/>
+    <s v="Bins"/>
+    <d v="1999-08-28T00:00:00"/>
+    <s v="Virgo"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="bins.shanny@xyz.org"/>
+    <n v="59.4"/>
+    <s v="Amber"/>
+    <s v="B−"/>
+    <s v="OUTDOOR"/>
+    <s v="Canoe Slalom"/>
+    <n v="21891"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Dr. Tia Abshire"/>
+    <s v="Dr."/>
+    <s v="Tia"/>
+    <m/>
+    <s v="Abshire"/>
+    <d v="1966-07-21T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="abshire.tia@xyz.org"/>
+    <n v="77.8"/>
+    <s v="Amber"/>
+    <s v="A+"/>
+    <s v="OUTDOOR"/>
+    <s v="Cycling Road"/>
+    <n v="62037"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Ms. Isabel Runolfsdottir"/>
+    <s v="Ms."/>
+    <s v="Isabel"/>
+    <m/>
+    <s v="Runolfsdottir"/>
+    <d v="1978-03-21T00:00:00"/>
+    <s v="Aries"/>
+    <x v="0"/>
+    <s v="OZ"/>
+    <x v="4"/>
+    <s v="English"/>
+    <s v="runolfsdottir.isabel@xyz.org"/>
+    <n v="85.9"/>
+    <s v="Blue"/>
+    <s v="B+"/>
+    <s v="INDOOR"/>
+    <s v="Cycling Track"/>
+    <n v="89737"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Hr. Barney Wesack"/>
+    <s v="Hr."/>
+    <s v="Barney"/>
+    <m/>
+    <s v="Wesack"/>
+    <d v="1970-07-18T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="1"/>
+    <s v="AU"/>
+    <x v="5"/>
+    <s v="German"/>
+    <s v="wesack.barney@xyz.com"/>
+    <n v="93.4"/>
+    <s v="Amber"/>
+    <s v="B+"/>
+    <s v="INDOOR"/>
+    <s v="Volleyball"/>
+    <n v="41039"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Hr. Baruch Kade"/>
+    <s v="Hr."/>
+    <s v="Baruch"/>
+    <m/>
+    <s v="Kade"/>
+    <d v="1982-03-10T00:00:00"/>
+    <s v="Pisces"/>
+    <x v="1"/>
+    <s v="AU"/>
+    <x v="5"/>
+    <s v="German"/>
+    <s v="kade.baruch@xyz.com"/>
+    <n v="95.5"/>
+    <s v="Gray"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Rugby"/>
+    <n v="28458"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Prof. Liesbeth Rosemann"/>
+    <s v="Prof."/>
+    <s v="Liesbeth"/>
+    <m/>
+    <s v="Rosemann"/>
+    <d v="1994-01-27T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="0"/>
+    <s v="AU"/>
+    <x v="5"/>
+    <s v="German"/>
+    <s v="rosemann.liesbeth@xyz.com"/>
+    <n v="52.2"/>
+    <s v="Blue"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Cycling Road"/>
+    <n v="55007"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Mme. Valentine Moreau"/>
+    <s v="Mme."/>
+    <s v="Valentine"/>
+    <m/>
+    <s v="Moreau"/>
+    <d v="1979-10-09T00:00:00"/>
+    <s v="Libra"/>
+    <x v="0"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="moreau.valentine@xyz.com"/>
+    <n v="74.599999999999994"/>
+    <s v="Blue"/>
+    <s v="B+"/>
+    <s v="OUTDOOR"/>
+    <s v="Golf"/>
+    <n v="69041"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Mme. Paulette Durand"/>
+    <s v="Mme."/>
+    <s v="Paulette"/>
+    <m/>
+    <s v="Durand"/>
+    <d v="1989-12-25T00:00:00"/>
+    <s v="Capricorn"/>
+    <x v="0"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="durand.paulette@xyz.com"/>
+    <n v="81.7"/>
+    <s v="Amber"/>
+    <s v="O−"/>
+    <s v="INDOOR"/>
+    <s v="Volleyball"/>
+    <n v="86262"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Mme. Laure-Alix Chevalier"/>
+    <s v="Mme."/>
+    <s v="Laure-Alix"/>
+    <m/>
+    <s v="Chevalier"/>
+    <d v="1970-12-23T00:00:00"/>
+    <s v="Capricorn"/>
+    <x v="0"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="chevalier.laure-alix@xyz.com"/>
+    <n v="78.099999999999994"/>
+    <s v="Blue"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Beach Volleyball"/>
+    <n v="19234"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="M. Claude Toussaint"/>
+    <s v="M."/>
+    <s v="Claude"/>
+    <m/>
+    <s v="Toussaint"/>
+    <d v="1980-11-04T00:00:00"/>
+    <s v="Scorpio"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="toussaint.claude@xyz.com"/>
+    <n v="57.1"/>
+    <s v="Green"/>
+    <s v="O+"/>
+    <s v="INDOOR"/>
+    <s v="Diving"/>
+    <n v="95123"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="M. Victor Lenoir"/>
+    <s v="M."/>
+    <s v="Victor"/>
+    <m/>
+    <s v="Lenoir"/>
+    <d v="1981-10-16T00:00:00"/>
+    <s v="Libra"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="lenoir.victor@xyz.com"/>
+    <n v="56"/>
+    <s v="Blue"/>
+    <s v="B+"/>
+    <s v="OUTDOOR"/>
+    <s v="Triathlon"/>
+    <n v="62761"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="M. Arthur Lenoir"/>
+    <s v="M."/>
+    <s v="Arthur"/>
+    <m/>
+    <s v="Lenoir"/>
+    <d v="1955-07-30T00:00:00"/>
+    <s v="Leo"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="lenoir.arthur@xyz.com"/>
+    <n v="88.6"/>
+    <s v="Amber"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Hockey"/>
+    <n v="108431"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="M. Benjamin Lebrun-Brun"/>
+    <s v="M."/>
+    <s v="Benjamin"/>
+    <m/>
+    <s v="Lebrun-Brun"/>
+    <d v="1975-02-03T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="lebrun-brun.benjamin@xyz.com"/>
+    <n v="78.2"/>
+    <s v="Brown"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Triathlon"/>
+    <n v="66268"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="M. Antoine Maillard"/>
+    <s v="M."/>
+    <s v="Antoine"/>
+    <m/>
+    <s v="Maillard"/>
+    <d v="1986-06-22T00:00:00"/>
+    <s v="Cancer"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="maillard.antoine@xyz.com"/>
+    <n v="95.8"/>
+    <s v="Blue"/>
+    <s v="B−"/>
+    <s v="OUTDOOR"/>
+    <s v="Sailing"/>
+    <n v="33970"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="M. Bernard Hoarau-Guyon"/>
+    <s v="M."/>
+    <s v="Bernard"/>
+    <m/>
+    <s v="Hoarau-Guyon"/>
+    <d v="1983-01-11T00:00:00"/>
+    <s v="Capricorn"/>
+    <x v="1"/>
+    <s v="FR"/>
+    <x v="6"/>
+    <s v="French"/>
+    <s v="hoarau-guyon.bernard@xyz.com"/>
+    <n v="59.7"/>
+    <s v="Gray"/>
+    <s v="O−"/>
+    <s v="INDOOR"/>
+    <s v="Cycling Track"/>
+    <n v="71352"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Sr. Hidalgo Tercero"/>
+    <s v="Sr."/>
+    <s v="Hidalgo"/>
+    <s v="Cantu"/>
+    <s v="Tercero"/>
+    <d v="1984-11-30T00:00:00"/>
+    <s v="Sagittarius"/>
+    <x v="1"/>
+    <s v="AG"/>
+    <x v="7"/>
+    <s v="Spanish"/>
+    <s v="tercero.hidalgo@xyz.com"/>
+    <n v="77.7"/>
+    <s v="Gray"/>
+    <s v="B−"/>
+    <s v="OUTDOOR"/>
+    <s v="Canoe Slalom"/>
+    <n v="116376"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Sr. Hadalgo Polanco"/>
+    <s v="Sr."/>
+    <s v="Hadalgo"/>
+    <m/>
+    <s v="Polanco"/>
+    <d v="1988-06-20T00:00:00"/>
+    <s v="Gemini"/>
+    <x v="1"/>
+    <s v="AG"/>
+    <x v="7"/>
+    <s v="Spanish"/>
+    <s v="polanco.hadalgo@xyz.com"/>
+    <n v="98"/>
+    <s v="Blue"/>
+    <s v="A−"/>
+    <s v="OUTDOOR"/>
+    <s v="Beach Volleyball"/>
+    <n v="114144"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Sra. Laura Oliviera"/>
+    <s v="Sra."/>
+    <s v="Laura"/>
+    <m/>
+    <s v="Oliviera"/>
+    <d v="1974-02-16T00:00:00"/>
+    <s v="Aquarius"/>
+    <x v="0"/>
+    <s v="AG"/>
+    <x v="7"/>
+    <s v="Spanish"/>
+    <s v="oliviera.laura@xyz.com"/>
+    <n v="51.9"/>
+    <s v="Amber"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Athletics"/>
+    <n v="79872"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Sra. Ainhoa Garza"/>
+    <s v="Sra."/>
+    <s v="Ainhoa"/>
+    <m/>
+    <s v="Garza"/>
+    <d v="1990-03-09T00:00:00"/>
+    <s v="Pisces"/>
+    <x v="0"/>
+    <s v="ES"/>
+    <x v="8"/>
+    <s v="Spanish"/>
+    <s v="garza.ainhoa@xyz.com"/>
+    <n v="55.6"/>
+    <s v="Brown"/>
+    <s v="O+"/>
+    <s v="INDOOR"/>
+    <s v="Gymnastics Artistic"/>
+    <n v="101969"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Sra. Isabel Banda"/>
+    <s v="Sra."/>
+    <s v="Isabel"/>
+    <m/>
+    <s v="Banda"/>
+    <d v="1960-01-12T00:00:00"/>
+    <s v="Capricorn"/>
+    <x v="0"/>
+    <s v="ES"/>
+    <x v="8"/>
+    <s v="Spanish"/>
+    <s v="banda.isabel@xyz.com"/>
+    <n v="102.3"/>
+    <s v="Amber"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Canoe Slalom"/>
+    <n v="50659"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Sra. Carolota Mateos"/>
+    <s v="Sra."/>
+    <s v="Carolota"/>
+    <m/>
+    <s v="Mateos"/>
+    <d v="1965-07-29T00:00:00"/>
+    <s v="Leo"/>
+    <x v="0"/>
+    <s v="ES"/>
+    <x v="8"/>
+    <s v="Spanish"/>
+    <s v="mateos.carolota@xyz.com"/>
+    <n v="58.8"/>
+    <s v="Gray"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Athletics"/>
+    <n v="58215"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Mw. Elize Prins"/>
+    <s v="Mw."/>
+    <s v="Elize"/>
+    <m/>
+    <s v="Prins"/>
+    <d v="1960-05-08T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="0"/>
+    <s v="DU"/>
+    <x v="9"/>
+    <s v="Dutch"/>
+    <s v="prins.elize@xyz.com"/>
+    <n v="63.8"/>
+    <s v="Blue"/>
+    <s v="O+"/>
+    <s v="INDOOR"/>
+    <s v="Judo"/>
+    <n v="39935"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="dhr. Ryan Pham"/>
+    <s v="dhr."/>
+    <s v="Ryan"/>
+    <m/>
+    <s v="Pham"/>
+    <d v="1973-10-03T00:00:00"/>
+    <s v="Libra"/>
+    <x v="1"/>
+    <s v="DU"/>
+    <x v="9"/>
+    <s v="Dutch"/>
+    <s v="pham.ryan@xyz.com"/>
+    <n v="98.6"/>
+    <s v="Amber"/>
+    <s v="B+"/>
+    <s v="OUTDOOR"/>
+    <s v="Beach Volleyball"/>
+    <n v="44865"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Mw Elise Rotteveel"/>
+    <s v="Mw"/>
+    <s v="Elise"/>
+    <m/>
+    <s v="Rotteveel"/>
+    <d v="1968-04-08T00:00:00"/>
+    <s v="Aries"/>
+    <x v="0"/>
+    <s v="DU"/>
+    <x v="9"/>
+    <s v="Dutch"/>
+    <s v="rotteveel.elise@xyz.com"/>
+    <n v="61.8"/>
+    <s v="Gray"/>
+    <s v="O−"/>
+    <s v="OUTDOOR"/>
+    <s v="Beach Volleyball"/>
+    <n v="90478"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Fru. Mirjam Soderberg"/>
+    <s v="Fru."/>
+    <s v="Mirjam"/>
+    <m/>
+    <s v="Soderberg"/>
+    <d v="1997-05-17T00:00:00"/>
+    <s v="Taurus"/>
+    <x v="0"/>
+    <s v="SV"/>
+    <x v="10"/>
+    <s v="Swedish"/>
+    <s v="soderberg.mirjam@xyz.com"/>
+    <n v="50"/>
+    <s v="Amber"/>
+    <s v="O+"/>
+    <s v="OUTDOOR"/>
+    <s v="Football"/>
+    <n v="38965"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="H. Berndt Palsson"/>
+    <s v="H."/>
+    <s v="Berndt"/>
+    <m/>
+    <s v="Palsson"/>
+    <d v="1987-02-24T00:00:00"/>
+    <s v="Pisces"/>
+    <x v="1"/>
+    <s v="SV"/>
+    <x v="10"/>
+    <s v="Swedish"/>
+    <s v="palsson.berndt@xyz.com"/>
+    <n v="45.9"/>
+    <s v="Blue"/>
+    <s v="A−"/>
+    <s v="OUTDOOR"/>
+    <s v="Biathlon"/>
+    <n v="35387"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Sr. Adriano Sobrinho"/>
+    <s v="Sr."/>
+    <s v="Adriano"/>
+    <s v="Pontes"/>
+    <s v="Sobrinho"/>
+    <d v="1993-07-28T00:00:00"/>
+    <s v="Leo"/>
+    <x v="1"/>
+    <s v="PR"/>
+    <x v="1"/>
+    <s v="Portuguese"/>
+    <s v="sobrinho.adriano@xyz.com"/>
+    <n v="92.5"/>
+    <s v="Green"/>
+    <s v="A+"/>
+    <s v="INDOOR"/>
+    <s v="Swimming"/>
+    <n v="20532"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of MEMBER ID" fld="0" subtotal="count" baseField="10" baseItem="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2388,14 +3644,157 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="49">
+        <v>6</v>
+      </c>
+      <c r="D6" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="49">
+        <v>3</v>
+      </c>
+      <c r="D9" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="49">
+        <v>2</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="49">
+        <v>3</v>
+      </c>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="49">
+        <v>3</v>
+      </c>
+      <c r="D14" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="49">
+        <v>4</v>
+      </c>
+      <c r="D15" s="49">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2424,11 +3823,11 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5621,10 +7020,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S2:S51">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3D3D-53AD-4B26-95C0-D95709B53E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E290149-FFB5-4629-B653-D672AAE66D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="3" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="287">
   <si>
     <t>PREFIX</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>Count of MEMBER ID</t>
+  </si>
+  <si>
+    <t>Country Names</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1476,6 +1479,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1506,18 +1510,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0,\ &quot;k&quot;"/>
+      <numFmt numFmtId="168" formatCode="0.0,\ &quot;k&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00,\ &quot;k&quot;"/>
+      <numFmt numFmtId="169" formatCode="0.00,\ &quot;k&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2675,7 +2679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -3095,20 +3099,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3126,11 +3130,11 @@
       <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
@@ -3207,11 +3211,11 @@
       <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
@@ -3287,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42AC1E-DB3A-47CC-B4CD-38E29C26859B}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3300,20 +3304,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3339,11 +3343,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -3412,11 +3416,11 @@
       <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
@@ -3505,20 +3509,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3544,11 +3548,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -3644,10 +3648,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:D15"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,18 +3660,20 @@
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="38" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>284</v>
       </c>
       <c r="C4" t="s">
@@ -3676,122 +3682,250 @@
       <c r="D4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G4" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G5, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G5, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G6, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G6, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G7, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G7, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49">
+      <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G8, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G8, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G9, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G9, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G10, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G10, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G11, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G11, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G12, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G12, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G13, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G13, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G14, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G14, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15">
         <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G15, SPORTSMEN!$I$2:$I$51, $H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <f>COUNTIFS(SPORTSMEN!$K$2:$K$51, $G15, SPORTSMEN!$I$2:$I$51, $I$4)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3824,10 +3958,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3979,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B51" si="0">_xlfn.CONCAT(C3,  " ", D3,  " ", F3)</f>
+        <f>_xlfn.CONCAT(C3,  " ", D3,  " ", F3)</f>
         <v>Ms. Aurelie Liesuchke</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4013,7 +4147,7 @@
         <v>English</v>
       </c>
       <c r="M3" s="5" t="str">
-        <f t="shared" ref="M3:M51" si="1">LOWER(IF($L3="English",_xlfn.CONCAT($F3,".",$D3,"@xyz.org"),_xlfn.CONCAT($F3,".",$D3,"@xyz.com")))</f>
+        <f>LOWER(IF($L3="English",_xlfn.CONCAT($F3,".",$D3,"@xyz.org"),_xlfn.CONCAT($F3,".",$D3,"@xyz.com")))</f>
         <v>liesuchke.aurelie@xyz.org</v>
       </c>
       <c r="N3" s="4">
@@ -4041,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C4,  " ", D4,  " ", F4)</f>
         <v>Sr. Tomas Filho</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4077,7 +4211,7 @@
         <v>Portuguese</v>
       </c>
       <c r="M4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L4="English",_xlfn.CONCAT($F4,".",$D4,"@xyz.org"),_xlfn.CONCAT($F4,".",$D4,"@xyz.com")))</f>
         <v>filho.tomas@xyz.com</v>
       </c>
       <c r="N4" s="4">
@@ -4105,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C5,  " ", D5,  " ", F5)</f>
         <v>Ms. Darby Cruickshank</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4139,7 +4273,7 @@
         <v>English</v>
       </c>
       <c r="M5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L5="English",_xlfn.CONCAT($F5,".",$D5,"@xyz.org"),_xlfn.CONCAT($F5,".",$D5,"@xyz.com")))</f>
         <v>cruickshank.darby@xyz.org</v>
       </c>
       <c r="N5" s="4">
@@ -4167,7 +4301,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C6,  " ", D6,  " ", F6)</f>
         <v>Dr. Jaydon Borer</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4201,7 +4335,7 @@
         <v>English</v>
       </c>
       <c r="M6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L6="English",_xlfn.CONCAT($F6,".",$D6,"@xyz.org"),_xlfn.CONCAT($F6,".",$D6,"@xyz.com")))</f>
         <v>borer.jaydon@xyz.org</v>
       </c>
       <c r="N6" s="4">
@@ -4229,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C7,  " ", D7,  " ", F7)</f>
         <v>Mr. Moriah  Lynch</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4263,7 +4397,7 @@
         <v>English</v>
       </c>
       <c r="M7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L7="English",_xlfn.CONCAT($F7,".",$D7,"@xyz.org"),_xlfn.CONCAT($F7,".",$D7,"@xyz.com")))</f>
         <v>lynch.moriah @xyz.org</v>
       </c>
       <c r="N7" s="4">
@@ -4291,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C8,  " ", D8,  " ", F8)</f>
         <v>Ms. Amiya Eichmann</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4325,7 +4459,7 @@
         <v>English</v>
       </c>
       <c r="M8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L8="English",_xlfn.CONCAT($F8,".",$D8,"@xyz.org"),_xlfn.CONCAT($F8,".",$D8,"@xyz.com")))</f>
         <v>eichmann.amiya@xyz.org</v>
       </c>
       <c r="N8" s="4">
@@ -4353,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C9,  " ", D9,  " ", F9)</f>
         <v>Mr. Pierce Rau</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4387,7 +4521,7 @@
         <v>English</v>
       </c>
       <c r="M9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L9="English",_xlfn.CONCAT($F9,".",$D9,"@xyz.org"),_xlfn.CONCAT($F9,".",$D9,"@xyz.com")))</f>
         <v>rau.pierce@xyz.org</v>
       </c>
       <c r="N9" s="4">
@@ -4415,7 +4549,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C10,  " ", D10,  " ", F10)</f>
         <v>Ms. Amelia Stevens</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4449,7 +4583,7 @@
         <v>English</v>
       </c>
       <c r="M10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L10="English",_xlfn.CONCAT($F10,".",$D10,"@xyz.org"),_xlfn.CONCAT($F10,".",$D10,"@xyz.com")))</f>
         <v>stevens.amelia@xyz.org</v>
       </c>
       <c r="N10" s="4">
@@ -4477,7 +4611,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C11,  " ", D11,  " ", F11)</f>
         <v>Mr. Toby Simpson</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4511,7 +4645,7 @@
         <v>English</v>
       </c>
       <c r="M11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L11="English",_xlfn.CONCAT($F11,".",$D11,"@xyz.org"),_xlfn.CONCAT($F11,".",$D11,"@xyz.com")))</f>
         <v>simpson.toby@xyz.org</v>
       </c>
       <c r="N11" s="4">
@@ -4539,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C12,  " ", D12,  " ", F12)</f>
         <v>Sir Ethan Murphy</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4573,7 +4707,7 @@
         <v>English</v>
       </c>
       <c r="M12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L12="English",_xlfn.CONCAT($F12,".",$D12,"@xyz.org"),_xlfn.CONCAT($F12,".",$D12,"@xyz.com")))</f>
         <v>murphy.ethan@xyz.org</v>
       </c>
       <c r="N12" s="4">
@@ -4601,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C13,  " ", D13,  " ", F13)</f>
         <v>Mrs. Ashley Wood</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4635,7 +4769,7 @@
         <v>English</v>
       </c>
       <c r="M13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L13="English",_xlfn.CONCAT($F13,".",$D13,"@xyz.org"),_xlfn.CONCAT($F13,".",$D13,"@xyz.com")))</f>
         <v>wood.ashley@xyz.org</v>
       </c>
       <c r="N13" s="4">
@@ -4663,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C14,  " ", D14,  " ", F14)</f>
         <v>Ms. Megan Scott</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4697,7 +4831,7 @@
         <v>English</v>
       </c>
       <c r="M14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L14="English",_xlfn.CONCAT($F14,".",$D14,"@xyz.org"),_xlfn.CONCAT($F14,".",$D14,"@xyz.com")))</f>
         <v>scott.megan@xyz.org</v>
       </c>
       <c r="N14" s="4">
@@ -4725,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C15,  " ", D15,  " ", F15)</f>
         <v>Hr. Helmut Weinhae</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4759,7 +4893,7 @@
         <v>German</v>
       </c>
       <c r="M15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L15="English",_xlfn.CONCAT($F15,".",$D15,"@xyz.org"),_xlfn.CONCAT($F15,".",$D15,"@xyz.com")))</f>
         <v>weinhae.helmut@xyz.com</v>
       </c>
       <c r="N15" s="4">
@@ -4787,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C16,  " ", D16,  " ", F16)</f>
         <v>Prof. Milena Schotin</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4821,7 +4955,7 @@
         <v>German</v>
       </c>
       <c r="M16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L16="English",_xlfn.CONCAT($F16,".",$D16,"@xyz.org"),_xlfn.CONCAT($F16,".",$D16,"@xyz.com")))</f>
         <v>schotin.milena@xyz.com</v>
       </c>
       <c r="N16" s="4">
@@ -4849,7 +4983,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C17,  " ", D17,  " ", F17)</f>
         <v>Hr. Lothar Birnbaum</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4883,7 +5017,7 @@
         <v>German</v>
       </c>
       <c r="M17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L17="English",_xlfn.CONCAT($F17,".",$D17,"@xyz.org"),_xlfn.CONCAT($F17,".",$D17,"@xyz.com")))</f>
         <v>birnbaum.lothar@xyz.com</v>
       </c>
       <c r="N17" s="4">
@@ -4911,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C18,  " ", D18,  " ", F18)</f>
         <v>Hr. Pietro Stolze</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4945,7 +5079,7 @@
         <v>German</v>
       </c>
       <c r="M18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L18="English",_xlfn.CONCAT($F18,".",$D18,"@xyz.org"),_xlfn.CONCAT($F18,".",$D18,"@xyz.com")))</f>
         <v>stolze.pietro@xyz.com</v>
       </c>
       <c r="N18" s="4">
@@ -4973,7 +5107,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C19,  " ", D19,  " ", F19)</f>
         <v>Hr. Richard  Tlustek</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5007,7 +5141,7 @@
         <v>German</v>
       </c>
       <c r="M19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L19="English",_xlfn.CONCAT($F19,".",$D19,"@xyz.org"),_xlfn.CONCAT($F19,".",$D19,"@xyz.com")))</f>
         <v>tlustek.richard @xyz.com</v>
       </c>
       <c r="N19" s="4">
@@ -5035,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C20,  " ", D20,  " ", F20)</f>
         <v>Dr. Earnestine Raynor</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5069,7 +5203,7 @@
         <v>English</v>
       </c>
       <c r="M20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L20="English",_xlfn.CONCAT($F20,".",$D20,"@xyz.org"),_xlfn.CONCAT($F20,".",$D20,"@xyz.com")))</f>
         <v>raynor.earnestine@xyz.org</v>
       </c>
       <c r="N20" s="4">
@@ -5097,7 +5231,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C21,  " ", D21,  " ", F21)</f>
         <v>Mr. Jason Gaylord</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5131,7 +5265,7 @@
         <v>English</v>
       </c>
       <c r="M21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L21="English",_xlfn.CONCAT($F21,".",$D21,"@xyz.org"),_xlfn.CONCAT($F21,".",$D21,"@xyz.com")))</f>
         <v>gaylord.jason@xyz.org</v>
       </c>
       <c r="N21" s="4">
@@ -5159,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C22,  " ", D22,  " ", F22)</f>
         <v>Mr. Kendrick Sauer</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5193,7 +5327,7 @@
         <v>English</v>
       </c>
       <c r="M22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L22="English",_xlfn.CONCAT($F22,".",$D22,"@xyz.org"),_xlfn.CONCAT($F22,".",$D22,"@xyz.com")))</f>
         <v>sauer.kendrick@xyz.org</v>
       </c>
       <c r="N22" s="4">
@@ -5221,7 +5355,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C23,  " ", D23,  " ", F23)</f>
         <v>Dr. Annabell Olson</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5255,7 +5389,7 @@
         <v>English</v>
       </c>
       <c r="M23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L23="English",_xlfn.CONCAT($F23,".",$D23,"@xyz.org"),_xlfn.CONCAT($F23,".",$D23,"@xyz.com")))</f>
         <v>olson.annabell@xyz.org</v>
       </c>
       <c r="N23" s="4">
@@ -5283,7 +5417,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C24,  " ", D24,  " ", F24)</f>
         <v>Dr. Jena Upton</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5317,7 +5451,7 @@
         <v>English</v>
       </c>
       <c r="M24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L24="English",_xlfn.CONCAT($F24,".",$D24,"@xyz.org"),_xlfn.CONCAT($F24,".",$D24,"@xyz.com")))</f>
         <v>upton.jena@xyz.org</v>
       </c>
       <c r="N24" s="4">
@@ -5345,7 +5479,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C25,  " ", D25,  " ", F25)</f>
         <v>Dr. Shanny Bins</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5379,7 +5513,7 @@
         <v>English</v>
       </c>
       <c r="M25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L25="English",_xlfn.CONCAT($F25,".",$D25,"@xyz.org"),_xlfn.CONCAT($F25,".",$D25,"@xyz.com")))</f>
         <v>bins.shanny@xyz.org</v>
       </c>
       <c r="N25" s="37">
@@ -5407,7 +5541,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C26,  " ", D26,  " ", F26)</f>
         <v>Dr. Tia Abshire</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5441,7 +5575,7 @@
         <v>English</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L26="English",_xlfn.CONCAT($F26,".",$D26,"@xyz.org"),_xlfn.CONCAT($F26,".",$D26,"@xyz.com")))</f>
         <v>abshire.tia@xyz.org</v>
       </c>
       <c r="N26" s="37">
@@ -5469,7 +5603,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C27,  " ", D27,  " ", F27)</f>
         <v>Ms. Isabel Runolfsdottir</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -5503,7 +5637,7 @@
         <v>English</v>
       </c>
       <c r="M27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L27="English",_xlfn.CONCAT($F27,".",$D27,"@xyz.org"),_xlfn.CONCAT($F27,".",$D27,"@xyz.com")))</f>
         <v>runolfsdottir.isabel@xyz.org</v>
       </c>
       <c r="N27" s="37">
@@ -5531,7 +5665,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C28,  " ", D28,  " ", F28)</f>
         <v>Hr. Barney Wesack</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5565,7 +5699,7 @@
         <v>German</v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L28="English",_xlfn.CONCAT($F28,".",$D28,"@xyz.org"),_xlfn.CONCAT($F28,".",$D28,"@xyz.com")))</f>
         <v>wesack.barney@xyz.com</v>
       </c>
       <c r="N28" s="37">
@@ -5593,7 +5727,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C29,  " ", D29,  " ", F29)</f>
         <v>Hr. Baruch Kade</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5627,7 +5761,7 @@
         <v>German</v>
       </c>
       <c r="M29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L29="English",_xlfn.CONCAT($F29,".",$D29,"@xyz.org"),_xlfn.CONCAT($F29,".",$D29,"@xyz.com")))</f>
         <v>kade.baruch@xyz.com</v>
       </c>
       <c r="N29" s="37">
@@ -5655,7 +5789,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C30,  " ", D30,  " ", F30)</f>
         <v>Prof. Liesbeth Rosemann</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5689,7 +5823,7 @@
         <v>German</v>
       </c>
       <c r="M30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L30="English",_xlfn.CONCAT($F30,".",$D30,"@xyz.org"),_xlfn.CONCAT($F30,".",$D30,"@xyz.com")))</f>
         <v>rosemann.liesbeth@xyz.com</v>
       </c>
       <c r="N30" s="37">
@@ -5717,7 +5851,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C31,  " ", D31,  " ", F31)</f>
         <v>Mme. Valentine Moreau</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -5751,7 +5885,7 @@
         <v>French</v>
       </c>
       <c r="M31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L31="English",_xlfn.CONCAT($F31,".",$D31,"@xyz.org"),_xlfn.CONCAT($F31,".",$D31,"@xyz.com")))</f>
         <v>moreau.valentine@xyz.com</v>
       </c>
       <c r="N31" s="37">
@@ -5779,7 +5913,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C32,  " ", D32,  " ", F32)</f>
         <v>Mme. Paulette Durand</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5813,7 +5947,7 @@
         <v>French</v>
       </c>
       <c r="M32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L32="English",_xlfn.CONCAT($F32,".",$D32,"@xyz.org"),_xlfn.CONCAT($F32,".",$D32,"@xyz.com")))</f>
         <v>durand.paulette@xyz.com</v>
       </c>
       <c r="N32" s="37">
@@ -5841,7 +5975,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C33,  " ", D33,  " ", F33)</f>
         <v>Mme. Laure-Alix Chevalier</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -5875,7 +6009,7 @@
         <v>French</v>
       </c>
       <c r="M33" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L33="English",_xlfn.CONCAT($F33,".",$D33,"@xyz.org"),_xlfn.CONCAT($F33,".",$D33,"@xyz.com")))</f>
         <v>chevalier.laure-alix@xyz.com</v>
       </c>
       <c r="N33" s="37">
@@ -5903,7 +6037,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C34,  " ", D34,  " ", F34)</f>
         <v>M. Claude Toussaint</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5937,7 +6071,7 @@
         <v>French</v>
       </c>
       <c r="M34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L34="English",_xlfn.CONCAT($F34,".",$D34,"@xyz.org"),_xlfn.CONCAT($F34,".",$D34,"@xyz.com")))</f>
         <v>toussaint.claude@xyz.com</v>
       </c>
       <c r="N34" s="37">
@@ -5965,7 +6099,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C35,  " ", D35,  " ", F35)</f>
         <v>M. Victor Lenoir</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5999,7 +6133,7 @@
         <v>French</v>
       </c>
       <c r="M35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L35="English",_xlfn.CONCAT($F35,".",$D35,"@xyz.org"),_xlfn.CONCAT($F35,".",$D35,"@xyz.com")))</f>
         <v>lenoir.victor@xyz.com</v>
       </c>
       <c r="N35" s="37">
@@ -6027,7 +6161,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C36,  " ", D36,  " ", F36)</f>
         <v>M. Arthur Lenoir</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6061,7 +6195,7 @@
         <v>French</v>
       </c>
       <c r="M36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L36="English",_xlfn.CONCAT($F36,".",$D36,"@xyz.org"),_xlfn.CONCAT($F36,".",$D36,"@xyz.com")))</f>
         <v>lenoir.arthur@xyz.com</v>
       </c>
       <c r="N36" s="37">
@@ -6089,7 +6223,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C37,  " ", D37,  " ", F37)</f>
         <v>M. Benjamin Lebrun-Brun</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6123,7 +6257,7 @@
         <v>French</v>
       </c>
       <c r="M37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L37="English",_xlfn.CONCAT($F37,".",$D37,"@xyz.org"),_xlfn.CONCAT($F37,".",$D37,"@xyz.com")))</f>
         <v>lebrun-brun.benjamin@xyz.com</v>
       </c>
       <c r="N37" s="37">
@@ -6151,7 +6285,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C38,  " ", D38,  " ", F38)</f>
         <v>M. Antoine Maillard</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6185,7 +6319,7 @@
         <v>French</v>
       </c>
       <c r="M38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L38="English",_xlfn.CONCAT($F38,".",$D38,"@xyz.org"),_xlfn.CONCAT($F38,".",$D38,"@xyz.com")))</f>
         <v>maillard.antoine@xyz.com</v>
       </c>
       <c r="N38" s="37">
@@ -6213,7 +6347,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C39,  " ", D39,  " ", F39)</f>
         <v>M. Bernard Hoarau-Guyon</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6247,7 +6381,7 @@
         <v>French</v>
       </c>
       <c r="M39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L39="English",_xlfn.CONCAT($F39,".",$D39,"@xyz.org"),_xlfn.CONCAT($F39,".",$D39,"@xyz.com")))</f>
         <v>hoarau-guyon.bernard@xyz.com</v>
       </c>
       <c r="N39" s="37">
@@ -6275,7 +6409,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C40,  " ", D40,  " ", F40)</f>
         <v>Sr. Hidalgo Tercero</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -6311,7 +6445,7 @@
         <v>Spanish</v>
       </c>
       <c r="M40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L40="English",_xlfn.CONCAT($F40,".",$D40,"@xyz.org"),_xlfn.CONCAT($F40,".",$D40,"@xyz.com")))</f>
         <v>tercero.hidalgo@xyz.com</v>
       </c>
       <c r="N40" s="37">
@@ -6339,7 +6473,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C41,  " ", D41,  " ", F41)</f>
         <v>Sr. Hadalgo Polanco</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -6373,7 +6507,7 @@
         <v>Spanish</v>
       </c>
       <c r="M41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L41="English",_xlfn.CONCAT($F41,".",$D41,"@xyz.org"),_xlfn.CONCAT($F41,".",$D41,"@xyz.com")))</f>
         <v>polanco.hadalgo@xyz.com</v>
       </c>
       <c r="N41" s="37">
@@ -6401,7 +6535,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C42,  " ", D42,  " ", F42)</f>
         <v>Sra. Laura Oliviera</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -6435,7 +6569,7 @@
         <v>Spanish</v>
       </c>
       <c r="M42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L42="English",_xlfn.CONCAT($F42,".",$D42,"@xyz.org"),_xlfn.CONCAT($F42,".",$D42,"@xyz.com")))</f>
         <v>oliviera.laura@xyz.com</v>
       </c>
       <c r="N42" s="37">
@@ -6463,7 +6597,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C43,  " ", D43,  " ", F43)</f>
         <v>Sra. Ainhoa Garza</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -6497,7 +6631,7 @@
         <v>Spanish</v>
       </c>
       <c r="M43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L43="English",_xlfn.CONCAT($F43,".",$D43,"@xyz.org"),_xlfn.CONCAT($F43,".",$D43,"@xyz.com")))</f>
         <v>garza.ainhoa@xyz.com</v>
       </c>
       <c r="N43" s="37">
@@ -6525,7 +6659,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C44,  " ", D44,  " ", F44)</f>
         <v>Sra. Isabel Banda</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -6559,7 +6693,7 @@
         <v>Spanish</v>
       </c>
       <c r="M44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L44="English",_xlfn.CONCAT($F44,".",$D44,"@xyz.org"),_xlfn.CONCAT($F44,".",$D44,"@xyz.com")))</f>
         <v>banda.isabel@xyz.com</v>
       </c>
       <c r="N44" s="37">
@@ -6587,7 +6721,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C45,  " ", D45,  " ", F45)</f>
         <v>Sra. Carolota Mateos</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6621,7 +6755,7 @@
         <v>Spanish</v>
       </c>
       <c r="M45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L45="English",_xlfn.CONCAT($F45,".",$D45,"@xyz.org"),_xlfn.CONCAT($F45,".",$D45,"@xyz.com")))</f>
         <v>mateos.carolota@xyz.com</v>
       </c>
       <c r="N45" s="37">
@@ -6649,7 +6783,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C46,  " ", D46,  " ", F46)</f>
         <v>Mw. Elize Prins</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -6683,7 +6817,7 @@
         <v>Dutch</v>
       </c>
       <c r="M46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L46="English",_xlfn.CONCAT($F46,".",$D46,"@xyz.org"),_xlfn.CONCAT($F46,".",$D46,"@xyz.com")))</f>
         <v>prins.elize@xyz.com</v>
       </c>
       <c r="N46" s="37">
@@ -6711,7 +6845,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C47,  " ", D47,  " ", F47)</f>
         <v>dhr. Ryan Pham</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -6745,7 +6879,7 @@
         <v>Dutch</v>
       </c>
       <c r="M47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L47="English",_xlfn.CONCAT($F47,".",$D47,"@xyz.org"),_xlfn.CONCAT($F47,".",$D47,"@xyz.com")))</f>
         <v>pham.ryan@xyz.com</v>
       </c>
       <c r="N47" s="37">
@@ -6773,7 +6907,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C48,  " ", D48,  " ", F48)</f>
         <v>Mw Elise Rotteveel</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -6807,7 +6941,7 @@
         <v>Dutch</v>
       </c>
       <c r="M48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L48="English",_xlfn.CONCAT($F48,".",$D48,"@xyz.org"),_xlfn.CONCAT($F48,".",$D48,"@xyz.com")))</f>
         <v>rotteveel.elise@xyz.com</v>
       </c>
       <c r="N48" s="37">
@@ -6835,7 +6969,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C49,  " ", D49,  " ", F49)</f>
         <v>Fru. Mirjam Soderberg</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6869,7 +7003,7 @@
         <v>Swedish</v>
       </c>
       <c r="M49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L49="English",_xlfn.CONCAT($F49,".",$D49,"@xyz.org"),_xlfn.CONCAT($F49,".",$D49,"@xyz.com")))</f>
         <v>soderberg.mirjam@xyz.com</v>
       </c>
       <c r="N49" s="37">
@@ -6897,7 +7031,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C50,  " ", D50,  " ", F50)</f>
         <v>H. Berndt Palsson</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -6931,7 +7065,7 @@
         <v>Swedish</v>
       </c>
       <c r="M50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L50="English",_xlfn.CONCAT($F50,".",$D50,"@xyz.org"),_xlfn.CONCAT($F50,".",$D50,"@xyz.com")))</f>
         <v>palsson.berndt@xyz.com</v>
       </c>
       <c r="N50" s="37">
@@ -6959,7 +7093,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C51,  " ", D51,  " ", F51)</f>
         <v>Sr. Adriano Sobrinho</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -6995,7 +7129,7 @@
         <v>Portuguese</v>
       </c>
       <c r="M51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>LOWER(IF($L51="English",_xlfn.CONCAT($F51,".",$D51,"@xyz.org"),_xlfn.CONCAT($F51,".",$D51,"@xyz.com")))</f>
         <v>sobrinho.adriano@xyz.com</v>
       </c>
       <c r="N51" s="37">

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E290149-FFB5-4629-B653-D672AAE66D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A10B8C-DFB6-43FB-AC7C-C5596C4A6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="3" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="4" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="35" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="558">
   <si>
     <t>PREFIX</t>
   </si>
@@ -995,6 +995,819 @@
   </si>
   <si>
     <t>Country Names</t>
+  </si>
+  <si>
+    <t>Ms. Annie Abbott</t>
+  </si>
+  <si>
+    <t>Ms. Aurelie Liesuchke</t>
+  </si>
+  <si>
+    <t>Sr. Tomas Filho</t>
+  </si>
+  <si>
+    <t>Ms. Darby Cruickshank</t>
+  </si>
+  <si>
+    <t>Dr. Jaydon Borer</t>
+  </si>
+  <si>
+    <t>Mr. Moriah  Lynch</t>
+  </si>
+  <si>
+    <t>Ms. Amiya Eichmann</t>
+  </si>
+  <si>
+    <t>Mr. Pierce Rau</t>
+  </si>
+  <si>
+    <t>Ms. Amelia Stevens</t>
+  </si>
+  <si>
+    <t>Mr. Toby Simpson</t>
+  </si>
+  <si>
+    <t>Sir Ethan Murphy</t>
+  </si>
+  <si>
+    <t>Mrs. Ashley Wood</t>
+  </si>
+  <si>
+    <t>Ms. Megan Scott</t>
+  </si>
+  <si>
+    <t>Hr. Helmut Weinhae</t>
+  </si>
+  <si>
+    <t>Prof. Milena Schotin</t>
+  </si>
+  <si>
+    <t>Hr. Lothar Birnbaum</t>
+  </si>
+  <si>
+    <t>Hr. Pietro Stolze</t>
+  </si>
+  <si>
+    <t>Hr. Richard  Tlustek</t>
+  </si>
+  <si>
+    <t>Dr. Earnestine Raynor</t>
+  </si>
+  <si>
+    <t>Mr. Jason Gaylord</t>
+  </si>
+  <si>
+    <t>Mr. Kendrick Sauer</t>
+  </si>
+  <si>
+    <t>Dr. Annabell Olson</t>
+  </si>
+  <si>
+    <t>Dr. Jena Upton</t>
+  </si>
+  <si>
+    <t>Dr. Shanny Bins</t>
+  </si>
+  <si>
+    <t>Dr. Tia Abshire</t>
+  </si>
+  <si>
+    <t>Ms. Isabel Runolfsdottir</t>
+  </si>
+  <si>
+    <t>Hr. Barney Wesack</t>
+  </si>
+  <si>
+    <t>Hr. Baruch Kade</t>
+  </si>
+  <si>
+    <t>Prof. Liesbeth Rosemann</t>
+  </si>
+  <si>
+    <t>Mme. Valentine Moreau</t>
+  </si>
+  <si>
+    <t>Mme. Paulette Durand</t>
+  </si>
+  <si>
+    <t>Mme. Laure-Alix Chevalier</t>
+  </si>
+  <si>
+    <t>M. Claude Toussaint</t>
+  </si>
+  <si>
+    <t>M. Victor Lenoir</t>
+  </si>
+  <si>
+    <t>M. Arthur Lenoir</t>
+  </si>
+  <si>
+    <t>M. Benjamin Lebrun-Brun</t>
+  </si>
+  <si>
+    <t>M. Antoine Maillard</t>
+  </si>
+  <si>
+    <t>M. Bernard Hoarau-Guyon</t>
+  </si>
+  <si>
+    <t>Sr. Hidalgo Tercero</t>
+  </si>
+  <si>
+    <t>Sr. Hadalgo Polanco</t>
+  </si>
+  <si>
+    <t>Sra. Laura Oliviera</t>
+  </si>
+  <si>
+    <t>Sra. Ainhoa Garza</t>
+  </si>
+  <si>
+    <t>Sra. Isabel Banda</t>
+  </si>
+  <si>
+    <t>Sra. Carolota Mateos</t>
+  </si>
+  <si>
+    <t>Mw. Elize Prins</t>
+  </si>
+  <si>
+    <t>dhr. Ryan Pham</t>
+  </si>
+  <si>
+    <t>Mw Elise Rotteveel</t>
+  </si>
+  <si>
+    <t>Fru. Mirjam Soderberg</t>
+  </si>
+  <si>
+    <t>H. Berndt Palsson</t>
+  </si>
+  <si>
+    <t>Sr. Adriano Sobrinho</t>
+  </si>
+  <si>
+    <t>001 Total</t>
+  </si>
+  <si>
+    <t>002 Total</t>
+  </si>
+  <si>
+    <t>003 Total</t>
+  </si>
+  <si>
+    <t>004 Total</t>
+  </si>
+  <si>
+    <t>005 Total</t>
+  </si>
+  <si>
+    <t>006 Total</t>
+  </si>
+  <si>
+    <t>007 Total</t>
+  </si>
+  <si>
+    <t>008 Total</t>
+  </si>
+  <si>
+    <t>009 Total</t>
+  </si>
+  <si>
+    <t>010 Total</t>
+  </si>
+  <si>
+    <t>011 Total</t>
+  </si>
+  <si>
+    <t>012 Total</t>
+  </si>
+  <si>
+    <t>013 Total</t>
+  </si>
+  <si>
+    <t>014 Total</t>
+  </si>
+  <si>
+    <t>015 Total</t>
+  </si>
+  <si>
+    <t>016 Total</t>
+  </si>
+  <si>
+    <t>017 Total</t>
+  </si>
+  <si>
+    <t>018 Total</t>
+  </si>
+  <si>
+    <t>019 Total</t>
+  </si>
+  <si>
+    <t>020 Total</t>
+  </si>
+  <si>
+    <t>021 Total</t>
+  </si>
+  <si>
+    <t>022 Total</t>
+  </si>
+  <si>
+    <t>023 Total</t>
+  </si>
+  <si>
+    <t>024 Total</t>
+  </si>
+  <si>
+    <t>025 Total</t>
+  </si>
+  <si>
+    <t>026 Total</t>
+  </si>
+  <si>
+    <t>027 Total</t>
+  </si>
+  <si>
+    <t>028 Total</t>
+  </si>
+  <si>
+    <t>029 Total</t>
+  </si>
+  <si>
+    <t>030 Total</t>
+  </si>
+  <si>
+    <t>031 Total</t>
+  </si>
+  <si>
+    <t>032 Total</t>
+  </si>
+  <si>
+    <t>033 Total</t>
+  </si>
+  <si>
+    <t>034 Total</t>
+  </si>
+  <si>
+    <t>035 Total</t>
+  </si>
+  <si>
+    <t>036 Total</t>
+  </si>
+  <si>
+    <t>037 Total</t>
+  </si>
+  <si>
+    <t>038 Total</t>
+  </si>
+  <si>
+    <t>039 Total</t>
+  </si>
+  <si>
+    <t>040 Total</t>
+  </si>
+  <si>
+    <t>041 Total</t>
+  </si>
+  <si>
+    <t>042 Total</t>
+  </si>
+  <si>
+    <t>043 Total</t>
+  </si>
+  <si>
+    <t>044 Total</t>
+  </si>
+  <si>
+    <t>045 Total</t>
+  </si>
+  <si>
+    <t>046 Total</t>
+  </si>
+  <si>
+    <t>047 Total</t>
+  </si>
+  <si>
+    <t>048 Total</t>
+  </si>
+  <si>
+    <t>049 Total</t>
+  </si>
+  <si>
+    <t>050 Total</t>
+  </si>
+  <si>
+    <t>Ms. Annie Abbott Total</t>
+  </si>
+  <si>
+    <t>Ms. Aurelie Liesuchke Total</t>
+  </si>
+  <si>
+    <t>Sr. Tomas Filho Total</t>
+  </si>
+  <si>
+    <t>Ms. Darby Cruickshank Total</t>
+  </si>
+  <si>
+    <t>Dr. Jaydon Borer Total</t>
+  </si>
+  <si>
+    <t>Mr. Moriah  Lynch Total</t>
+  </si>
+  <si>
+    <t>Ms. Amiya Eichmann Total</t>
+  </si>
+  <si>
+    <t>Mr. Pierce Rau Total</t>
+  </si>
+  <si>
+    <t>Ms. Amelia Stevens Total</t>
+  </si>
+  <si>
+    <t>Mr. Toby Simpson Total</t>
+  </si>
+  <si>
+    <t>Sir Ethan Murphy Total</t>
+  </si>
+  <si>
+    <t>Mrs. Ashley Wood Total</t>
+  </si>
+  <si>
+    <t>Ms. Megan Scott Total</t>
+  </si>
+  <si>
+    <t>Hr. Helmut Weinhae Total</t>
+  </si>
+  <si>
+    <t>Prof. Milena Schotin Total</t>
+  </si>
+  <si>
+    <t>Hr. Lothar Birnbaum Total</t>
+  </si>
+  <si>
+    <t>Hr. Pietro Stolze Total</t>
+  </si>
+  <si>
+    <t>Hr. Richard  Tlustek Total</t>
+  </si>
+  <si>
+    <t>Dr. Earnestine Raynor Total</t>
+  </si>
+  <si>
+    <t>Mr. Jason Gaylord Total</t>
+  </si>
+  <si>
+    <t>Mr. Kendrick Sauer Total</t>
+  </si>
+  <si>
+    <t>Dr. Annabell Olson Total</t>
+  </si>
+  <si>
+    <t>Dr. Jena Upton Total</t>
+  </si>
+  <si>
+    <t>Dr. Shanny Bins Total</t>
+  </si>
+  <si>
+    <t>Dr. Tia Abshire Total</t>
+  </si>
+  <si>
+    <t>Ms. Isabel Runolfsdottir Total</t>
+  </si>
+  <si>
+    <t>Hr. Barney Wesack Total</t>
+  </si>
+  <si>
+    <t>Hr. Baruch Kade Total</t>
+  </si>
+  <si>
+    <t>Prof. Liesbeth Rosemann Total</t>
+  </si>
+  <si>
+    <t>Mme. Valentine Moreau Total</t>
+  </si>
+  <si>
+    <t>Mme. Paulette Durand Total</t>
+  </si>
+  <si>
+    <t>Mme. Laure-Alix Chevalier Total</t>
+  </si>
+  <si>
+    <t>M. Claude Toussaint Total</t>
+  </si>
+  <si>
+    <t>M. Victor Lenoir Total</t>
+  </si>
+  <si>
+    <t>M. Arthur Lenoir Total</t>
+  </si>
+  <si>
+    <t>M. Benjamin Lebrun-Brun Total</t>
+  </si>
+  <si>
+    <t>M. Antoine Maillard Total</t>
+  </si>
+  <si>
+    <t>M. Bernard Hoarau-Guyon Total</t>
+  </si>
+  <si>
+    <t>Sr. Hidalgo Tercero Total</t>
+  </si>
+  <si>
+    <t>Sr. Hadalgo Polanco Total</t>
+  </si>
+  <si>
+    <t>Sra. Laura Oliviera Total</t>
+  </si>
+  <si>
+    <t>Sra. Ainhoa Garza Total</t>
+  </si>
+  <si>
+    <t>Sra. Isabel Banda Total</t>
+  </si>
+  <si>
+    <t>Sra. Carolota Mateos Total</t>
+  </si>
+  <si>
+    <t>Mw. Elize Prins Total</t>
+  </si>
+  <si>
+    <t>dhr. Ryan Pham Total</t>
+  </si>
+  <si>
+    <t>Mw Elise Rotteveel Total</t>
+  </si>
+  <si>
+    <t>Fru. Mirjam Soderberg Total</t>
+  </si>
+  <si>
+    <t>H. Berndt Palsson Total</t>
+  </si>
+  <si>
+    <t>Sr. Adriano Sobrinho Total</t>
+  </si>
+  <si>
+    <t>Female Total</t>
+  </si>
+  <si>
+    <t>Male Total</t>
+  </si>
+  <si>
+    <t>USA Total</t>
+  </si>
+  <si>
+    <t>BRAZIL Total</t>
+  </si>
+  <si>
+    <t>UK Total</t>
+  </si>
+  <si>
+    <t>GERMANY Total</t>
+  </si>
+  <si>
+    <t>AUSTRALIA Total</t>
+  </si>
+  <si>
+    <t>AUSTRIA Total</t>
+  </si>
+  <si>
+    <t>FRANCE Total</t>
+  </si>
+  <si>
+    <t>ARGENTINA Total</t>
+  </si>
+  <si>
+    <t>SPAIN Total</t>
+  </si>
+  <si>
+    <t>NETHERLANDS Total</t>
+  </si>
+  <si>
+    <t>SWEDEN Total</t>
+  </si>
+  <si>
+    <t>abbott.annie@xyz.org</t>
+  </si>
+  <si>
+    <t>English Total</t>
+  </si>
+  <si>
+    <t>liesuchke.aurelie@xyz.org</t>
+  </si>
+  <si>
+    <t>filho.tomas@xyz.com</t>
+  </si>
+  <si>
+    <t>Portuguese Total</t>
+  </si>
+  <si>
+    <t>cruickshank.darby@xyz.org</t>
+  </si>
+  <si>
+    <t>borer.jaydon@xyz.org</t>
+  </si>
+  <si>
+    <t>lynch.moriah @xyz.org</t>
+  </si>
+  <si>
+    <t>eichmann.amiya@xyz.org</t>
+  </si>
+  <si>
+    <t>rau.pierce@xyz.org</t>
+  </si>
+  <si>
+    <t>stevens.amelia@xyz.org</t>
+  </si>
+  <si>
+    <t>simpson.toby@xyz.org</t>
+  </si>
+  <si>
+    <t>murphy.ethan@xyz.org</t>
+  </si>
+  <si>
+    <t>wood.ashley@xyz.org</t>
+  </si>
+  <si>
+    <t>scott.megan@xyz.org</t>
+  </si>
+  <si>
+    <t>weinhae.helmut@xyz.com</t>
+  </si>
+  <si>
+    <t>German Total</t>
+  </si>
+  <si>
+    <t>schotin.milena@xyz.com</t>
+  </si>
+  <si>
+    <t>birnbaum.lothar@xyz.com</t>
+  </si>
+  <si>
+    <t>stolze.pietro@xyz.com</t>
+  </si>
+  <si>
+    <t>tlustek.richard @xyz.com</t>
+  </si>
+  <si>
+    <t>raynor.earnestine@xyz.org</t>
+  </si>
+  <si>
+    <t>gaylord.jason@xyz.org</t>
+  </si>
+  <si>
+    <t>sauer.kendrick@xyz.org</t>
+  </si>
+  <si>
+    <t>olson.annabell@xyz.org</t>
+  </si>
+  <si>
+    <t>upton.jena@xyz.org</t>
+  </si>
+  <si>
+    <t>bins.shanny@xyz.org</t>
+  </si>
+  <si>
+    <t>abshire.tia@xyz.org</t>
+  </si>
+  <si>
+    <t>runolfsdottir.isabel@xyz.org</t>
+  </si>
+  <si>
+    <t>wesack.barney@xyz.com</t>
+  </si>
+  <si>
+    <t>kade.baruch@xyz.com</t>
+  </si>
+  <si>
+    <t>rosemann.liesbeth@xyz.com</t>
+  </si>
+  <si>
+    <t>moreau.valentine@xyz.com</t>
+  </si>
+  <si>
+    <t>French Total</t>
+  </si>
+  <si>
+    <t>durand.paulette@xyz.com</t>
+  </si>
+  <si>
+    <t>chevalier.laure-alix@xyz.com</t>
+  </si>
+  <si>
+    <t>toussaint.claude@xyz.com</t>
+  </si>
+  <si>
+    <t>lenoir.victor@xyz.com</t>
+  </si>
+  <si>
+    <t>lenoir.arthur@xyz.com</t>
+  </si>
+  <si>
+    <t>lebrun-brun.benjamin@xyz.com</t>
+  </si>
+  <si>
+    <t>maillard.antoine@xyz.com</t>
+  </si>
+  <si>
+    <t>hoarau-guyon.bernard@xyz.com</t>
+  </si>
+  <si>
+    <t>tercero.hidalgo@xyz.com</t>
+  </si>
+  <si>
+    <t>Spanish Total</t>
+  </si>
+  <si>
+    <t>polanco.hadalgo@xyz.com</t>
+  </si>
+  <si>
+    <t>oliviera.laura@xyz.com</t>
+  </si>
+  <si>
+    <t>garza.ainhoa@xyz.com</t>
+  </si>
+  <si>
+    <t>banda.isabel@xyz.com</t>
+  </si>
+  <si>
+    <t>mateos.carolota@xyz.com</t>
+  </si>
+  <si>
+    <t>prins.elize@xyz.com</t>
+  </si>
+  <si>
+    <t>Dutch Total</t>
+  </si>
+  <si>
+    <t>pham.ryan@xyz.com</t>
+  </si>
+  <si>
+    <t>rotteveel.elise@xyz.com</t>
+  </si>
+  <si>
+    <t>soderberg.mirjam@xyz.com</t>
+  </si>
+  <si>
+    <t>Swedish Total</t>
+  </si>
+  <si>
+    <t>palsson.berndt@xyz.com</t>
+  </si>
+  <si>
+    <t>sobrinho.adriano@xyz.com</t>
+  </si>
+  <si>
+    <t>abbott.annie@xyz.org Total</t>
+  </si>
+  <si>
+    <t>liesuchke.aurelie@xyz.org Total</t>
+  </si>
+  <si>
+    <t>filho.tomas@xyz.com Total</t>
+  </si>
+  <si>
+    <t>cruickshank.darby@xyz.org Total</t>
+  </si>
+  <si>
+    <t>borer.jaydon@xyz.org Total</t>
+  </si>
+  <si>
+    <t>lynch.moriah @xyz.org Total</t>
+  </si>
+  <si>
+    <t>eichmann.amiya@xyz.org Total</t>
+  </si>
+  <si>
+    <t>rau.pierce@xyz.org Total</t>
+  </si>
+  <si>
+    <t>stevens.amelia@xyz.org Total</t>
+  </si>
+  <si>
+    <t>simpson.toby@xyz.org Total</t>
+  </si>
+  <si>
+    <t>murphy.ethan@xyz.org Total</t>
+  </si>
+  <si>
+    <t>wood.ashley@xyz.org Total</t>
+  </si>
+  <si>
+    <t>scott.megan@xyz.org Total</t>
+  </si>
+  <si>
+    <t>weinhae.helmut@xyz.com Total</t>
+  </si>
+  <si>
+    <t>schotin.milena@xyz.com Total</t>
+  </si>
+  <si>
+    <t>birnbaum.lothar@xyz.com Total</t>
+  </si>
+  <si>
+    <t>stolze.pietro@xyz.com Total</t>
+  </si>
+  <si>
+    <t>tlustek.richard @xyz.com Total</t>
+  </si>
+  <si>
+    <t>raynor.earnestine@xyz.org Total</t>
+  </si>
+  <si>
+    <t>gaylord.jason@xyz.org Total</t>
+  </si>
+  <si>
+    <t>sauer.kendrick@xyz.org Total</t>
+  </si>
+  <si>
+    <t>olson.annabell@xyz.org Total</t>
+  </si>
+  <si>
+    <t>upton.jena@xyz.org Total</t>
+  </si>
+  <si>
+    <t>bins.shanny@xyz.org Total</t>
+  </si>
+  <si>
+    <t>abshire.tia@xyz.org Total</t>
+  </si>
+  <si>
+    <t>runolfsdottir.isabel@xyz.org Total</t>
+  </si>
+  <si>
+    <t>wesack.barney@xyz.com Total</t>
+  </si>
+  <si>
+    <t>kade.baruch@xyz.com Total</t>
+  </si>
+  <si>
+    <t>rosemann.liesbeth@xyz.com Total</t>
+  </si>
+  <si>
+    <t>moreau.valentine@xyz.com Total</t>
+  </si>
+  <si>
+    <t>durand.paulette@xyz.com Total</t>
+  </si>
+  <si>
+    <t>chevalier.laure-alix@xyz.com Total</t>
+  </si>
+  <si>
+    <t>toussaint.claude@xyz.com Total</t>
+  </si>
+  <si>
+    <t>lenoir.victor@xyz.com Total</t>
+  </si>
+  <si>
+    <t>lenoir.arthur@xyz.com Total</t>
+  </si>
+  <si>
+    <t>lebrun-brun.benjamin@xyz.com Total</t>
+  </si>
+  <si>
+    <t>maillard.antoine@xyz.com Total</t>
+  </si>
+  <si>
+    <t>hoarau-guyon.bernard@xyz.com Total</t>
+  </si>
+  <si>
+    <t>tercero.hidalgo@xyz.com Total</t>
+  </si>
+  <si>
+    <t>polanco.hadalgo@xyz.com Total</t>
+  </si>
+  <si>
+    <t>oliviera.laura@xyz.com Total</t>
+  </si>
+  <si>
+    <t>garza.ainhoa@xyz.com Total</t>
+  </si>
+  <si>
+    <t>banda.isabel@xyz.com Total</t>
+  </si>
+  <si>
+    <t>mateos.carolota@xyz.com Total</t>
+  </si>
+  <si>
+    <t>prins.elize@xyz.com Total</t>
+  </si>
+  <si>
+    <t>pham.ryan@xyz.com Total</t>
+  </si>
+  <si>
+    <t>rotteveel.elise@xyz.com Total</t>
+  </si>
+  <si>
+    <t>soderberg.mirjam@xyz.com Total</t>
+  </si>
+  <si>
+    <t>palsson.berndt@xyz.com Total</t>
+  </si>
+  <si>
+    <t>sobrinho.adriano@xyz.com Total</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +2323,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,12 +2354,114 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S51" sheet="SPORTSMEN"/>
   </cacheSource>
-  <cacheFields count="19">
+  <cacheFields count="21">
     <cacheField name="MEMBER ID" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50" count="50">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="FULL NAME" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="50">
+        <s v="Ms. Annie Abbott"/>
+        <s v="Ms. Aurelie Liesuchke"/>
+        <s v="Sr. Tomas Filho"/>
+        <s v="Ms. Darby Cruickshank"/>
+        <s v="Dr. Jaydon Borer"/>
+        <s v="Mr. Moriah  Lynch"/>
+        <s v="Ms. Amiya Eichmann"/>
+        <s v="Mr. Pierce Rau"/>
+        <s v="Ms. Amelia Stevens"/>
+        <s v="Mr. Toby Simpson"/>
+        <s v="Sir Ethan Murphy"/>
+        <s v="Mrs. Ashley Wood"/>
+        <s v="Ms. Megan Scott"/>
+        <s v="Hr. Helmut Weinhae"/>
+        <s v="Prof. Milena Schotin"/>
+        <s v="Hr. Lothar Birnbaum"/>
+        <s v="Hr. Pietro Stolze"/>
+        <s v="Hr. Richard  Tlustek"/>
+        <s v="Dr. Earnestine Raynor"/>
+        <s v="Mr. Jason Gaylord"/>
+        <s v="Mr. Kendrick Sauer"/>
+        <s v="Dr. Annabell Olson"/>
+        <s v="Dr. Jena Upton"/>
+        <s v="Dr. Shanny Bins"/>
+        <s v="Dr. Tia Abshire"/>
+        <s v="Ms. Isabel Runolfsdottir"/>
+        <s v="Hr. Barney Wesack"/>
+        <s v="Hr. Baruch Kade"/>
+        <s v="Prof. Liesbeth Rosemann"/>
+        <s v="Mme. Valentine Moreau"/>
+        <s v="Mme. Paulette Durand"/>
+        <s v="Mme. Laure-Alix Chevalier"/>
+        <s v="M. Claude Toussaint"/>
+        <s v="M. Victor Lenoir"/>
+        <s v="M. Arthur Lenoir"/>
+        <s v="M. Benjamin Lebrun-Brun"/>
+        <s v="M. Antoine Maillard"/>
+        <s v="M. Bernard Hoarau-Guyon"/>
+        <s v="Sr. Hidalgo Tercero"/>
+        <s v="Sr. Hadalgo Polanco"/>
+        <s v="Sra. Laura Oliviera"/>
+        <s v="Sra. Ainhoa Garza"/>
+        <s v="Sra. Isabel Banda"/>
+        <s v="Sra. Carolota Mateos"/>
+        <s v="Mw. Elize Prins"/>
+        <s v="dhr. Ryan Pham"/>
+        <s v="Mw Elise Rotteveel"/>
+        <s v="Fru. Mirjam Soderberg"/>
+        <s v="H. Berndt Palsson"/>
+        <s v="Sr. Adriano Sobrinho"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="PREFIX" numFmtId="0">
       <sharedItems/>
@@ -1561,7 +2476,77 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="BIRTHDATE" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1955-07-30T00:00:00" maxDate="1999-08-29T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1955-07-30T00:00:00" maxDate="1999-08-29T00:00:00" count="50">
+        <d v="1997-09-26T00:00:00"/>
+        <d v="1992-02-07T00:00:00"/>
+        <d v="1969-07-10T00:00:00"/>
+        <d v="1975-05-18T00:00:00"/>
+        <d v="1970-05-18T00:00:00"/>
+        <d v="1992-12-06T00:00:00"/>
+        <d v="1999-07-29T00:00:00"/>
+        <d v="1963-05-10T00:00:00"/>
+        <d v="1971-02-01T00:00:00"/>
+        <d v="1964-12-21T00:00:00"/>
+        <d v="1986-11-17T00:00:00"/>
+        <d v="1977-10-14T00:00:00"/>
+        <d v="1977-02-12T00:00:00"/>
+        <d v="1959-08-26T00:00:00"/>
+        <d v="1965-03-03T00:00:00"/>
+        <d v="1969-07-21T00:00:00"/>
+        <d v="1972-10-10T00:00:00"/>
+        <d v="1959-08-31T00:00:00"/>
+        <d v="1977-05-17T00:00:00"/>
+        <d v="1976-01-08T00:00:00"/>
+        <d v="1996-07-22T00:00:00"/>
+        <d v="1964-04-16T00:00:00"/>
+        <d v="1955-12-14T00:00:00"/>
+        <d v="1999-08-28T00:00:00"/>
+        <d v="1966-07-21T00:00:00"/>
+        <d v="1978-03-21T00:00:00"/>
+        <d v="1970-07-18T00:00:00"/>
+        <d v="1982-03-10T00:00:00"/>
+        <d v="1994-01-27T00:00:00"/>
+        <d v="1979-10-09T00:00:00"/>
+        <d v="1989-12-25T00:00:00"/>
+        <d v="1970-12-23T00:00:00"/>
+        <d v="1980-11-04T00:00:00"/>
+        <d v="1981-10-16T00:00:00"/>
+        <d v="1955-07-30T00:00:00"/>
+        <d v="1975-02-03T00:00:00"/>
+        <d v="1986-06-22T00:00:00"/>
+        <d v="1983-01-11T00:00:00"/>
+        <d v="1984-11-30T00:00:00"/>
+        <d v="1988-06-20T00:00:00"/>
+        <d v="1974-02-16T00:00:00"/>
+        <d v="1990-03-09T00:00:00"/>
+        <d v="1960-01-12T00:00:00"/>
+        <d v="1965-07-29T00:00:00"/>
+        <d v="1960-05-08T00:00:00"/>
+        <d v="1973-10-03T00:00:00"/>
+        <d v="1968-04-08T00:00:00"/>
+        <d v="1997-05-17T00:00:00"/>
+        <d v="1987-02-24T00:00:00"/>
+        <d v="1993-07-28T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="20" base="6">
+        <rangePr groupBy="months" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;30-07-1955"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;29-08-1999"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
     <cacheField name="ZODIAC" numFmtId="0">
       <sharedItems/>
@@ -1591,10 +2576,69 @@
       </sharedItems>
     </cacheField>
     <cacheField name="LANGUAGE" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="7">
+        <s v="English"/>
+        <s v="Portuguese"/>
+        <s v="German"/>
+        <s v="French"/>
+        <s v="Spanish"/>
+        <s v="Dutch"/>
+        <s v="Swedish"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="EMAIL" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="50">
+        <s v="abbott.annie@xyz.org"/>
+        <s v="liesuchke.aurelie@xyz.org"/>
+        <s v="filho.tomas@xyz.com"/>
+        <s v="cruickshank.darby@xyz.org"/>
+        <s v="borer.jaydon@xyz.org"/>
+        <s v="lynch.moriah @xyz.org"/>
+        <s v="eichmann.amiya@xyz.org"/>
+        <s v="rau.pierce@xyz.org"/>
+        <s v="stevens.amelia@xyz.org"/>
+        <s v="simpson.toby@xyz.org"/>
+        <s v="murphy.ethan@xyz.org"/>
+        <s v="wood.ashley@xyz.org"/>
+        <s v="scott.megan@xyz.org"/>
+        <s v="weinhae.helmut@xyz.com"/>
+        <s v="schotin.milena@xyz.com"/>
+        <s v="birnbaum.lothar@xyz.com"/>
+        <s v="stolze.pietro@xyz.com"/>
+        <s v="tlustek.richard @xyz.com"/>
+        <s v="raynor.earnestine@xyz.org"/>
+        <s v="gaylord.jason@xyz.org"/>
+        <s v="sauer.kendrick@xyz.org"/>
+        <s v="olson.annabell@xyz.org"/>
+        <s v="upton.jena@xyz.org"/>
+        <s v="bins.shanny@xyz.org"/>
+        <s v="abshire.tia@xyz.org"/>
+        <s v="runolfsdottir.isabel@xyz.org"/>
+        <s v="wesack.barney@xyz.com"/>
+        <s v="kade.baruch@xyz.com"/>
+        <s v="rosemann.liesbeth@xyz.com"/>
+        <s v="moreau.valentine@xyz.com"/>
+        <s v="durand.paulette@xyz.com"/>
+        <s v="chevalier.laure-alix@xyz.com"/>
+        <s v="toussaint.claude@xyz.com"/>
+        <s v="lenoir.victor@xyz.com"/>
+        <s v="lenoir.arthur@xyz.com"/>
+        <s v="lebrun-brun.benjamin@xyz.com"/>
+        <s v="maillard.antoine@xyz.com"/>
+        <s v="hoarau-guyon.bernard@xyz.com"/>
+        <s v="tercero.hidalgo@xyz.com"/>
+        <s v="polanco.hadalgo@xyz.com"/>
+        <s v="oliviera.laura@xyz.com"/>
+        <s v="garza.ainhoa@xyz.com"/>
+        <s v="banda.isabel@xyz.com"/>
+        <s v="mateos.carolota@xyz.com"/>
+        <s v="prins.elize@xyz.com"/>
+        <s v="pham.ryan@xyz.com"/>
+        <s v="rotteveel.elise@xyz.com"/>
+        <s v="soderberg.mirjam@xyz.com"/>
+        <s v="palsson.berndt@xyz.com"/>
+        <s v="sobrinho.adriano@xyz.com"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="WEIGHT" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.9" maxValue="105.9"/>
@@ -1606,13 +2650,116 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="SPORT LOCATION" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="INDOOR"/>
+        <s v="OUTDOOR"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="SPORTS" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="32">
+        <s v="Cycling Track"/>
+        <s v="Boxing"/>
+        <s v="Football"/>
+        <s v="Alpine Skiing"/>
+        <s v="Water Polo"/>
+        <s v="Fencing"/>
+        <s v="Cycling Road"/>
+        <s v="Curling"/>
+        <s v="Shooting"/>
+        <s v="Freestyle Skiing"/>
+        <s v="Archery"/>
+        <s v="Rugby"/>
+        <s v="Canoe Sprint"/>
+        <s v="Cycling BMX"/>
+        <s v="Handball"/>
+        <s v="Cycling Mountain Bike"/>
+        <s v="Short Track Speed Skating"/>
+        <s v="Basketball"/>
+        <s v="Triathlon"/>
+        <s v="Equestrian / Dressage"/>
+        <s v="Beach Volleyball"/>
+        <s v="Canoe Slalom"/>
+        <s v="Volleyball"/>
+        <s v="Golf"/>
+        <s v="Diving"/>
+        <s v="Hockey"/>
+        <s v="Sailing"/>
+        <s v="Athletics"/>
+        <s v="Gymnastics Artistic"/>
+        <s v="Judo"/>
+        <s v="Biathlon"/>
+        <s v="Swimming"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="SALARY" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10241" maxValue="117408"/>
+    </cacheField>
+    <cacheField name="Quarters" numFmtId="0" databaseField="0">
+      <fieldGroup base="6">
+        <rangePr groupBy="quarters" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;30-07-1955"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;29-08-1999"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years" numFmtId="0" databaseField="0">
+      <fieldGroup base="6">
+        <rangePr groupBy="years" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
+        <groupItems count="47">
+          <s v="&lt;30-07-1955"/>
+          <s v="1955"/>
+          <s v="1956"/>
+          <s v="1957"/>
+          <s v="1958"/>
+          <s v="1959"/>
+          <s v="1960"/>
+          <s v="1961"/>
+          <s v="1962"/>
+          <s v="1963"/>
+          <s v="1964"/>
+          <s v="1965"/>
+          <s v="1966"/>
+          <s v="1967"/>
+          <s v="1968"/>
+          <s v="1969"/>
+          <s v="1970"/>
+          <s v="1971"/>
+          <s v="1972"/>
+          <s v="1973"/>
+          <s v="1974"/>
+          <s v="1975"/>
+          <s v="1976"/>
+          <s v="1977"/>
+          <s v="1978"/>
+          <s v="1979"/>
+          <s v="1980"/>
+          <s v="1981"/>
+          <s v="1982"/>
+          <s v="1983"/>
+          <s v="1984"/>
+          <s v="1985"/>
+          <s v="1986"/>
+          <s v="1987"/>
+          <s v="1988"/>
+          <s v="1989"/>
+          <s v="1990"/>
+          <s v="1991"/>
+          <s v="1992"/>
+          <s v="1993"/>
+          <s v="1994"/>
+          <s v="1995"/>
+          <s v="1996"/>
+          <s v="1997"/>
+          <s v="1998"/>
+          <s v="1999"/>
+          <s v="&gt;29-08-1999"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1626,1069 +2773,1087 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
-    <n v="1"/>
-    <s v="Ms. Annie Abbott"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="Ms."/>
     <s v="Annie"/>
     <m/>
     <s v="Abbott"/>
-    <d v="1997-09-26T00:00:00"/>
+    <x v="0"/>
     <s v="Libra"/>
     <x v="0"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="abbott.annie@xyz.org"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="94"/>
     <s v="Green"/>
     <s v="A−"/>
-    <s v="INDOOR"/>
-    <s v="Cycling Track"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="80727"/>
   </r>
   <r>
-    <n v="2"/>
-    <s v="Ms. Aurelie Liesuchke"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="Ms."/>
     <s v="Aurelie"/>
     <m/>
     <s v="Liesuchke"/>
-    <d v="1992-02-07T00:00:00"/>
+    <x v="1"/>
     <s v="Aquarius"/>
     <x v="0"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="liesuchke.aurelie@xyz.org"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="84.2"/>
     <s v="Brown"/>
     <s v="O−"/>
-    <s v="INDOOR"/>
-    <s v="Boxing"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="87471"/>
   </r>
   <r>
-    <n v="3"/>
-    <s v="Sr. Tomas Filho"/>
+    <x v="2"/>
+    <x v="2"/>
     <s v="Sr."/>
     <s v="Tomas"/>
     <s v="Ferreira"/>
     <s v="Filho"/>
-    <d v="1969-07-10T00:00:00"/>
+    <x v="2"/>
     <s v="Cancer"/>
     <x v="1"/>
     <s v="BR"/>
     <x v="1"/>
-    <s v="Portuguese"/>
-    <s v="filho.tomas@xyz.com"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="52.9"/>
     <s v="Amber"/>
     <s v="A−"/>
-    <s v="OUTDOOR"/>
-    <s v="Football"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="64724"/>
   </r>
   <r>
-    <n v="4"/>
-    <s v="Ms. Darby Cruickshank"/>
+    <x v="3"/>
+    <x v="3"/>
     <s v="Ms."/>
     <s v="Darby"/>
     <m/>
     <s v="Cruickshank"/>
-    <d v="1975-05-18T00:00:00"/>
+    <x v="3"/>
     <s v="Taurus"/>
     <x v="0"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="cruickshank.darby@xyz.org"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="48.9"/>
     <s v="Green"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Alpine Skiing"/>
+    <x v="1"/>
+    <x v="3"/>
     <n v="110823"/>
   </r>
   <r>
-    <n v="5"/>
-    <s v="Dr. Jaydon Borer"/>
+    <x v="4"/>
+    <x v="4"/>
     <s v="Dr."/>
     <s v="Jaydon"/>
     <m/>
     <s v="Borer"/>
-    <d v="1970-05-18T00:00:00"/>
+    <x v="4"/>
     <s v="Taurus"/>
     <x v="1"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="borer.jaydon@xyz.org"/>
+    <x v="0"/>
+    <x v="4"/>
     <n v="84.8"/>
     <s v="Blue"/>
     <s v="B−"/>
-    <s v="INDOOR"/>
-    <s v="Water Polo"/>
+    <x v="0"/>
+    <x v="4"/>
     <n v="56916"/>
   </r>
   <r>
-    <n v="6"/>
-    <s v="Mr. Moriah  Lynch"/>
+    <x v="5"/>
+    <x v="5"/>
     <s v="Mr."/>
     <s v="Moriah "/>
     <m/>
     <s v="Lynch"/>
-    <d v="1992-12-06T00:00:00"/>
+    <x v="5"/>
     <s v="Sagittarius"/>
     <x v="1"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="lynch.moriah @xyz.org"/>
+    <x v="0"/>
+    <x v="5"/>
     <n v="83.2"/>
     <s v="Blue"/>
     <s v="O−"/>
-    <s v="INDOOR"/>
-    <s v="Fencing"/>
+    <x v="0"/>
+    <x v="5"/>
     <n v="51133"/>
   </r>
   <r>
-    <n v="7"/>
-    <s v="Ms. Amiya Eichmann"/>
+    <x v="6"/>
+    <x v="6"/>
     <s v="Ms."/>
     <s v="Amiya"/>
     <m/>
     <s v="Eichmann"/>
-    <d v="1999-07-29T00:00:00"/>
+    <x v="6"/>
     <s v="Leo"/>
     <x v="0"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="eichmann.amiya@xyz.org"/>
+    <x v="0"/>
+    <x v="6"/>
     <n v="61.1"/>
     <s v="Blue"/>
     <s v="B−"/>
-    <s v="OUTDOOR"/>
-    <s v="Cycling Road"/>
+    <x v="1"/>
+    <x v="6"/>
     <n v="65465"/>
   </r>
   <r>
-    <n v="8"/>
-    <s v="Mr. Pierce Rau"/>
+    <x v="7"/>
+    <x v="7"/>
     <s v="Mr."/>
     <s v="Pierce"/>
     <m/>
     <s v="Rau"/>
-    <d v="1963-05-10T00:00:00"/>
+    <x v="7"/>
     <s v="Taurus"/>
     <x v="1"/>
     <s v="US"/>
     <x v="0"/>
-    <s v="English"/>
-    <s v="rau.pierce@xyz.org"/>
+    <x v="0"/>
+    <x v="7"/>
     <n v="105.7"/>
     <s v="Amber"/>
     <s v="A+"/>
-    <s v="INDOOR"/>
-    <s v="Curling"/>
+    <x v="0"/>
+    <x v="7"/>
     <n v="109885"/>
   </r>
   <r>
-    <n v="9"/>
-    <s v="Ms. Amelia Stevens"/>
+    <x v="8"/>
+    <x v="8"/>
     <s v="Ms."/>
     <s v="Amelia"/>
     <m/>
     <s v="Stevens"/>
-    <d v="1971-02-01T00:00:00"/>
+    <x v="8"/>
     <s v="Aquarius"/>
     <x v="0"/>
     <s v="GB"/>
     <x v="2"/>
-    <s v="English"/>
-    <s v="stevens.amelia@xyz.org"/>
+    <x v="0"/>
+    <x v="8"/>
     <n v="65.3"/>
     <s v="Blue"/>
     <s v="A+"/>
-    <s v="INDOOR"/>
-    <s v="Shooting"/>
+    <x v="0"/>
+    <x v="8"/>
     <n v="60061"/>
   </r>
   <r>
-    <n v="10"/>
-    <s v="Mr. Toby Simpson"/>
+    <x v="9"/>
+    <x v="9"/>
     <s v="Mr."/>
     <s v="Toby"/>
     <m/>
     <s v="Simpson"/>
-    <d v="1964-12-21T00:00:00"/>
+    <x v="9"/>
     <s v="Sagittarius"/>
     <x v="1"/>
     <s v="GB"/>
     <x v="2"/>
-    <s v="English"/>
-    <s v="simpson.toby@xyz.org"/>
+    <x v="0"/>
+    <x v="9"/>
     <n v="62.9"/>
     <s v="Amber"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Cycling Road"/>
+    <x v="1"/>
+    <x v="6"/>
     <n v="32758"/>
   </r>
   <r>
-    <n v="11"/>
-    <s v="Sir Ethan Murphy"/>
+    <x v="10"/>
+    <x v="10"/>
     <s v="Sir"/>
     <s v="Ethan"/>
     <m/>
     <s v="Murphy"/>
-    <d v="1986-11-17T00:00:00"/>
+    <x v="10"/>
     <s v="Scorpio"/>
     <x v="1"/>
     <s v="GB"/>
     <x v="2"/>
-    <s v="English"/>
-    <s v="murphy.ethan@xyz.org"/>
+    <x v="0"/>
+    <x v="10"/>
     <n v="104.3"/>
     <s v="Brown"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Freestyle Skiing"/>
+    <x v="1"/>
+    <x v="9"/>
     <n v="99613"/>
   </r>
   <r>
-    <n v="12"/>
-    <s v="Mrs. Ashley Wood"/>
+    <x v="11"/>
+    <x v="11"/>
     <s v="Mrs."/>
     <s v="Ashley"/>
     <m/>
     <s v="Wood"/>
-    <d v="1977-10-14T00:00:00"/>
+    <x v="11"/>
     <s v="Libra"/>
     <x v="0"/>
     <s v="GB"/>
     <x v="2"/>
-    <s v="English"/>
-    <s v="wood.ashley@xyz.org"/>
+    <x v="0"/>
+    <x v="11"/>
     <n v="100.7"/>
     <s v="Brown"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Archery"/>
+    <x v="1"/>
+    <x v="10"/>
     <n v="56595"/>
   </r>
   <r>
-    <n v="13"/>
-    <s v="Ms. Megan Scott"/>
+    <x v="12"/>
+    <x v="12"/>
     <s v="Ms."/>
     <s v="Megan"/>
     <m/>
     <s v="Scott"/>
-    <d v="1977-02-12T00:00:00"/>
+    <x v="12"/>
     <s v="Aquarius"/>
     <x v="0"/>
     <s v="GB"/>
     <x v="2"/>
-    <s v="English"/>
-    <s v="scott.megan@xyz.org"/>
+    <x v="0"/>
+    <x v="12"/>
     <n v="70.900000000000006"/>
     <s v="Green"/>
     <s v="A−"/>
-    <s v="OUTDOOR"/>
-    <s v="Rugby"/>
+    <x v="1"/>
+    <x v="11"/>
     <n v="117408"/>
   </r>
   <r>
-    <n v="14"/>
-    <s v="Hr. Helmut Weinhae"/>
+    <x v="13"/>
+    <x v="13"/>
     <s v="Hr."/>
     <s v="Helmut"/>
     <m/>
     <s v="Weinhae"/>
-    <d v="1959-08-26T00:00:00"/>
+    <x v="13"/>
     <s v="Virgo"/>
     <x v="1"/>
     <s v="DE"/>
     <x v="3"/>
-    <s v="German"/>
-    <s v="weinhae.helmut@xyz.com"/>
+    <x v="2"/>
+    <x v="13"/>
     <n v="68.3"/>
     <s v="Gray"/>
     <s v="A+"/>
-    <s v="OUTDOOR"/>
-    <s v="Canoe Sprint"/>
+    <x v="1"/>
+    <x v="12"/>
     <n v="64862"/>
   </r>
   <r>
-    <n v="15"/>
-    <s v="Prof. Milena Schotin"/>
+    <x v="14"/>
+    <x v="14"/>
     <s v="Prof."/>
     <s v="Milena"/>
     <m/>
     <s v="Schotin"/>
-    <d v="1965-03-03T00:00:00"/>
+    <x v="14"/>
     <s v="Pisces"/>
     <x v="0"/>
     <s v="DE"/>
     <x v="3"/>
-    <s v="German"/>
-    <s v="schotin.milena@xyz.com"/>
+    <x v="2"/>
+    <x v="14"/>
     <n v="105.3"/>
     <s v="Gray"/>
     <s v="O+"/>
-    <s v="INDOOR"/>
-    <s v="Cycling BMX"/>
+    <x v="0"/>
+    <x v="13"/>
     <n v="10241"/>
   </r>
   <r>
-    <n v="16"/>
-    <s v="Hr. Lothar Birnbaum"/>
+    <x v="15"/>
+    <x v="15"/>
     <s v="Hr."/>
     <s v="Lothar"/>
     <m/>
     <s v="Birnbaum"/>
-    <d v="1969-07-21T00:00:00"/>
+    <x v="15"/>
     <s v="Cancer"/>
     <x v="1"/>
     <s v="DE"/>
     <x v="3"/>
-    <s v="German"/>
-    <s v="birnbaum.lothar@xyz.com"/>
+    <x v="2"/>
+    <x v="15"/>
     <n v="48.6"/>
     <s v="Blue"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Alpine Skiing"/>
+    <x v="1"/>
+    <x v="3"/>
     <n v="88762"/>
   </r>
   <r>
-    <n v="17"/>
-    <s v="Hr. Pietro Stolze"/>
+    <x v="16"/>
+    <x v="16"/>
     <s v="Hr."/>
     <s v="Pietro"/>
     <m/>
     <s v="Stolze"/>
-    <d v="1972-10-10T00:00:00"/>
+    <x v="16"/>
     <s v="Libra"/>
     <x v="1"/>
     <s v="DE"/>
     <x v="3"/>
-    <s v="German"/>
-    <s v="stolze.pietro@xyz.com"/>
+    <x v="2"/>
+    <x v="16"/>
     <n v="105.9"/>
     <s v="Blue"/>
     <s v="A−"/>
-    <s v="INDOOR"/>
-    <s v="Handball"/>
+    <x v="0"/>
+    <x v="14"/>
     <n v="80757"/>
   </r>
   <r>
-    <n v="18"/>
-    <s v="Hr. Richard  Tlustek"/>
+    <x v="17"/>
+    <x v="17"/>
     <s v="Hr."/>
     <s v="Richard "/>
     <m/>
     <s v="Tlustek"/>
-    <d v="1959-08-31T00:00:00"/>
+    <x v="17"/>
     <s v="Virgo"/>
     <x v="1"/>
     <s v="DE"/>
     <x v="3"/>
-    <s v="German"/>
-    <s v="tlustek.richard @xyz.com"/>
+    <x v="2"/>
+    <x v="17"/>
     <n v="71.099999999999994"/>
     <s v="Blue"/>
     <s v="A−"/>
-    <s v="OUTDOOR"/>
-    <s v="Cycling Mountain Bike"/>
+    <x v="1"/>
+    <x v="15"/>
     <n v="88794"/>
   </r>
   <r>
-    <n v="19"/>
-    <s v="Dr. Earnestine Raynor"/>
+    <x v="18"/>
+    <x v="18"/>
     <s v="Dr."/>
     <s v="Earnestine"/>
     <m/>
     <s v="Raynor"/>
-    <d v="1977-05-17T00:00:00"/>
+    <x v="18"/>
     <s v="Taurus"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="raynor.earnestine@xyz.org"/>
+    <x v="0"/>
+    <x v="18"/>
     <n v="70.3"/>
     <s v="Blue"/>
     <s v="A+"/>
-    <s v="INDOOR"/>
-    <s v="Short Track Speed Skating"/>
+    <x v="0"/>
+    <x v="16"/>
     <n v="63526"/>
   </r>
   <r>
-    <n v="20"/>
-    <s v="Mr. Jason Gaylord"/>
+    <x v="19"/>
+    <x v="19"/>
     <s v="Mr."/>
     <s v="Jason"/>
     <m/>
     <s v="Gaylord"/>
-    <d v="1976-01-08T00:00:00"/>
+    <x v="19"/>
     <s v="Capricorn"/>
     <x v="1"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="gaylord.jason@xyz.org"/>
+    <x v="0"/>
+    <x v="19"/>
     <n v="54.7"/>
     <s v="Brown"/>
     <s v="O−"/>
-    <s v="INDOOR"/>
-    <s v="Basketball"/>
+    <x v="0"/>
+    <x v="17"/>
     <n v="46352"/>
   </r>
   <r>
-    <n v="21"/>
-    <s v="Mr. Kendrick Sauer"/>
+    <x v="20"/>
+    <x v="20"/>
     <s v="Mr."/>
     <s v="Kendrick"/>
     <m/>
     <s v="Sauer"/>
-    <d v="1996-07-22T00:00:00"/>
+    <x v="20"/>
     <s v="Cancer"/>
     <x v="1"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="sauer.kendrick@xyz.org"/>
+    <x v="0"/>
+    <x v="20"/>
     <n v="100.9"/>
     <s v="Blue"/>
     <s v="B−"/>
-    <s v="OUTDOOR"/>
-    <s v="Triathlon"/>
+    <x v="1"/>
+    <x v="18"/>
     <n v="106808"/>
   </r>
   <r>
-    <n v="22"/>
-    <s v="Dr. Annabell Olson"/>
+    <x v="21"/>
+    <x v="21"/>
     <s v="Dr."/>
     <s v="Annabell"/>
     <m/>
     <s v="Olson"/>
-    <d v="1964-04-16T00:00:00"/>
+    <x v="21"/>
     <s v="Aries"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="olson.annabell@xyz.org"/>
+    <x v="0"/>
+    <x v="21"/>
     <n v="84.3"/>
     <s v="Green"/>
     <s v="A+"/>
-    <s v="OUTDOOR"/>
-    <s v="Equestrian / Dressage"/>
+    <x v="1"/>
+    <x v="19"/>
     <n v="96468"/>
   </r>
   <r>
-    <n v="23"/>
-    <s v="Dr. Jena Upton"/>
+    <x v="22"/>
+    <x v="22"/>
     <s v="Dr."/>
     <s v="Jena"/>
     <m/>
     <s v="Upton"/>
-    <d v="1955-12-14T00:00:00"/>
+    <x v="22"/>
     <s v="Sagittarius"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="upton.jena@xyz.org"/>
+    <x v="0"/>
+    <x v="22"/>
     <n v="66.8"/>
     <s v="Blue"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Beach Volleyball"/>
+    <x v="1"/>
+    <x v="20"/>
     <n v="16526"/>
   </r>
   <r>
-    <n v="24"/>
-    <s v="Dr. Shanny Bins"/>
+    <x v="23"/>
+    <x v="23"/>
     <s v="Dr."/>
     <s v="Shanny"/>
     <m/>
     <s v="Bins"/>
-    <d v="1999-08-28T00:00:00"/>
+    <x v="23"/>
     <s v="Virgo"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="bins.shanny@xyz.org"/>
+    <x v="0"/>
+    <x v="23"/>
     <n v="59.4"/>
     <s v="Amber"/>
     <s v="B−"/>
-    <s v="OUTDOOR"/>
-    <s v="Canoe Slalom"/>
+    <x v="1"/>
+    <x v="21"/>
     <n v="21891"/>
   </r>
   <r>
-    <n v="25"/>
-    <s v="Dr. Tia Abshire"/>
+    <x v="24"/>
+    <x v="24"/>
     <s v="Dr."/>
     <s v="Tia"/>
     <m/>
     <s v="Abshire"/>
-    <d v="1966-07-21T00:00:00"/>
+    <x v="24"/>
     <s v="Cancer"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="abshire.tia@xyz.org"/>
+    <x v="0"/>
+    <x v="24"/>
     <n v="77.8"/>
     <s v="Amber"/>
     <s v="A+"/>
-    <s v="OUTDOOR"/>
-    <s v="Cycling Road"/>
+    <x v="1"/>
+    <x v="6"/>
     <n v="62037"/>
   </r>
   <r>
-    <n v="26"/>
-    <s v="Ms. Isabel Runolfsdottir"/>
+    <x v="25"/>
+    <x v="25"/>
     <s v="Ms."/>
     <s v="Isabel"/>
     <m/>
     <s v="Runolfsdottir"/>
-    <d v="1978-03-21T00:00:00"/>
+    <x v="25"/>
     <s v="Aries"/>
     <x v="0"/>
     <s v="OZ"/>
     <x v="4"/>
-    <s v="English"/>
-    <s v="runolfsdottir.isabel@xyz.org"/>
+    <x v="0"/>
+    <x v="25"/>
     <n v="85.9"/>
     <s v="Blue"/>
     <s v="B+"/>
-    <s v="INDOOR"/>
-    <s v="Cycling Track"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="89737"/>
   </r>
   <r>
-    <n v="27"/>
-    <s v="Hr. Barney Wesack"/>
+    <x v="26"/>
+    <x v="26"/>
     <s v="Hr."/>
     <s v="Barney"/>
     <m/>
     <s v="Wesack"/>
-    <d v="1970-07-18T00:00:00"/>
+    <x v="26"/>
     <s v="Cancer"/>
     <x v="1"/>
     <s v="AU"/>
     <x v="5"/>
-    <s v="German"/>
-    <s v="wesack.barney@xyz.com"/>
+    <x v="2"/>
+    <x v="26"/>
     <n v="93.4"/>
     <s v="Amber"/>
     <s v="B+"/>
-    <s v="INDOOR"/>
-    <s v="Volleyball"/>
+    <x v="0"/>
+    <x v="22"/>
     <n v="41039"/>
   </r>
   <r>
-    <n v="28"/>
-    <s v="Hr. Baruch Kade"/>
+    <x v="27"/>
+    <x v="27"/>
     <s v="Hr."/>
     <s v="Baruch"/>
     <m/>
     <s v="Kade"/>
-    <d v="1982-03-10T00:00:00"/>
+    <x v="27"/>
     <s v="Pisces"/>
     <x v="1"/>
     <s v="AU"/>
     <x v="5"/>
-    <s v="German"/>
-    <s v="kade.baruch@xyz.com"/>
+    <x v="2"/>
+    <x v="27"/>
     <n v="95.5"/>
     <s v="Gray"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Rugby"/>
+    <x v="1"/>
+    <x v="11"/>
     <n v="28458"/>
   </r>
   <r>
-    <n v="29"/>
-    <s v="Prof. Liesbeth Rosemann"/>
+    <x v="28"/>
+    <x v="28"/>
     <s v="Prof."/>
     <s v="Liesbeth"/>
     <m/>
     <s v="Rosemann"/>
-    <d v="1994-01-27T00:00:00"/>
+    <x v="28"/>
     <s v="Aquarius"/>
     <x v="0"/>
     <s v="AU"/>
     <x v="5"/>
-    <s v="German"/>
-    <s v="rosemann.liesbeth@xyz.com"/>
+    <x v="2"/>
+    <x v="28"/>
     <n v="52.2"/>
     <s v="Blue"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Cycling Road"/>
+    <x v="1"/>
+    <x v="6"/>
     <n v="55007"/>
   </r>
   <r>
-    <n v="30"/>
-    <s v="Mme. Valentine Moreau"/>
+    <x v="29"/>
+    <x v="29"/>
     <s v="Mme."/>
     <s v="Valentine"/>
     <m/>
     <s v="Moreau"/>
-    <d v="1979-10-09T00:00:00"/>
+    <x v="29"/>
     <s v="Libra"/>
     <x v="0"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="moreau.valentine@xyz.com"/>
+    <x v="3"/>
+    <x v="29"/>
     <n v="74.599999999999994"/>
     <s v="Blue"/>
     <s v="B+"/>
-    <s v="OUTDOOR"/>
-    <s v="Golf"/>
+    <x v="1"/>
+    <x v="23"/>
     <n v="69041"/>
   </r>
   <r>
-    <n v="31"/>
-    <s v="Mme. Paulette Durand"/>
+    <x v="30"/>
+    <x v="30"/>
     <s v="Mme."/>
     <s v="Paulette"/>
     <m/>
     <s v="Durand"/>
-    <d v="1989-12-25T00:00:00"/>
+    <x v="30"/>
     <s v="Capricorn"/>
     <x v="0"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="durand.paulette@xyz.com"/>
+    <x v="3"/>
+    <x v="30"/>
     <n v="81.7"/>
     <s v="Amber"/>
     <s v="O−"/>
-    <s v="INDOOR"/>
-    <s v="Volleyball"/>
+    <x v="0"/>
+    <x v="22"/>
     <n v="86262"/>
   </r>
   <r>
-    <n v="32"/>
-    <s v="Mme. Laure-Alix Chevalier"/>
+    <x v="31"/>
+    <x v="31"/>
     <s v="Mme."/>
     <s v="Laure-Alix"/>
     <m/>
     <s v="Chevalier"/>
-    <d v="1970-12-23T00:00:00"/>
+    <x v="31"/>
     <s v="Capricorn"/>
     <x v="0"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="chevalier.laure-alix@xyz.com"/>
+    <x v="3"/>
+    <x v="31"/>
     <n v="78.099999999999994"/>
     <s v="Blue"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Beach Volleyball"/>
+    <x v="1"/>
+    <x v="20"/>
     <n v="19234"/>
   </r>
   <r>
-    <n v="33"/>
-    <s v="M. Claude Toussaint"/>
+    <x v="32"/>
+    <x v="32"/>
     <s v="M."/>
     <s v="Claude"/>
     <m/>
     <s v="Toussaint"/>
-    <d v="1980-11-04T00:00:00"/>
+    <x v="32"/>
     <s v="Scorpio"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="toussaint.claude@xyz.com"/>
+    <x v="3"/>
+    <x v="32"/>
     <n v="57.1"/>
     <s v="Green"/>
     <s v="O+"/>
-    <s v="INDOOR"/>
-    <s v="Diving"/>
+    <x v="0"/>
+    <x v="24"/>
     <n v="95123"/>
   </r>
   <r>
-    <n v="34"/>
-    <s v="M. Victor Lenoir"/>
+    <x v="33"/>
+    <x v="33"/>
     <s v="M."/>
     <s v="Victor"/>
     <m/>
     <s v="Lenoir"/>
-    <d v="1981-10-16T00:00:00"/>
+    <x v="33"/>
     <s v="Libra"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="lenoir.victor@xyz.com"/>
+    <x v="3"/>
+    <x v="33"/>
     <n v="56"/>
     <s v="Blue"/>
     <s v="B+"/>
-    <s v="OUTDOOR"/>
-    <s v="Triathlon"/>
+    <x v="1"/>
+    <x v="18"/>
     <n v="62761"/>
   </r>
   <r>
-    <n v="35"/>
-    <s v="M. Arthur Lenoir"/>
+    <x v="34"/>
+    <x v="34"/>
     <s v="M."/>
     <s v="Arthur"/>
     <m/>
     <s v="Lenoir"/>
-    <d v="1955-07-30T00:00:00"/>
+    <x v="34"/>
     <s v="Leo"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="lenoir.arthur@xyz.com"/>
+    <x v="3"/>
+    <x v="34"/>
     <n v="88.6"/>
     <s v="Amber"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Hockey"/>
+    <x v="1"/>
+    <x v="25"/>
     <n v="108431"/>
   </r>
   <r>
-    <n v="36"/>
-    <s v="M. Benjamin Lebrun-Brun"/>
+    <x v="35"/>
+    <x v="35"/>
     <s v="M."/>
     <s v="Benjamin"/>
     <m/>
     <s v="Lebrun-Brun"/>
-    <d v="1975-02-03T00:00:00"/>
+    <x v="35"/>
     <s v="Aquarius"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="lebrun-brun.benjamin@xyz.com"/>
+    <x v="3"/>
+    <x v="35"/>
     <n v="78.2"/>
     <s v="Brown"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Triathlon"/>
+    <x v="1"/>
+    <x v="18"/>
     <n v="66268"/>
   </r>
   <r>
-    <n v="37"/>
-    <s v="M. Antoine Maillard"/>
+    <x v="36"/>
+    <x v="36"/>
     <s v="M."/>
     <s v="Antoine"/>
     <m/>
     <s v="Maillard"/>
-    <d v="1986-06-22T00:00:00"/>
+    <x v="36"/>
     <s v="Cancer"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="maillard.antoine@xyz.com"/>
+    <x v="3"/>
+    <x v="36"/>
     <n v="95.8"/>
     <s v="Blue"/>
     <s v="B−"/>
-    <s v="OUTDOOR"/>
-    <s v="Sailing"/>
+    <x v="1"/>
+    <x v="26"/>
     <n v="33970"/>
   </r>
   <r>
-    <n v="38"/>
-    <s v="M. Bernard Hoarau-Guyon"/>
+    <x v="37"/>
+    <x v="37"/>
     <s v="M."/>
     <s v="Bernard"/>
     <m/>
     <s v="Hoarau-Guyon"/>
-    <d v="1983-01-11T00:00:00"/>
+    <x v="37"/>
     <s v="Capricorn"/>
     <x v="1"/>
     <s v="FR"/>
     <x v="6"/>
-    <s v="French"/>
-    <s v="hoarau-guyon.bernard@xyz.com"/>
+    <x v="3"/>
+    <x v="37"/>
     <n v="59.7"/>
     <s v="Gray"/>
     <s v="O−"/>
-    <s v="INDOOR"/>
-    <s v="Cycling Track"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="71352"/>
   </r>
   <r>
-    <n v="39"/>
-    <s v="Sr. Hidalgo Tercero"/>
+    <x v="38"/>
+    <x v="38"/>
     <s v="Sr."/>
     <s v="Hidalgo"/>
     <s v="Cantu"/>
     <s v="Tercero"/>
-    <d v="1984-11-30T00:00:00"/>
+    <x v="38"/>
     <s v="Sagittarius"/>
     <x v="1"/>
     <s v="AG"/>
     <x v="7"/>
-    <s v="Spanish"/>
-    <s v="tercero.hidalgo@xyz.com"/>
+    <x v="4"/>
+    <x v="38"/>
     <n v="77.7"/>
     <s v="Gray"/>
     <s v="B−"/>
-    <s v="OUTDOOR"/>
-    <s v="Canoe Slalom"/>
+    <x v="1"/>
+    <x v="21"/>
     <n v="116376"/>
   </r>
   <r>
-    <n v="40"/>
-    <s v="Sr. Hadalgo Polanco"/>
+    <x v="39"/>
+    <x v="39"/>
     <s v="Sr."/>
     <s v="Hadalgo"/>
     <m/>
     <s v="Polanco"/>
-    <d v="1988-06-20T00:00:00"/>
+    <x v="39"/>
     <s v="Gemini"/>
     <x v="1"/>
     <s v="AG"/>
     <x v="7"/>
-    <s v="Spanish"/>
-    <s v="polanco.hadalgo@xyz.com"/>
+    <x v="4"/>
+    <x v="39"/>
     <n v="98"/>
     <s v="Blue"/>
     <s v="A−"/>
-    <s v="OUTDOOR"/>
-    <s v="Beach Volleyball"/>
+    <x v="1"/>
+    <x v="20"/>
     <n v="114144"/>
   </r>
   <r>
-    <n v="41"/>
-    <s v="Sra. Laura Oliviera"/>
+    <x v="40"/>
+    <x v="40"/>
     <s v="Sra."/>
     <s v="Laura"/>
     <m/>
     <s v="Oliviera"/>
-    <d v="1974-02-16T00:00:00"/>
+    <x v="40"/>
     <s v="Aquarius"/>
     <x v="0"/>
     <s v="AG"/>
     <x v="7"/>
-    <s v="Spanish"/>
-    <s v="oliviera.laura@xyz.com"/>
+    <x v="4"/>
+    <x v="40"/>
     <n v="51.9"/>
     <s v="Amber"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Athletics"/>
+    <x v="1"/>
+    <x v="27"/>
     <n v="79872"/>
   </r>
   <r>
-    <n v="42"/>
-    <s v="Sra. Ainhoa Garza"/>
+    <x v="41"/>
+    <x v="41"/>
     <s v="Sra."/>
     <s v="Ainhoa"/>
     <m/>
     <s v="Garza"/>
-    <d v="1990-03-09T00:00:00"/>
+    <x v="41"/>
     <s v="Pisces"/>
     <x v="0"/>
     <s v="ES"/>
     <x v="8"/>
-    <s v="Spanish"/>
-    <s v="garza.ainhoa@xyz.com"/>
+    <x v="4"/>
+    <x v="41"/>
     <n v="55.6"/>
     <s v="Brown"/>
     <s v="O+"/>
-    <s v="INDOOR"/>
-    <s v="Gymnastics Artistic"/>
+    <x v="0"/>
+    <x v="28"/>
     <n v="101969"/>
   </r>
   <r>
-    <n v="43"/>
-    <s v="Sra. Isabel Banda"/>
+    <x v="42"/>
+    <x v="42"/>
     <s v="Sra."/>
     <s v="Isabel"/>
     <m/>
     <s v="Banda"/>
-    <d v="1960-01-12T00:00:00"/>
+    <x v="42"/>
     <s v="Capricorn"/>
     <x v="0"/>
     <s v="ES"/>
     <x v="8"/>
-    <s v="Spanish"/>
-    <s v="banda.isabel@xyz.com"/>
+    <x v="4"/>
+    <x v="42"/>
     <n v="102.3"/>
     <s v="Amber"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Canoe Slalom"/>
+    <x v="1"/>
+    <x v="21"/>
     <n v="50659"/>
   </r>
   <r>
-    <n v="44"/>
-    <s v="Sra. Carolota Mateos"/>
+    <x v="43"/>
+    <x v="43"/>
     <s v="Sra."/>
     <s v="Carolota"/>
     <m/>
     <s v="Mateos"/>
-    <d v="1965-07-29T00:00:00"/>
+    <x v="43"/>
     <s v="Leo"/>
     <x v="0"/>
     <s v="ES"/>
     <x v="8"/>
-    <s v="Spanish"/>
-    <s v="mateos.carolota@xyz.com"/>
+    <x v="4"/>
+    <x v="43"/>
     <n v="58.8"/>
     <s v="Gray"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Athletics"/>
+    <x v="1"/>
+    <x v="27"/>
     <n v="58215"/>
   </r>
   <r>
-    <n v="45"/>
-    <s v="Mw. Elize Prins"/>
+    <x v="44"/>
+    <x v="44"/>
     <s v="Mw."/>
     <s v="Elize"/>
     <m/>
     <s v="Prins"/>
-    <d v="1960-05-08T00:00:00"/>
+    <x v="44"/>
     <s v="Taurus"/>
     <x v="0"/>
     <s v="DU"/>
     <x v="9"/>
-    <s v="Dutch"/>
-    <s v="prins.elize@xyz.com"/>
+    <x v="5"/>
+    <x v="44"/>
     <n v="63.8"/>
     <s v="Blue"/>
     <s v="O+"/>
-    <s v="INDOOR"/>
-    <s v="Judo"/>
+    <x v="0"/>
+    <x v="29"/>
     <n v="39935"/>
   </r>
   <r>
-    <n v="46"/>
-    <s v="dhr. Ryan Pham"/>
+    <x v="45"/>
+    <x v="45"/>
     <s v="dhr."/>
     <s v="Ryan"/>
     <m/>
     <s v="Pham"/>
-    <d v="1973-10-03T00:00:00"/>
+    <x v="45"/>
     <s v="Libra"/>
     <x v="1"/>
     <s v="DU"/>
     <x v="9"/>
-    <s v="Dutch"/>
-    <s v="pham.ryan@xyz.com"/>
+    <x v="5"/>
+    <x v="45"/>
     <n v="98.6"/>
     <s v="Amber"/>
     <s v="B+"/>
-    <s v="OUTDOOR"/>
-    <s v="Beach Volleyball"/>
+    <x v="1"/>
+    <x v="20"/>
     <n v="44865"/>
   </r>
   <r>
-    <n v="47"/>
-    <s v="Mw Elise Rotteveel"/>
+    <x v="46"/>
+    <x v="46"/>
     <s v="Mw"/>
     <s v="Elise"/>
     <m/>
     <s v="Rotteveel"/>
-    <d v="1968-04-08T00:00:00"/>
+    <x v="46"/>
     <s v="Aries"/>
     <x v="0"/>
     <s v="DU"/>
     <x v="9"/>
-    <s v="Dutch"/>
-    <s v="rotteveel.elise@xyz.com"/>
+    <x v="5"/>
+    <x v="46"/>
     <n v="61.8"/>
     <s v="Gray"/>
     <s v="O−"/>
-    <s v="OUTDOOR"/>
-    <s v="Beach Volleyball"/>
+    <x v="1"/>
+    <x v="20"/>
     <n v="90478"/>
   </r>
   <r>
-    <n v="48"/>
-    <s v="Fru. Mirjam Soderberg"/>
+    <x v="47"/>
+    <x v="47"/>
     <s v="Fru."/>
     <s v="Mirjam"/>
     <m/>
     <s v="Soderberg"/>
-    <d v="1997-05-17T00:00:00"/>
+    <x v="47"/>
     <s v="Taurus"/>
     <x v="0"/>
     <s v="SV"/>
     <x v="10"/>
-    <s v="Swedish"/>
-    <s v="soderberg.mirjam@xyz.com"/>
+    <x v="6"/>
+    <x v="47"/>
     <n v="50"/>
     <s v="Amber"/>
     <s v="O+"/>
-    <s v="OUTDOOR"/>
-    <s v="Football"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="38965"/>
   </r>
   <r>
-    <n v="49"/>
-    <s v="H. Berndt Palsson"/>
+    <x v="48"/>
+    <x v="48"/>
     <s v="H."/>
     <s v="Berndt"/>
     <m/>
     <s v="Palsson"/>
-    <d v="1987-02-24T00:00:00"/>
+    <x v="48"/>
     <s v="Pisces"/>
     <x v="1"/>
     <s v="SV"/>
     <x v="10"/>
-    <s v="Swedish"/>
-    <s v="palsson.berndt@xyz.com"/>
+    <x v="6"/>
+    <x v="48"/>
     <n v="45.9"/>
     <s v="Blue"/>
     <s v="A−"/>
-    <s v="OUTDOOR"/>
-    <s v="Biathlon"/>
+    <x v="1"/>
+    <x v="30"/>
     <n v="35387"/>
   </r>
   <r>
-    <n v="50"/>
-    <s v="Sr. Adriano Sobrinho"/>
+    <x v="49"/>
+    <x v="49"/>
     <s v="Sr."/>
     <s v="Adriano"/>
     <s v="Pontes"/>
     <s v="Sobrinho"/>
-    <d v="1993-07-28T00:00:00"/>
+    <x v="49"/>
     <s v="Leo"/>
     <x v="1"/>
     <s v="PR"/>
     <x v="1"/>
-    <s v="Portuguese"/>
-    <s v="sobrinho.adriano@xyz.com"/>
+    <x v="1"/>
+    <x v="49"/>
     <n v="92.5"/>
     <s v="Green"/>
     <s v="A+"/>
-    <s v="INDOOR"/>
-    <s v="Swimming"/>
+    <x v="0"/>
+    <x v="31"/>
     <n v="20532"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="19">
+  <pivotFields count="21">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -2722,6 +3887,69 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="48">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="10"/>
@@ -2775,6 +4003,1726 @@
   <dataFields count="1">
     <dataField name="Count of MEMBER ID" fld="0" subtotal="count" baseField="10" baseItem="3"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C94600D-1D23-46A8-949A-CCD0834CCA21}" name="PivotTable6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:G353" firstHeaderRow="1" firstDataRow="1" firstDataCol="7" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="21">
+    <pivotField axis="axisRow" compact="0" numFmtId="165" outline="0" showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="51">
+        <item x="45"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="46"/>
+        <item x="44"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="49"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="36"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="40"/>
+        <item x="21"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="38"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="33">
+        <item x="3"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="31"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="48">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="7">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="8"/>
+    <field x="10"/>
+    <field x="11"/>
+    <field x="12"/>
+    <field x="17"/>
+  </rowFields>
+  <rowItems count="350">
+    <i>
+      <x/>
+      <x v="32"/>
+      <x/>
+      <x v="10"/>
+      <x v="1"/>
+      <x/>
+      <x v="13"/>
+    </i>
+    <i t="default" r="5">
+      <x/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="32"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="33"/>
+      <x/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="18"/>
+      <x v="6"/>
+    </i>
+    <i t="default" r="5">
+      <x v="18"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="33"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="45"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x v="10"/>
+      <x v="17"/>
+    </i>
+    <i t="default" r="5">
+      <x v="10"/>
+    </i>
+    <i t="default" r="4">
+      <x v="4"/>
+    </i>
+    <i t="default" r="3">
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="45"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="34"/>
+      <x/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i t="default" r="5">
+      <x v="7"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="34"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="31"/>
+    </i>
+    <i t="default" r="5">
+      <x v="5"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="26"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="19"/>
+      <x v="16"/>
+    </i>
+    <i t="default" r="5">
+      <x v="19"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="26"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="31"/>
+      <x/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="9"/>
+      <x v="12"/>
+    </i>
+    <i t="default" r="5">
+      <x v="9"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="31"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="27"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="30"/>
+      <x v="9"/>
+    </i>
+    <i t="default" r="5">
+      <x v="30"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="27"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="30"/>
+      <x/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="41"/>
+      <x v="26"/>
+    </i>
+    <i t="default" r="5">
+      <x v="41"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="9"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="30"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="28"/>
+      <x v="1"/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="38"/>
+      <x v="12"/>
+    </i>
+    <i t="default" r="5">
+      <x v="38"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="9"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="28"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="41"/>
+      <x v="1"/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="23"/>
+      <x v="18"/>
+    </i>
+    <i t="default" r="5">
+      <x v="23"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="9"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="41"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="29"/>
+      <x/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="49"/>
+      <x v="1"/>
+    </i>
+    <i t="default" r="5">
+      <x v="49"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="9"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="29"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="36"/>
+      <x/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="37"/>
+      <x v="24"/>
+    </i>
+    <i t="default" r="5">
+      <x v="37"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="9"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="36"/>
+    </i>
+    <i t="default">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="11"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="47"/>
+      <x v="8"/>
+    </i>
+    <i t="default" r="5">
+      <x v="47"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="5"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="40"/>
+      <x/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="36"/>
+      <x v="10"/>
+    </i>
+    <i t="default" r="5">
+      <x v="36"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="5"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="40"/>
+    </i>
+    <i t="default">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="12"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i t="default" r="5">
+      <x v="4"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="5"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="12"/>
+    </i>
+    <i t="default">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="42"/>
+      <x v="21"/>
+    </i>
+    <i t="default" r="5">
+      <x v="42"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="5"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="13"/>
+    </i>
+    <i t="default">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="14"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="44"/>
+      <x v="11"/>
+    </i>
+    <i t="default" r="5">
+      <x v="44"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="5"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="14"/>
+    </i>
+    <i t="default">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="2"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="31"/>
+      <x v="27"/>
+    </i>
+    <i t="default" r="5">
+      <x v="31"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="24"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="12"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="5">
+      <x v="12"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="24"/>
+    </i>
+    <i t="default">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="25"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="35"/>
+      <x v="29"/>
+    </i>
+    <i t="default" r="5">
+      <x v="35"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="25"/>
+    </i>
+    <i t="default">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="1"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="25"/>
+      <x v="15"/>
+    </i>
+    <i t="default" r="5">
+      <x v="25"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="46"/>
+      <x v="4"/>
+    </i>
+    <i t="default" r="5">
+      <x v="46"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x v="5"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i t="default" r="5">
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="6"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="12"/>
+    </i>
+    <i t="default" r="5">
+      <x v="1"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="35"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="34"/>
+      <x v="13"/>
+    </i>
+    <i t="default" r="5">
+      <x v="34"/>
+    </i>
+    <i t="default" r="4">
+      <x v="1"/>
+    </i>
+    <i t="default" r="3">
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="35"/>
+    </i>
+    <i t="default">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x v="3"/>
+      <x v="48"/>
+      <x v="30"/>
+    </i>
+    <i t="default" r="5">
+      <x v="48"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x v="3"/>
+      <x v="14"/>
+      <x v="24"/>
+    </i>
+    <i t="default" r="5">
+      <x v="14"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x v="39"/>
+      <x/>
+      <x v="2"/>
+      <x v="3"/>
+      <x v="32"/>
+      <x v="12"/>
+    </i>
+    <i t="default" r="5">
+      <x v="32"/>
+    </i>
+    <i t="default" r="4">
+      <x v="3"/>
+    </i>
+    <i t="default" r="3">
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="39"/>
+    </i>
+    <i t="default">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="23"/>
+      <x/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="22"/>
+      <x v="19"/>
+    </i>
+    <i t="default" r="5">
+      <x v="22"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="23"/>
+    </i>
+    <i t="default">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="22"/>
+      <x/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="8"/>
+      <x v="30"/>
+    </i>
+    <i t="default" r="5">
+      <x v="8"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="22"/>
+    </i>
+    <i t="default">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="21"/>
+      <x/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="6"/>
+      <x v="4"/>
+    </i>
+    <i t="default" r="5">
+      <x v="6"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="21"/>
+    </i>
+    <i t="default">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="19"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="45"/>
+      <x v="14"/>
+    </i>
+    <i t="default" r="5">
+      <x v="45"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="19"/>
+    </i>
+    <i t="default">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="20"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="17"/>
+      <x v="29"/>
+    </i>
+    <i t="default" r="5">
+      <x v="17"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="20"/>
+    </i>
+    <i t="default">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="16"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="16"/>
+      <x v="22"/>
+    </i>
+    <i t="default" r="5">
+      <x v="16"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="16"/>
+    </i>
+    <i t="default">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="17"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="15"/>
+      <x v="29"/>
+    </i>
+    <i t="default" r="5">
+      <x v="15"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="17"/>
+    </i>
+    <i t="default">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="15"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="20"/>
+      <x v="25"/>
+    </i>
+    <i t="default" r="5">
+      <x v="20"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="15"/>
+    </i>
+    <i t="default">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="18"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="13"/>
+      <x v="13"/>
+    </i>
+    <i t="default" r="5">
+      <x v="13"/>
+    </i>
+    <i t="default" r="4">
+      <x v="2"/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="18"/>
+    </i>
+    <i t="default">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="44"/>
+      <x v="1"/>
+      <x/>
+      <x v="5"/>
+      <x v="43"/>
+      <x v="7"/>
+    </i>
+    <i t="default" r="5">
+      <x v="43"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="44"/>
+    </i>
+    <i t="default">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="43"/>
+      <x v="1"/>
+      <x/>
+      <x v="5"/>
+      <x v="28"/>
+      <x v="4"/>
+    </i>
+    <i t="default" r="5">
+      <x v="28"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="43"/>
+    </i>
+    <i t="default">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="49"/>
+      <x/>
+      <x/>
+      <x v="5"/>
+      <x v="24"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="5">
+      <x v="24"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="49"/>
+    </i>
+    <i t="default">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="46"/>
+      <x/>
+      <x v="7"/>
+      <x v="5"/>
+      <x v="11"/>
+      <x v="20"/>
+    </i>
+    <i t="default" r="5">
+      <x v="11"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x v="7"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="46"/>
+    </i>
+    <i t="default">
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="48"/>
+      <x/>
+      <x v="7"/>
+      <x v="5"/>
+      <x v="2"/>
+      <x v="7"/>
+    </i>
+    <i t="default" r="5">
+      <x v="2"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x v="7"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="48"/>
+    </i>
+    <i t="default">
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="47"/>
+      <x/>
+      <x v="7"/>
+      <x v="5"/>
+      <x v="21"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="5">
+      <x v="21"/>
+    </i>
+    <i t="default" r="4">
+      <x v="5"/>
+    </i>
+    <i t="default" r="3">
+      <x v="7"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="47"/>
+    </i>
+    <i t="default">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="38"/>
+      <x/>
+      <x v="6"/>
+      <x/>
+      <x v="29"/>
+      <x v="23"/>
+    </i>
+    <i t="default" r="5">
+      <x v="29"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="6"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="38"/>
+    </i>
+    <i t="default">
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x/>
+      <x v="1"/>
+      <x v="6"/>
+      <x/>
+      <x v="27"/>
+      <x v="4"/>
+    </i>
+    <i t="default" r="5">
+      <x v="27"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="6"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="37"/>
+      <x/>
+      <x v="6"/>
+      <x/>
+      <x v="33"/>
+      <x v="4"/>
+    </i>
+    <i t="default" r="5">
+      <x v="33"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="6"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="37"/>
+    </i>
+    <i t="default">
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="7"/>
+      <x/>
+      <x v="8"/>
+      <x v="6"/>
+      <x v="40"/>
+      <x v="17"/>
+    </i>
+    <i t="default" r="5">
+      <x v="40"/>
+    </i>
+    <i t="default" r="4">
+      <x v="6"/>
+    </i>
+    <i t="default" r="3">
+      <x v="8"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="8"/>
+      <x v="1"/>
+      <x v="8"/>
+      <x v="6"/>
+      <x v="26"/>
+      <x v="5"/>
+    </i>
+    <i t="default" r="5">
+      <x v="26"/>
+    </i>
+    <i t="default" r="4">
+      <x v="6"/>
+    </i>
+    <i t="default" r="3">
+      <x v="8"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="8"/>
+    </i>
+    <i t="default">
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="42"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x v="39"/>
+      <x v="28"/>
+    </i>
+    <i t="default" r="5">
+      <x v="39"/>
+    </i>
+    <i t="default" r="4">
+      <x v="4"/>
+    </i>
+    <i t="default" r="3">
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="42"/>
+    </i>
+    <i t="default">
+      <x v="49"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="16" hier="-1"/>
+  </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3650,7 +6598,7 @@
   </sheetPr>
   <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -3670,7 +6618,6 @@
       <c r="C3" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
@@ -3682,7 +6629,7 @@
       <c r="D4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="2" t="s">
         <v>286</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -3696,13 +6643,13 @@
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="49">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="49">
         <v>2</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H5" s="2">
@@ -3718,10 +6665,10 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="49">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="49">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -3740,10 +6687,10 @@
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="49">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="49">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3762,7 +6709,8 @@
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3781,10 +6729,10 @@
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="49">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="49">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -3803,10 +6751,10 @@
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="49">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -3825,10 +6773,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="49">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -3847,9 +6795,10 @@
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="49">
         <v>3</v>
       </c>
+      <c r="D12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>159</v>
       </c>
@@ -3866,10 +6815,10 @@
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="49">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="49">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -3888,10 +6837,10 @@
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="49">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="49">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3910,10 +6859,10 @@
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="49">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="49">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -3938,14 +6887,2706 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>453</v>
+      </c>
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>455</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>456</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>457</v>
+      </c>
+      <c r="G39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="50">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" t="s">
+        <v>458</v>
+      </c>
+      <c r="G46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="50">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>459</v>
+      </c>
+      <c r="G53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="50">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="50">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="50">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>462</v>
+      </c>
+      <c r="G74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="50">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>463</v>
+      </c>
+      <c r="G81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="50">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" t="s">
+        <v>464</v>
+      </c>
+      <c r="G88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="50">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" t="s">
+        <v>465</v>
+      </c>
+      <c r="G95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="50">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" t="s">
+        <v>467</v>
+      </c>
+      <c r="G102" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="50">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" t="s">
+        <v>468</v>
+      </c>
+      <c r="G109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="50">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" t="s">
+        <v>469</v>
+      </c>
+      <c r="G116" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="50">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" t="s">
+        <v>470</v>
+      </c>
+      <c r="G123" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="50">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" t="s">
+        <v>471</v>
+      </c>
+      <c r="G130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="50">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" t="s">
+        <v>472</v>
+      </c>
+      <c r="G137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="50">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" t="s">
+        <v>142</v>
+      </c>
+      <c r="D144" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" t="s">
+        <v>139</v>
+      </c>
+      <c r="F144" t="s">
+        <v>473</v>
+      </c>
+      <c r="G144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="50">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" t="s">
+        <v>151</v>
+      </c>
+      <c r="E151" t="s">
+        <v>139</v>
+      </c>
+      <c r="F151" t="s">
+        <v>474</v>
+      </c>
+      <c r="G151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="50">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" t="s">
+        <v>139</v>
+      </c>
+      <c r="F158" t="s">
+        <v>475</v>
+      </c>
+      <c r="G158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="50">
+        <v>24</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" t="s">
+        <v>138</v>
+      </c>
+      <c r="D165" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" t="s">
+        <v>139</v>
+      </c>
+      <c r="F165" t="s">
+        <v>476</v>
+      </c>
+      <c r="G165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="50">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>311</v>
+      </c>
+      <c r="C172" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" t="s">
+        <v>151</v>
+      </c>
+      <c r="E172" t="s">
+        <v>139</v>
+      </c>
+      <c r="F172" t="s">
+        <v>477</v>
+      </c>
+      <c r="G172" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="50">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" t="s">
+        <v>151</v>
+      </c>
+      <c r="E179" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" t="s">
+        <v>478</v>
+      </c>
+      <c r="G179" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="50">
+        <v>27</v>
+      </c>
+      <c r="B186" t="s">
+        <v>313</v>
+      </c>
+      <c r="C186" t="s">
+        <v>142</v>
+      </c>
+      <c r="D186" t="s">
+        <v>153</v>
+      </c>
+      <c r="E186" t="s">
+        <v>148</v>
+      </c>
+      <c r="F186" t="s">
+        <v>479</v>
+      </c>
+      <c r="G186" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F187" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="50">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>314</v>
+      </c>
+      <c r="C193" t="s">
+        <v>142</v>
+      </c>
+      <c r="D193" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" t="s">
+        <v>148</v>
+      </c>
+      <c r="F193" t="s">
+        <v>480</v>
+      </c>
+      <c r="G193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F194" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="50">
+        <v>29</v>
+      </c>
+      <c r="B200" t="s">
+        <v>315</v>
+      </c>
+      <c r="C200" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" t="s">
+        <v>153</v>
+      </c>
+      <c r="E200" t="s">
+        <v>148</v>
+      </c>
+      <c r="F200" t="s">
+        <v>481</v>
+      </c>
+      <c r="G200" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F201" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="50">
+        <v>30</v>
+      </c>
+      <c r="B207" t="s">
+        <v>316</v>
+      </c>
+      <c r="C207" t="s">
+        <v>138</v>
+      </c>
+      <c r="D207" t="s">
+        <v>156</v>
+      </c>
+      <c r="E207" t="s">
+        <v>155</v>
+      </c>
+      <c r="F207" t="s">
+        <v>482</v>
+      </c>
+      <c r="G207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F208" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D210" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="50">
+        <v>31</v>
+      </c>
+      <c r="B214" t="s">
+        <v>317</v>
+      </c>
+      <c r="C214" t="s">
+        <v>138</v>
+      </c>
+      <c r="D214" t="s">
+        <v>156</v>
+      </c>
+      <c r="E214" t="s">
+        <v>155</v>
+      </c>
+      <c r="F214" t="s">
+        <v>484</v>
+      </c>
+      <c r="G214" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F215" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E216" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D217" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="50">
+        <v>32</v>
+      </c>
+      <c r="B221" t="s">
+        <v>318</v>
+      </c>
+      <c r="C221" t="s">
+        <v>138</v>
+      </c>
+      <c r="D221" t="s">
+        <v>156</v>
+      </c>
+      <c r="E221" t="s">
+        <v>155</v>
+      </c>
+      <c r="F221" t="s">
+        <v>485</v>
+      </c>
+      <c r="G221" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F222" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E223" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="50">
+        <v>33</v>
+      </c>
+      <c r="B228" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" t="s">
+        <v>142</v>
+      </c>
+      <c r="D228" t="s">
+        <v>156</v>
+      </c>
+      <c r="E228" t="s">
+        <v>155</v>
+      </c>
+      <c r="F228" t="s">
+        <v>486</v>
+      </c>
+      <c r="G228" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F229" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="50">
+        <v>34</v>
+      </c>
+      <c r="B235" t="s">
+        <v>320</v>
+      </c>
+      <c r="C235" t="s">
+        <v>142</v>
+      </c>
+      <c r="D235" t="s">
+        <v>156</v>
+      </c>
+      <c r="E235" t="s">
+        <v>155</v>
+      </c>
+      <c r="F235" t="s">
+        <v>487</v>
+      </c>
+      <c r="G235" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F236" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D238" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="50">
+        <v>35</v>
+      </c>
+      <c r="B242" t="s">
+        <v>321</v>
+      </c>
+      <c r="C242" t="s">
+        <v>142</v>
+      </c>
+      <c r="D242" t="s">
+        <v>156</v>
+      </c>
+      <c r="E242" t="s">
+        <v>155</v>
+      </c>
+      <c r="F242" t="s">
+        <v>488</v>
+      </c>
+      <c r="G242" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F243" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="50">
+        <v>36</v>
+      </c>
+      <c r="B249" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249" t="s">
+        <v>142</v>
+      </c>
+      <c r="D249" t="s">
+        <v>156</v>
+      </c>
+      <c r="E249" t="s">
+        <v>155</v>
+      </c>
+      <c r="F249" t="s">
+        <v>489</v>
+      </c>
+      <c r="G249" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F250" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E251" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="50">
+        <v>37</v>
+      </c>
+      <c r="B256" t="s">
+        <v>323</v>
+      </c>
+      <c r="C256" t="s">
+        <v>142</v>
+      </c>
+      <c r="D256" t="s">
+        <v>156</v>
+      </c>
+      <c r="E256" t="s">
+        <v>155</v>
+      </c>
+      <c r="F256" t="s">
+        <v>490</v>
+      </c>
+      <c r="G256" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F257" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D259" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="50">
+        <v>38</v>
+      </c>
+      <c r="B263" t="s">
+        <v>324</v>
+      </c>
+      <c r="C263" t="s">
+        <v>142</v>
+      </c>
+      <c r="D263" t="s">
+        <v>156</v>
+      </c>
+      <c r="E263" t="s">
+        <v>155</v>
+      </c>
+      <c r="F263" t="s">
+        <v>491</v>
+      </c>
+      <c r="G263" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F264" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D266" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="50">
+        <v>39</v>
+      </c>
+      <c r="B270" t="s">
+        <v>325</v>
+      </c>
+      <c r="C270" t="s">
+        <v>142</v>
+      </c>
+      <c r="D270" t="s">
+        <v>159</v>
+      </c>
+      <c r="E270" t="s">
+        <v>158</v>
+      </c>
+      <c r="F270" t="s">
+        <v>492</v>
+      </c>
+      <c r="G270" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F271" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D273" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="50">
+        <v>40</v>
+      </c>
+      <c r="B277" t="s">
+        <v>326</v>
+      </c>
+      <c r="C277" t="s">
+        <v>142</v>
+      </c>
+      <c r="D277" t="s">
+        <v>159</v>
+      </c>
+      <c r="E277" t="s">
+        <v>158</v>
+      </c>
+      <c r="F277" t="s">
+        <v>494</v>
+      </c>
+      <c r="G277" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F278" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D280" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="50">
+        <v>41</v>
+      </c>
+      <c r="B284" t="s">
+        <v>327</v>
+      </c>
+      <c r="C284" t="s">
+        <v>138</v>
+      </c>
+      <c r="D284" t="s">
+        <v>159</v>
+      </c>
+      <c r="E284" t="s">
+        <v>158</v>
+      </c>
+      <c r="F284" t="s">
+        <v>495</v>
+      </c>
+      <c r="G284" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F285" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D287" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="50">
+        <v>42</v>
+      </c>
+      <c r="B291" t="s">
+        <v>328</v>
+      </c>
+      <c r="C291" t="s">
+        <v>138</v>
+      </c>
+      <c r="D291" t="s">
+        <v>161</v>
+      </c>
+      <c r="E291" t="s">
+        <v>158</v>
+      </c>
+      <c r="F291" t="s">
+        <v>496</v>
+      </c>
+      <c r="G291" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F292" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D294" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="50">
+        <v>43</v>
+      </c>
+      <c r="B298" t="s">
+        <v>329</v>
+      </c>
+      <c r="C298" t="s">
+        <v>138</v>
+      </c>
+      <c r="D298" t="s">
+        <v>161</v>
+      </c>
+      <c r="E298" t="s">
+        <v>158</v>
+      </c>
+      <c r="F298" t="s">
+        <v>497</v>
+      </c>
+      <c r="G298" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F299" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D301" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="50">
+        <v>44</v>
+      </c>
+      <c r="B305" t="s">
+        <v>330</v>
+      </c>
+      <c r="C305" t="s">
+        <v>138</v>
+      </c>
+      <c r="D305" t="s">
+        <v>161</v>
+      </c>
+      <c r="E305" t="s">
+        <v>158</v>
+      </c>
+      <c r="F305" t="s">
+        <v>498</v>
+      </c>
+      <c r="G305" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F306" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D308" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="50">
+        <v>45</v>
+      </c>
+      <c r="B312" t="s">
+        <v>331</v>
+      </c>
+      <c r="C312" t="s">
+        <v>138</v>
+      </c>
+      <c r="D312" t="s">
+        <v>164</v>
+      </c>
+      <c r="E312" t="s">
+        <v>163</v>
+      </c>
+      <c r="F312" t="s">
+        <v>499</v>
+      </c>
+      <c r="G312" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F313" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E314" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D315" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="50">
+        <v>46</v>
+      </c>
+      <c r="B319" t="s">
+        <v>332</v>
+      </c>
+      <c r="C319" t="s">
+        <v>142</v>
+      </c>
+      <c r="D319" t="s">
+        <v>164</v>
+      </c>
+      <c r="E319" t="s">
+        <v>163</v>
+      </c>
+      <c r="F319" t="s">
+        <v>501</v>
+      </c>
+      <c r="G319" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F320" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E321" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D322" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="50">
+        <v>47</v>
+      </c>
+      <c r="B326" t="s">
+        <v>333</v>
+      </c>
+      <c r="C326" t="s">
+        <v>138</v>
+      </c>
+      <c r="D326" t="s">
+        <v>164</v>
+      </c>
+      <c r="E326" t="s">
+        <v>163</v>
+      </c>
+      <c r="F326" t="s">
+        <v>502</v>
+      </c>
+      <c r="G326" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F327" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E328" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D329" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C330" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="50">
+        <v>48</v>
+      </c>
+      <c r="B333" t="s">
+        <v>334</v>
+      </c>
+      <c r="C333" t="s">
+        <v>138</v>
+      </c>
+      <c r="D333" t="s">
+        <v>167</v>
+      </c>
+      <c r="E333" t="s">
+        <v>166</v>
+      </c>
+      <c r="F333" t="s">
+        <v>503</v>
+      </c>
+      <c r="G333" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F334" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E335" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D336" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C337" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="50">
+        <v>49</v>
+      </c>
+      <c r="B340" t="s">
+        <v>335</v>
+      </c>
+      <c r="C340" t="s">
+        <v>142</v>
+      </c>
+      <c r="D340" t="s">
+        <v>167</v>
+      </c>
+      <c r="E340" t="s">
+        <v>166</v>
+      </c>
+      <c r="F340" t="s">
+        <v>505</v>
+      </c>
+      <c r="G340" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F341" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E342" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D343" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" s="50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" s="50">
+        <v>50</v>
+      </c>
+      <c r="B347" t="s">
+        <v>336</v>
+      </c>
+      <c r="C347" t="s">
+        <v>142</v>
+      </c>
+      <c r="D347" t="s">
+        <v>144</v>
+      </c>
+      <c r="E347" t="s">
+        <v>143</v>
+      </c>
+      <c r="F347" t="s">
+        <v>506</v>
+      </c>
+      <c r="G347" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F348" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E349" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D350" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C351" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3958,7 +9599,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
@@ -4051,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>_xlfn.CONCAT(C2,  " ", D2,  " ", F2)</f>
+        <f t="shared" ref="B2:B33" si="0">_xlfn.CONCAT(C2,  " ", D2,  " ", F2)</f>
         <v>Ms. Annie Abbott</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4085,7 +9726,7 @@
         <v>English</v>
       </c>
       <c r="M2" s="5" t="str">
-        <f>LOWER(IF($L2="English",_xlfn.CONCAT($F2,".",$D2,"@xyz.org"),_xlfn.CONCAT($F2,".",$D2,"@xyz.com")))</f>
+        <f t="shared" ref="M2:M33" si="1">LOWER(IF($L2="English",_xlfn.CONCAT($F2,".",$D2,"@xyz.org"),_xlfn.CONCAT($F2,".",$D2,"@xyz.com")))</f>
         <v>abbott.annie@xyz.org</v>
       </c>
       <c r="N2" s="4">
@@ -4113,7 +9754,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>_xlfn.CONCAT(C3,  " ", D3,  " ", F3)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Aurelie Liesuchke</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4147,7 +9788,7 @@
         <v>English</v>
       </c>
       <c r="M3" s="5" t="str">
-        <f>LOWER(IF($L3="English",_xlfn.CONCAT($F3,".",$D3,"@xyz.org"),_xlfn.CONCAT($F3,".",$D3,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>liesuchke.aurelie@xyz.org</v>
       </c>
       <c r="N3" s="4">
@@ -4175,7 +9816,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>_xlfn.CONCAT(C4,  " ", D4,  " ", F4)</f>
+        <f t="shared" si="0"/>
         <v>Sr. Tomas Filho</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4211,7 +9852,7 @@
         <v>Portuguese</v>
       </c>
       <c r="M4" s="5" t="str">
-        <f>LOWER(IF($L4="English",_xlfn.CONCAT($F4,".",$D4,"@xyz.org"),_xlfn.CONCAT($F4,".",$D4,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>filho.tomas@xyz.com</v>
       </c>
       <c r="N4" s="4">
@@ -4239,7 +9880,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>_xlfn.CONCAT(C5,  " ", D5,  " ", F5)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Darby Cruickshank</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4273,7 +9914,7 @@
         <v>English</v>
       </c>
       <c r="M5" s="5" t="str">
-        <f>LOWER(IF($L5="English",_xlfn.CONCAT($F5,".",$D5,"@xyz.org"),_xlfn.CONCAT($F5,".",$D5,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>cruickshank.darby@xyz.org</v>
       </c>
       <c r="N5" s="4">
@@ -4301,7 +9942,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>_xlfn.CONCAT(C6,  " ", D6,  " ", F6)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Jaydon Borer</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4335,7 +9976,7 @@
         <v>English</v>
       </c>
       <c r="M6" s="5" t="str">
-        <f>LOWER(IF($L6="English",_xlfn.CONCAT($F6,".",$D6,"@xyz.org"),_xlfn.CONCAT($F6,".",$D6,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>borer.jaydon@xyz.org</v>
       </c>
       <c r="N6" s="4">
@@ -4363,7 +10004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>_xlfn.CONCAT(C7,  " ", D7,  " ", F7)</f>
+        <f t="shared" si="0"/>
         <v>Mr. Moriah  Lynch</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4397,7 +10038,7 @@
         <v>English</v>
       </c>
       <c r="M7" s="5" t="str">
-        <f>LOWER(IF($L7="English",_xlfn.CONCAT($F7,".",$D7,"@xyz.org"),_xlfn.CONCAT($F7,".",$D7,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>lynch.moriah @xyz.org</v>
       </c>
       <c r="N7" s="4">
@@ -4425,7 +10066,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>_xlfn.CONCAT(C8,  " ", D8,  " ", F8)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Amiya Eichmann</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4459,7 +10100,7 @@
         <v>English</v>
       </c>
       <c r="M8" s="5" t="str">
-        <f>LOWER(IF($L8="English",_xlfn.CONCAT($F8,".",$D8,"@xyz.org"),_xlfn.CONCAT($F8,".",$D8,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>eichmann.amiya@xyz.org</v>
       </c>
       <c r="N8" s="4">
@@ -4487,7 +10128,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>_xlfn.CONCAT(C9,  " ", D9,  " ", F9)</f>
+        <f t="shared" si="0"/>
         <v>Mr. Pierce Rau</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4521,7 +10162,7 @@
         <v>English</v>
       </c>
       <c r="M9" s="5" t="str">
-        <f>LOWER(IF($L9="English",_xlfn.CONCAT($F9,".",$D9,"@xyz.org"),_xlfn.CONCAT($F9,".",$D9,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>rau.pierce@xyz.org</v>
       </c>
       <c r="N9" s="4">
@@ -4549,7 +10190,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>_xlfn.CONCAT(C10,  " ", D10,  " ", F10)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Amelia Stevens</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4583,7 +10224,7 @@
         <v>English</v>
       </c>
       <c r="M10" s="5" t="str">
-        <f>LOWER(IF($L10="English",_xlfn.CONCAT($F10,".",$D10,"@xyz.org"),_xlfn.CONCAT($F10,".",$D10,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>stevens.amelia@xyz.org</v>
       </c>
       <c r="N10" s="4">
@@ -4611,7 +10252,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f>_xlfn.CONCAT(C11,  " ", D11,  " ", F11)</f>
+        <f t="shared" si="0"/>
         <v>Mr. Toby Simpson</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4645,7 +10286,7 @@
         <v>English</v>
       </c>
       <c r="M11" s="5" t="str">
-        <f>LOWER(IF($L11="English",_xlfn.CONCAT($F11,".",$D11,"@xyz.org"),_xlfn.CONCAT($F11,".",$D11,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>simpson.toby@xyz.org</v>
       </c>
       <c r="N11" s="4">
@@ -4673,7 +10314,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>_xlfn.CONCAT(C12,  " ", D12,  " ", F12)</f>
+        <f t="shared" si="0"/>
         <v>Sir Ethan Murphy</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4707,7 +10348,7 @@
         <v>English</v>
       </c>
       <c r="M12" s="5" t="str">
-        <f>LOWER(IF($L12="English",_xlfn.CONCAT($F12,".",$D12,"@xyz.org"),_xlfn.CONCAT($F12,".",$D12,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>murphy.ethan@xyz.org</v>
       </c>
       <c r="N12" s="4">
@@ -4735,7 +10376,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>_xlfn.CONCAT(C13,  " ", D13,  " ", F13)</f>
+        <f t="shared" si="0"/>
         <v>Mrs. Ashley Wood</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4769,7 +10410,7 @@
         <v>English</v>
       </c>
       <c r="M13" s="5" t="str">
-        <f>LOWER(IF($L13="English",_xlfn.CONCAT($F13,".",$D13,"@xyz.org"),_xlfn.CONCAT($F13,".",$D13,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>wood.ashley@xyz.org</v>
       </c>
       <c r="N13" s="4">
@@ -4797,7 +10438,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>_xlfn.CONCAT(C14,  " ", D14,  " ", F14)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Megan Scott</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4831,7 +10472,7 @@
         <v>English</v>
       </c>
       <c r="M14" s="5" t="str">
-        <f>LOWER(IF($L14="English",_xlfn.CONCAT($F14,".",$D14,"@xyz.org"),_xlfn.CONCAT($F14,".",$D14,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>scott.megan@xyz.org</v>
       </c>
       <c r="N14" s="4">
@@ -4859,7 +10500,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>_xlfn.CONCAT(C15,  " ", D15,  " ", F15)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Helmut Weinhae</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4893,7 +10534,7 @@
         <v>German</v>
       </c>
       <c r="M15" s="5" t="str">
-        <f>LOWER(IF($L15="English",_xlfn.CONCAT($F15,".",$D15,"@xyz.org"),_xlfn.CONCAT($F15,".",$D15,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>weinhae.helmut@xyz.com</v>
       </c>
       <c r="N15" s="4">
@@ -4921,7 +10562,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>_xlfn.CONCAT(C16,  " ", D16,  " ", F16)</f>
+        <f t="shared" si="0"/>
         <v>Prof. Milena Schotin</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4955,7 +10596,7 @@
         <v>German</v>
       </c>
       <c r="M16" s="5" t="str">
-        <f>LOWER(IF($L16="English",_xlfn.CONCAT($F16,".",$D16,"@xyz.org"),_xlfn.CONCAT($F16,".",$D16,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>schotin.milena@xyz.com</v>
       </c>
       <c r="N16" s="4">
@@ -4983,7 +10624,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>_xlfn.CONCAT(C17,  " ", D17,  " ", F17)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Lothar Birnbaum</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5017,7 +10658,7 @@
         <v>German</v>
       </c>
       <c r="M17" s="5" t="str">
-        <f>LOWER(IF($L17="English",_xlfn.CONCAT($F17,".",$D17,"@xyz.org"),_xlfn.CONCAT($F17,".",$D17,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>birnbaum.lothar@xyz.com</v>
       </c>
       <c r="N17" s="4">
@@ -5045,7 +10686,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>_xlfn.CONCAT(C18,  " ", D18,  " ", F18)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Pietro Stolze</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5079,7 +10720,7 @@
         <v>German</v>
       </c>
       <c r="M18" s="5" t="str">
-        <f>LOWER(IF($L18="English",_xlfn.CONCAT($F18,".",$D18,"@xyz.org"),_xlfn.CONCAT($F18,".",$D18,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>stolze.pietro@xyz.com</v>
       </c>
       <c r="N18" s="4">
@@ -5107,7 +10748,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>_xlfn.CONCAT(C19,  " ", D19,  " ", F19)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Richard  Tlustek</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5141,7 +10782,7 @@
         <v>German</v>
       </c>
       <c r="M19" s="5" t="str">
-        <f>LOWER(IF($L19="English",_xlfn.CONCAT($F19,".",$D19,"@xyz.org"),_xlfn.CONCAT($F19,".",$D19,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>tlustek.richard @xyz.com</v>
       </c>
       <c r="N19" s="4">
@@ -5169,7 +10810,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>_xlfn.CONCAT(C20,  " ", D20,  " ", F20)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Earnestine Raynor</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5203,7 +10844,7 @@
         <v>English</v>
       </c>
       <c r="M20" s="5" t="str">
-        <f>LOWER(IF($L20="English",_xlfn.CONCAT($F20,".",$D20,"@xyz.org"),_xlfn.CONCAT($F20,".",$D20,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>raynor.earnestine@xyz.org</v>
       </c>
       <c r="N20" s="4">
@@ -5231,7 +10872,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>_xlfn.CONCAT(C21,  " ", D21,  " ", F21)</f>
+        <f t="shared" si="0"/>
         <v>Mr. Jason Gaylord</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5265,7 +10906,7 @@
         <v>English</v>
       </c>
       <c r="M21" s="5" t="str">
-        <f>LOWER(IF($L21="English",_xlfn.CONCAT($F21,".",$D21,"@xyz.org"),_xlfn.CONCAT($F21,".",$D21,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>gaylord.jason@xyz.org</v>
       </c>
       <c r="N21" s="4">
@@ -5293,7 +10934,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f>_xlfn.CONCAT(C22,  " ", D22,  " ", F22)</f>
+        <f t="shared" si="0"/>
         <v>Mr. Kendrick Sauer</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5327,7 +10968,7 @@
         <v>English</v>
       </c>
       <c r="M22" s="5" t="str">
-        <f>LOWER(IF($L22="English",_xlfn.CONCAT($F22,".",$D22,"@xyz.org"),_xlfn.CONCAT($F22,".",$D22,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>sauer.kendrick@xyz.org</v>
       </c>
       <c r="N22" s="4">
@@ -5355,7 +10996,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f>_xlfn.CONCAT(C23,  " ", D23,  " ", F23)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Annabell Olson</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5389,7 +11030,7 @@
         <v>English</v>
       </c>
       <c r="M23" s="5" t="str">
-        <f>LOWER(IF($L23="English",_xlfn.CONCAT($F23,".",$D23,"@xyz.org"),_xlfn.CONCAT($F23,".",$D23,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>olson.annabell@xyz.org</v>
       </c>
       <c r="N23" s="4">
@@ -5417,7 +11058,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f>_xlfn.CONCAT(C24,  " ", D24,  " ", F24)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Jena Upton</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5451,7 +11092,7 @@
         <v>English</v>
       </c>
       <c r="M24" s="5" t="str">
-        <f>LOWER(IF($L24="English",_xlfn.CONCAT($F24,".",$D24,"@xyz.org"),_xlfn.CONCAT($F24,".",$D24,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>upton.jena@xyz.org</v>
       </c>
       <c r="N24" s="4">
@@ -5479,7 +11120,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>_xlfn.CONCAT(C25,  " ", D25,  " ", F25)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Shanny Bins</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5513,7 +11154,7 @@
         <v>English</v>
       </c>
       <c r="M25" s="5" t="str">
-        <f>LOWER(IF($L25="English",_xlfn.CONCAT($F25,".",$D25,"@xyz.org"),_xlfn.CONCAT($F25,".",$D25,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>bins.shanny@xyz.org</v>
       </c>
       <c r="N25" s="37">
@@ -5541,7 +11182,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f>_xlfn.CONCAT(C26,  " ", D26,  " ", F26)</f>
+        <f t="shared" si="0"/>
         <v>Dr. Tia Abshire</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5575,7 +11216,7 @@
         <v>English</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f>LOWER(IF($L26="English",_xlfn.CONCAT($F26,".",$D26,"@xyz.org"),_xlfn.CONCAT($F26,".",$D26,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>abshire.tia@xyz.org</v>
       </c>
       <c r="N26" s="37">
@@ -5603,7 +11244,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f>_xlfn.CONCAT(C27,  " ", D27,  " ", F27)</f>
+        <f t="shared" si="0"/>
         <v>Ms. Isabel Runolfsdottir</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -5637,7 +11278,7 @@
         <v>English</v>
       </c>
       <c r="M27" s="5" t="str">
-        <f>LOWER(IF($L27="English",_xlfn.CONCAT($F27,".",$D27,"@xyz.org"),_xlfn.CONCAT($F27,".",$D27,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>runolfsdottir.isabel@xyz.org</v>
       </c>
       <c r="N27" s="37">
@@ -5665,7 +11306,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f>_xlfn.CONCAT(C28,  " ", D28,  " ", F28)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Barney Wesack</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5699,7 +11340,7 @@
         <v>German</v>
       </c>
       <c r="M28" s="5" t="str">
-        <f>LOWER(IF($L28="English",_xlfn.CONCAT($F28,".",$D28,"@xyz.org"),_xlfn.CONCAT($F28,".",$D28,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>wesack.barney@xyz.com</v>
       </c>
       <c r="N28" s="37">
@@ -5727,7 +11368,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f>_xlfn.CONCAT(C29,  " ", D29,  " ", F29)</f>
+        <f t="shared" si="0"/>
         <v>Hr. Baruch Kade</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5761,7 +11402,7 @@
         <v>German</v>
       </c>
       <c r="M29" s="5" t="str">
-        <f>LOWER(IF($L29="English",_xlfn.CONCAT($F29,".",$D29,"@xyz.org"),_xlfn.CONCAT($F29,".",$D29,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>kade.baruch@xyz.com</v>
       </c>
       <c r="N29" s="37">
@@ -5789,7 +11430,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f>_xlfn.CONCAT(C30,  " ", D30,  " ", F30)</f>
+        <f t="shared" si="0"/>
         <v>Prof. Liesbeth Rosemann</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5823,7 +11464,7 @@
         <v>German</v>
       </c>
       <c r="M30" s="5" t="str">
-        <f>LOWER(IF($L30="English",_xlfn.CONCAT($F30,".",$D30,"@xyz.org"),_xlfn.CONCAT($F30,".",$D30,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>rosemann.liesbeth@xyz.com</v>
       </c>
       <c r="N30" s="37">
@@ -5851,7 +11492,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f>_xlfn.CONCAT(C31,  " ", D31,  " ", F31)</f>
+        <f t="shared" si="0"/>
         <v>Mme. Valentine Moreau</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -5885,7 +11526,7 @@
         <v>French</v>
       </c>
       <c r="M31" s="5" t="str">
-        <f>LOWER(IF($L31="English",_xlfn.CONCAT($F31,".",$D31,"@xyz.org"),_xlfn.CONCAT($F31,".",$D31,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>moreau.valentine@xyz.com</v>
       </c>
       <c r="N31" s="37">
@@ -5913,7 +11554,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f>_xlfn.CONCAT(C32,  " ", D32,  " ", F32)</f>
+        <f t="shared" si="0"/>
         <v>Mme. Paulette Durand</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5947,7 +11588,7 @@
         <v>French</v>
       </c>
       <c r="M32" s="5" t="str">
-        <f>LOWER(IF($L32="English",_xlfn.CONCAT($F32,".",$D32,"@xyz.org"),_xlfn.CONCAT($F32,".",$D32,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>durand.paulette@xyz.com</v>
       </c>
       <c r="N32" s="37">
@@ -5975,7 +11616,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f>_xlfn.CONCAT(C33,  " ", D33,  " ", F33)</f>
+        <f t="shared" si="0"/>
         <v>Mme. Laure-Alix Chevalier</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -6009,7 +11650,7 @@
         <v>French</v>
       </c>
       <c r="M33" s="5" t="str">
-        <f>LOWER(IF($L33="English",_xlfn.CONCAT($F33,".",$D33,"@xyz.org"),_xlfn.CONCAT($F33,".",$D33,"@xyz.com")))</f>
+        <f t="shared" si="1"/>
         <v>chevalier.laure-alix@xyz.com</v>
       </c>
       <c r="N33" s="37">
@@ -6037,7 +11678,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f>_xlfn.CONCAT(C34,  " ", D34,  " ", F34)</f>
+        <f t="shared" ref="B34:B65" si="2">_xlfn.CONCAT(C34,  " ", D34,  " ", F34)</f>
         <v>M. Claude Toussaint</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6071,7 +11712,7 @@
         <v>French</v>
       </c>
       <c r="M34" s="5" t="str">
-        <f>LOWER(IF($L34="English",_xlfn.CONCAT($F34,".",$D34,"@xyz.org"),_xlfn.CONCAT($F34,".",$D34,"@xyz.com")))</f>
+        <f t="shared" ref="M34:M51" si="3">LOWER(IF($L34="English",_xlfn.CONCAT($F34,".",$D34,"@xyz.org"),_xlfn.CONCAT($F34,".",$D34,"@xyz.com")))</f>
         <v>toussaint.claude@xyz.com</v>
       </c>
       <c r="N34" s="37">
@@ -6099,7 +11740,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f>_xlfn.CONCAT(C35,  " ", D35,  " ", F35)</f>
+        <f t="shared" si="2"/>
         <v>M. Victor Lenoir</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6133,7 +11774,7 @@
         <v>French</v>
       </c>
       <c r="M35" s="5" t="str">
-        <f>LOWER(IF($L35="English",_xlfn.CONCAT($F35,".",$D35,"@xyz.org"),_xlfn.CONCAT($F35,".",$D35,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>lenoir.victor@xyz.com</v>
       </c>
       <c r="N35" s="37">
@@ -6161,7 +11802,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f>_xlfn.CONCAT(C36,  " ", D36,  " ", F36)</f>
+        <f t="shared" si="2"/>
         <v>M. Arthur Lenoir</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6195,7 +11836,7 @@
         <v>French</v>
       </c>
       <c r="M36" s="5" t="str">
-        <f>LOWER(IF($L36="English",_xlfn.CONCAT($F36,".",$D36,"@xyz.org"),_xlfn.CONCAT($F36,".",$D36,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>lenoir.arthur@xyz.com</v>
       </c>
       <c r="N36" s="37">
@@ -6223,7 +11864,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f>_xlfn.CONCAT(C37,  " ", D37,  " ", F37)</f>
+        <f t="shared" si="2"/>
         <v>M. Benjamin Lebrun-Brun</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6257,7 +11898,7 @@
         <v>French</v>
       </c>
       <c r="M37" s="5" t="str">
-        <f>LOWER(IF($L37="English",_xlfn.CONCAT($F37,".",$D37,"@xyz.org"),_xlfn.CONCAT($F37,".",$D37,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>lebrun-brun.benjamin@xyz.com</v>
       </c>
       <c r="N37" s="37">
@@ -6285,7 +11926,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f>_xlfn.CONCAT(C38,  " ", D38,  " ", F38)</f>
+        <f t="shared" si="2"/>
         <v>M. Antoine Maillard</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6319,7 +11960,7 @@
         <v>French</v>
       </c>
       <c r="M38" s="5" t="str">
-        <f>LOWER(IF($L38="English",_xlfn.CONCAT($F38,".",$D38,"@xyz.org"),_xlfn.CONCAT($F38,".",$D38,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>maillard.antoine@xyz.com</v>
       </c>
       <c r="N38" s="37">
@@ -6347,7 +11988,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f>_xlfn.CONCAT(C39,  " ", D39,  " ", F39)</f>
+        <f t="shared" si="2"/>
         <v>M. Bernard Hoarau-Guyon</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6381,7 +12022,7 @@
         <v>French</v>
       </c>
       <c r="M39" s="5" t="str">
-        <f>LOWER(IF($L39="English",_xlfn.CONCAT($F39,".",$D39,"@xyz.org"),_xlfn.CONCAT($F39,".",$D39,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>hoarau-guyon.bernard@xyz.com</v>
       </c>
       <c r="N39" s="37">
@@ -6409,7 +12050,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f>_xlfn.CONCAT(C40,  " ", D40,  " ", F40)</f>
+        <f t="shared" si="2"/>
         <v>Sr. Hidalgo Tercero</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -6445,7 +12086,7 @@
         <v>Spanish</v>
       </c>
       <c r="M40" s="5" t="str">
-        <f>LOWER(IF($L40="English",_xlfn.CONCAT($F40,".",$D40,"@xyz.org"),_xlfn.CONCAT($F40,".",$D40,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>tercero.hidalgo@xyz.com</v>
       </c>
       <c r="N40" s="37">
@@ -6473,7 +12114,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f>_xlfn.CONCAT(C41,  " ", D41,  " ", F41)</f>
+        <f t="shared" si="2"/>
         <v>Sr. Hadalgo Polanco</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -6507,7 +12148,7 @@
         <v>Spanish</v>
       </c>
       <c r="M41" s="5" t="str">
-        <f>LOWER(IF($L41="English",_xlfn.CONCAT($F41,".",$D41,"@xyz.org"),_xlfn.CONCAT($F41,".",$D41,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>polanco.hadalgo@xyz.com</v>
       </c>
       <c r="N41" s="37">
@@ -6535,7 +12176,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f>_xlfn.CONCAT(C42,  " ", D42,  " ", F42)</f>
+        <f t="shared" si="2"/>
         <v>Sra. Laura Oliviera</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -6569,7 +12210,7 @@
         <v>Spanish</v>
       </c>
       <c r="M42" s="5" t="str">
-        <f>LOWER(IF($L42="English",_xlfn.CONCAT($F42,".",$D42,"@xyz.org"),_xlfn.CONCAT($F42,".",$D42,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>oliviera.laura@xyz.com</v>
       </c>
       <c r="N42" s="37">
@@ -6597,7 +12238,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f>_xlfn.CONCAT(C43,  " ", D43,  " ", F43)</f>
+        <f t="shared" si="2"/>
         <v>Sra. Ainhoa Garza</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -6631,7 +12272,7 @@
         <v>Spanish</v>
       </c>
       <c r="M43" s="5" t="str">
-        <f>LOWER(IF($L43="English",_xlfn.CONCAT($F43,".",$D43,"@xyz.org"),_xlfn.CONCAT($F43,".",$D43,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>garza.ainhoa@xyz.com</v>
       </c>
       <c r="N43" s="37">
@@ -6659,7 +12300,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f>_xlfn.CONCAT(C44,  " ", D44,  " ", F44)</f>
+        <f t="shared" si="2"/>
         <v>Sra. Isabel Banda</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -6693,7 +12334,7 @@
         <v>Spanish</v>
       </c>
       <c r="M44" s="5" t="str">
-        <f>LOWER(IF($L44="English",_xlfn.CONCAT($F44,".",$D44,"@xyz.org"),_xlfn.CONCAT($F44,".",$D44,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>banda.isabel@xyz.com</v>
       </c>
       <c r="N44" s="37">
@@ -6721,7 +12362,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f>_xlfn.CONCAT(C45,  " ", D45,  " ", F45)</f>
+        <f t="shared" si="2"/>
         <v>Sra. Carolota Mateos</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6755,7 +12396,7 @@
         <v>Spanish</v>
       </c>
       <c r="M45" s="5" t="str">
-        <f>LOWER(IF($L45="English",_xlfn.CONCAT($F45,".",$D45,"@xyz.org"),_xlfn.CONCAT($F45,".",$D45,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>mateos.carolota@xyz.com</v>
       </c>
       <c r="N45" s="37">
@@ -6783,7 +12424,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f>_xlfn.CONCAT(C46,  " ", D46,  " ", F46)</f>
+        <f t="shared" si="2"/>
         <v>Mw. Elize Prins</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -6817,7 +12458,7 @@
         <v>Dutch</v>
       </c>
       <c r="M46" s="5" t="str">
-        <f>LOWER(IF($L46="English",_xlfn.CONCAT($F46,".",$D46,"@xyz.org"),_xlfn.CONCAT($F46,".",$D46,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>prins.elize@xyz.com</v>
       </c>
       <c r="N46" s="37">
@@ -6845,7 +12486,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f>_xlfn.CONCAT(C47,  " ", D47,  " ", F47)</f>
+        <f t="shared" si="2"/>
         <v>dhr. Ryan Pham</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -6879,7 +12520,7 @@
         <v>Dutch</v>
       </c>
       <c r="M47" s="5" t="str">
-        <f>LOWER(IF($L47="English",_xlfn.CONCAT($F47,".",$D47,"@xyz.org"),_xlfn.CONCAT($F47,".",$D47,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>pham.ryan@xyz.com</v>
       </c>
       <c r="N47" s="37">
@@ -6907,7 +12548,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f>_xlfn.CONCAT(C48,  " ", D48,  " ", F48)</f>
+        <f t="shared" si="2"/>
         <v>Mw Elise Rotteveel</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -6941,7 +12582,7 @@
         <v>Dutch</v>
       </c>
       <c r="M48" s="5" t="str">
-        <f>LOWER(IF($L48="English",_xlfn.CONCAT($F48,".",$D48,"@xyz.org"),_xlfn.CONCAT($F48,".",$D48,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>rotteveel.elise@xyz.com</v>
       </c>
       <c r="N48" s="37">
@@ -6969,7 +12610,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f>_xlfn.CONCAT(C49,  " ", D49,  " ", F49)</f>
+        <f t="shared" si="2"/>
         <v>Fru. Mirjam Soderberg</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7003,7 +12644,7 @@
         <v>Swedish</v>
       </c>
       <c r="M49" s="5" t="str">
-        <f>LOWER(IF($L49="English",_xlfn.CONCAT($F49,".",$D49,"@xyz.org"),_xlfn.CONCAT($F49,".",$D49,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>soderberg.mirjam@xyz.com</v>
       </c>
       <c r="N49" s="37">
@@ -7031,7 +12672,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f>_xlfn.CONCAT(C50,  " ", D50,  " ", F50)</f>
+        <f t="shared" si="2"/>
         <v>H. Berndt Palsson</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -7065,7 +12706,7 @@
         <v>Swedish</v>
       </c>
       <c r="M50" s="5" t="str">
-        <f>LOWER(IF($L50="English",_xlfn.CONCAT($F50,".",$D50,"@xyz.org"),_xlfn.CONCAT($F50,".",$D50,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>palsson.berndt@xyz.com</v>
       </c>
       <c r="N50" s="37">
@@ -7093,7 +12734,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f>_xlfn.CONCAT(C51,  " ", D51,  " ", F51)</f>
+        <f t="shared" si="2"/>
         <v>Sr. Adriano Sobrinho</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -7129,7 +12770,7 @@
         <v>Portuguese</v>
       </c>
       <c r="M51" s="5" t="str">
-        <f>LOWER(IF($L51="English",_xlfn.CONCAT($F51,".",$D51,"@xyz.org"),_xlfn.CONCAT($F51,".",$D51,"@xyz.com")))</f>
+        <f t="shared" si="3"/>
         <v>sobrinho.adriano@xyz.com</v>
       </c>
       <c r="N51" s="37">

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A10B8C-DFB6-43FB-AC7C-C5596C4A6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613C211-45A5-46D9-97E7-2454BDF35C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="4" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId9"/>
+    <pivotCache cacheId="37" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="287">
   <si>
     <t>PREFIX</t>
   </si>
@@ -995,819 +995,6 @@
   </si>
   <si>
     <t>Country Names</t>
-  </si>
-  <si>
-    <t>Ms. Annie Abbott</t>
-  </si>
-  <si>
-    <t>Ms. Aurelie Liesuchke</t>
-  </si>
-  <si>
-    <t>Sr. Tomas Filho</t>
-  </si>
-  <si>
-    <t>Ms. Darby Cruickshank</t>
-  </si>
-  <si>
-    <t>Dr. Jaydon Borer</t>
-  </si>
-  <si>
-    <t>Mr. Moriah  Lynch</t>
-  </si>
-  <si>
-    <t>Ms. Amiya Eichmann</t>
-  </si>
-  <si>
-    <t>Mr. Pierce Rau</t>
-  </si>
-  <si>
-    <t>Ms. Amelia Stevens</t>
-  </si>
-  <si>
-    <t>Mr. Toby Simpson</t>
-  </si>
-  <si>
-    <t>Sir Ethan Murphy</t>
-  </si>
-  <si>
-    <t>Mrs. Ashley Wood</t>
-  </si>
-  <si>
-    <t>Ms. Megan Scott</t>
-  </si>
-  <si>
-    <t>Hr. Helmut Weinhae</t>
-  </si>
-  <si>
-    <t>Prof. Milena Schotin</t>
-  </si>
-  <si>
-    <t>Hr. Lothar Birnbaum</t>
-  </si>
-  <si>
-    <t>Hr. Pietro Stolze</t>
-  </si>
-  <si>
-    <t>Hr. Richard  Tlustek</t>
-  </si>
-  <si>
-    <t>Dr. Earnestine Raynor</t>
-  </si>
-  <si>
-    <t>Mr. Jason Gaylord</t>
-  </si>
-  <si>
-    <t>Mr. Kendrick Sauer</t>
-  </si>
-  <si>
-    <t>Dr. Annabell Olson</t>
-  </si>
-  <si>
-    <t>Dr. Jena Upton</t>
-  </si>
-  <si>
-    <t>Dr. Shanny Bins</t>
-  </si>
-  <si>
-    <t>Dr. Tia Abshire</t>
-  </si>
-  <si>
-    <t>Ms. Isabel Runolfsdottir</t>
-  </si>
-  <si>
-    <t>Hr. Barney Wesack</t>
-  </si>
-  <si>
-    <t>Hr. Baruch Kade</t>
-  </si>
-  <si>
-    <t>Prof. Liesbeth Rosemann</t>
-  </si>
-  <si>
-    <t>Mme. Valentine Moreau</t>
-  </si>
-  <si>
-    <t>Mme. Paulette Durand</t>
-  </si>
-  <si>
-    <t>Mme. Laure-Alix Chevalier</t>
-  </si>
-  <si>
-    <t>M. Claude Toussaint</t>
-  </si>
-  <si>
-    <t>M. Victor Lenoir</t>
-  </si>
-  <si>
-    <t>M. Arthur Lenoir</t>
-  </si>
-  <si>
-    <t>M. Benjamin Lebrun-Brun</t>
-  </si>
-  <si>
-    <t>M. Antoine Maillard</t>
-  </si>
-  <si>
-    <t>M. Bernard Hoarau-Guyon</t>
-  </si>
-  <si>
-    <t>Sr. Hidalgo Tercero</t>
-  </si>
-  <si>
-    <t>Sr. Hadalgo Polanco</t>
-  </si>
-  <si>
-    <t>Sra. Laura Oliviera</t>
-  </si>
-  <si>
-    <t>Sra. Ainhoa Garza</t>
-  </si>
-  <si>
-    <t>Sra. Isabel Banda</t>
-  </si>
-  <si>
-    <t>Sra. Carolota Mateos</t>
-  </si>
-  <si>
-    <t>Mw. Elize Prins</t>
-  </si>
-  <si>
-    <t>dhr. Ryan Pham</t>
-  </si>
-  <si>
-    <t>Mw Elise Rotteveel</t>
-  </si>
-  <si>
-    <t>Fru. Mirjam Soderberg</t>
-  </si>
-  <si>
-    <t>H. Berndt Palsson</t>
-  </si>
-  <si>
-    <t>Sr. Adriano Sobrinho</t>
-  </si>
-  <si>
-    <t>001 Total</t>
-  </si>
-  <si>
-    <t>002 Total</t>
-  </si>
-  <si>
-    <t>003 Total</t>
-  </si>
-  <si>
-    <t>004 Total</t>
-  </si>
-  <si>
-    <t>005 Total</t>
-  </si>
-  <si>
-    <t>006 Total</t>
-  </si>
-  <si>
-    <t>007 Total</t>
-  </si>
-  <si>
-    <t>008 Total</t>
-  </si>
-  <si>
-    <t>009 Total</t>
-  </si>
-  <si>
-    <t>010 Total</t>
-  </si>
-  <si>
-    <t>011 Total</t>
-  </si>
-  <si>
-    <t>012 Total</t>
-  </si>
-  <si>
-    <t>013 Total</t>
-  </si>
-  <si>
-    <t>014 Total</t>
-  </si>
-  <si>
-    <t>015 Total</t>
-  </si>
-  <si>
-    <t>016 Total</t>
-  </si>
-  <si>
-    <t>017 Total</t>
-  </si>
-  <si>
-    <t>018 Total</t>
-  </si>
-  <si>
-    <t>019 Total</t>
-  </si>
-  <si>
-    <t>020 Total</t>
-  </si>
-  <si>
-    <t>021 Total</t>
-  </si>
-  <si>
-    <t>022 Total</t>
-  </si>
-  <si>
-    <t>023 Total</t>
-  </si>
-  <si>
-    <t>024 Total</t>
-  </si>
-  <si>
-    <t>025 Total</t>
-  </si>
-  <si>
-    <t>026 Total</t>
-  </si>
-  <si>
-    <t>027 Total</t>
-  </si>
-  <si>
-    <t>028 Total</t>
-  </si>
-  <si>
-    <t>029 Total</t>
-  </si>
-  <si>
-    <t>030 Total</t>
-  </si>
-  <si>
-    <t>031 Total</t>
-  </si>
-  <si>
-    <t>032 Total</t>
-  </si>
-  <si>
-    <t>033 Total</t>
-  </si>
-  <si>
-    <t>034 Total</t>
-  </si>
-  <si>
-    <t>035 Total</t>
-  </si>
-  <si>
-    <t>036 Total</t>
-  </si>
-  <si>
-    <t>037 Total</t>
-  </si>
-  <si>
-    <t>038 Total</t>
-  </si>
-  <si>
-    <t>039 Total</t>
-  </si>
-  <si>
-    <t>040 Total</t>
-  </si>
-  <si>
-    <t>041 Total</t>
-  </si>
-  <si>
-    <t>042 Total</t>
-  </si>
-  <si>
-    <t>043 Total</t>
-  </si>
-  <si>
-    <t>044 Total</t>
-  </si>
-  <si>
-    <t>045 Total</t>
-  </si>
-  <si>
-    <t>046 Total</t>
-  </si>
-  <si>
-    <t>047 Total</t>
-  </si>
-  <si>
-    <t>048 Total</t>
-  </si>
-  <si>
-    <t>049 Total</t>
-  </si>
-  <si>
-    <t>050 Total</t>
-  </si>
-  <si>
-    <t>Ms. Annie Abbott Total</t>
-  </si>
-  <si>
-    <t>Ms. Aurelie Liesuchke Total</t>
-  </si>
-  <si>
-    <t>Sr. Tomas Filho Total</t>
-  </si>
-  <si>
-    <t>Ms. Darby Cruickshank Total</t>
-  </si>
-  <si>
-    <t>Dr. Jaydon Borer Total</t>
-  </si>
-  <si>
-    <t>Mr. Moriah  Lynch Total</t>
-  </si>
-  <si>
-    <t>Ms. Amiya Eichmann Total</t>
-  </si>
-  <si>
-    <t>Mr. Pierce Rau Total</t>
-  </si>
-  <si>
-    <t>Ms. Amelia Stevens Total</t>
-  </si>
-  <si>
-    <t>Mr. Toby Simpson Total</t>
-  </si>
-  <si>
-    <t>Sir Ethan Murphy Total</t>
-  </si>
-  <si>
-    <t>Mrs. Ashley Wood Total</t>
-  </si>
-  <si>
-    <t>Ms. Megan Scott Total</t>
-  </si>
-  <si>
-    <t>Hr. Helmut Weinhae Total</t>
-  </si>
-  <si>
-    <t>Prof. Milena Schotin Total</t>
-  </si>
-  <si>
-    <t>Hr. Lothar Birnbaum Total</t>
-  </si>
-  <si>
-    <t>Hr. Pietro Stolze Total</t>
-  </si>
-  <si>
-    <t>Hr. Richard  Tlustek Total</t>
-  </si>
-  <si>
-    <t>Dr. Earnestine Raynor Total</t>
-  </si>
-  <si>
-    <t>Mr. Jason Gaylord Total</t>
-  </si>
-  <si>
-    <t>Mr. Kendrick Sauer Total</t>
-  </si>
-  <si>
-    <t>Dr. Annabell Olson Total</t>
-  </si>
-  <si>
-    <t>Dr. Jena Upton Total</t>
-  </si>
-  <si>
-    <t>Dr. Shanny Bins Total</t>
-  </si>
-  <si>
-    <t>Dr. Tia Abshire Total</t>
-  </si>
-  <si>
-    <t>Ms. Isabel Runolfsdottir Total</t>
-  </si>
-  <si>
-    <t>Hr. Barney Wesack Total</t>
-  </si>
-  <si>
-    <t>Hr. Baruch Kade Total</t>
-  </si>
-  <si>
-    <t>Prof. Liesbeth Rosemann Total</t>
-  </si>
-  <si>
-    <t>Mme. Valentine Moreau Total</t>
-  </si>
-  <si>
-    <t>Mme. Paulette Durand Total</t>
-  </si>
-  <si>
-    <t>Mme. Laure-Alix Chevalier Total</t>
-  </si>
-  <si>
-    <t>M. Claude Toussaint Total</t>
-  </si>
-  <si>
-    <t>M. Victor Lenoir Total</t>
-  </si>
-  <si>
-    <t>M. Arthur Lenoir Total</t>
-  </si>
-  <si>
-    <t>M. Benjamin Lebrun-Brun Total</t>
-  </si>
-  <si>
-    <t>M. Antoine Maillard Total</t>
-  </si>
-  <si>
-    <t>M. Bernard Hoarau-Guyon Total</t>
-  </si>
-  <si>
-    <t>Sr. Hidalgo Tercero Total</t>
-  </si>
-  <si>
-    <t>Sr. Hadalgo Polanco Total</t>
-  </si>
-  <si>
-    <t>Sra. Laura Oliviera Total</t>
-  </si>
-  <si>
-    <t>Sra. Ainhoa Garza Total</t>
-  </si>
-  <si>
-    <t>Sra. Isabel Banda Total</t>
-  </si>
-  <si>
-    <t>Sra. Carolota Mateos Total</t>
-  </si>
-  <si>
-    <t>Mw. Elize Prins Total</t>
-  </si>
-  <si>
-    <t>dhr. Ryan Pham Total</t>
-  </si>
-  <si>
-    <t>Mw Elise Rotteveel Total</t>
-  </si>
-  <si>
-    <t>Fru. Mirjam Soderberg Total</t>
-  </si>
-  <si>
-    <t>H. Berndt Palsson Total</t>
-  </si>
-  <si>
-    <t>Sr. Adriano Sobrinho Total</t>
-  </si>
-  <si>
-    <t>Female Total</t>
-  </si>
-  <si>
-    <t>Male Total</t>
-  </si>
-  <si>
-    <t>USA Total</t>
-  </si>
-  <si>
-    <t>BRAZIL Total</t>
-  </si>
-  <si>
-    <t>UK Total</t>
-  </si>
-  <si>
-    <t>GERMANY Total</t>
-  </si>
-  <si>
-    <t>AUSTRALIA Total</t>
-  </si>
-  <si>
-    <t>AUSTRIA Total</t>
-  </si>
-  <si>
-    <t>FRANCE Total</t>
-  </si>
-  <si>
-    <t>ARGENTINA Total</t>
-  </si>
-  <si>
-    <t>SPAIN Total</t>
-  </si>
-  <si>
-    <t>NETHERLANDS Total</t>
-  </si>
-  <si>
-    <t>SWEDEN Total</t>
-  </si>
-  <si>
-    <t>abbott.annie@xyz.org</t>
-  </si>
-  <si>
-    <t>English Total</t>
-  </si>
-  <si>
-    <t>liesuchke.aurelie@xyz.org</t>
-  </si>
-  <si>
-    <t>filho.tomas@xyz.com</t>
-  </si>
-  <si>
-    <t>Portuguese Total</t>
-  </si>
-  <si>
-    <t>cruickshank.darby@xyz.org</t>
-  </si>
-  <si>
-    <t>borer.jaydon@xyz.org</t>
-  </si>
-  <si>
-    <t>lynch.moriah @xyz.org</t>
-  </si>
-  <si>
-    <t>eichmann.amiya@xyz.org</t>
-  </si>
-  <si>
-    <t>rau.pierce@xyz.org</t>
-  </si>
-  <si>
-    <t>stevens.amelia@xyz.org</t>
-  </si>
-  <si>
-    <t>simpson.toby@xyz.org</t>
-  </si>
-  <si>
-    <t>murphy.ethan@xyz.org</t>
-  </si>
-  <si>
-    <t>wood.ashley@xyz.org</t>
-  </si>
-  <si>
-    <t>scott.megan@xyz.org</t>
-  </si>
-  <si>
-    <t>weinhae.helmut@xyz.com</t>
-  </si>
-  <si>
-    <t>German Total</t>
-  </si>
-  <si>
-    <t>schotin.milena@xyz.com</t>
-  </si>
-  <si>
-    <t>birnbaum.lothar@xyz.com</t>
-  </si>
-  <si>
-    <t>stolze.pietro@xyz.com</t>
-  </si>
-  <si>
-    <t>tlustek.richard @xyz.com</t>
-  </si>
-  <si>
-    <t>raynor.earnestine@xyz.org</t>
-  </si>
-  <si>
-    <t>gaylord.jason@xyz.org</t>
-  </si>
-  <si>
-    <t>sauer.kendrick@xyz.org</t>
-  </si>
-  <si>
-    <t>olson.annabell@xyz.org</t>
-  </si>
-  <si>
-    <t>upton.jena@xyz.org</t>
-  </si>
-  <si>
-    <t>bins.shanny@xyz.org</t>
-  </si>
-  <si>
-    <t>abshire.tia@xyz.org</t>
-  </si>
-  <si>
-    <t>runolfsdottir.isabel@xyz.org</t>
-  </si>
-  <si>
-    <t>wesack.barney@xyz.com</t>
-  </si>
-  <si>
-    <t>kade.baruch@xyz.com</t>
-  </si>
-  <si>
-    <t>rosemann.liesbeth@xyz.com</t>
-  </si>
-  <si>
-    <t>moreau.valentine@xyz.com</t>
-  </si>
-  <si>
-    <t>French Total</t>
-  </si>
-  <si>
-    <t>durand.paulette@xyz.com</t>
-  </si>
-  <si>
-    <t>chevalier.laure-alix@xyz.com</t>
-  </si>
-  <si>
-    <t>toussaint.claude@xyz.com</t>
-  </si>
-  <si>
-    <t>lenoir.victor@xyz.com</t>
-  </si>
-  <si>
-    <t>lenoir.arthur@xyz.com</t>
-  </si>
-  <si>
-    <t>lebrun-brun.benjamin@xyz.com</t>
-  </si>
-  <si>
-    <t>maillard.antoine@xyz.com</t>
-  </si>
-  <si>
-    <t>hoarau-guyon.bernard@xyz.com</t>
-  </si>
-  <si>
-    <t>tercero.hidalgo@xyz.com</t>
-  </si>
-  <si>
-    <t>Spanish Total</t>
-  </si>
-  <si>
-    <t>polanco.hadalgo@xyz.com</t>
-  </si>
-  <si>
-    <t>oliviera.laura@xyz.com</t>
-  </si>
-  <si>
-    <t>garza.ainhoa@xyz.com</t>
-  </si>
-  <si>
-    <t>banda.isabel@xyz.com</t>
-  </si>
-  <si>
-    <t>mateos.carolota@xyz.com</t>
-  </si>
-  <si>
-    <t>prins.elize@xyz.com</t>
-  </si>
-  <si>
-    <t>Dutch Total</t>
-  </si>
-  <si>
-    <t>pham.ryan@xyz.com</t>
-  </si>
-  <si>
-    <t>rotteveel.elise@xyz.com</t>
-  </si>
-  <si>
-    <t>soderberg.mirjam@xyz.com</t>
-  </si>
-  <si>
-    <t>Swedish Total</t>
-  </si>
-  <si>
-    <t>palsson.berndt@xyz.com</t>
-  </si>
-  <si>
-    <t>sobrinho.adriano@xyz.com</t>
-  </si>
-  <si>
-    <t>abbott.annie@xyz.org Total</t>
-  </si>
-  <si>
-    <t>liesuchke.aurelie@xyz.org Total</t>
-  </si>
-  <si>
-    <t>filho.tomas@xyz.com Total</t>
-  </si>
-  <si>
-    <t>cruickshank.darby@xyz.org Total</t>
-  </si>
-  <si>
-    <t>borer.jaydon@xyz.org Total</t>
-  </si>
-  <si>
-    <t>lynch.moriah @xyz.org Total</t>
-  </si>
-  <si>
-    <t>eichmann.amiya@xyz.org Total</t>
-  </si>
-  <si>
-    <t>rau.pierce@xyz.org Total</t>
-  </si>
-  <si>
-    <t>stevens.amelia@xyz.org Total</t>
-  </si>
-  <si>
-    <t>simpson.toby@xyz.org Total</t>
-  </si>
-  <si>
-    <t>murphy.ethan@xyz.org Total</t>
-  </si>
-  <si>
-    <t>wood.ashley@xyz.org Total</t>
-  </si>
-  <si>
-    <t>scott.megan@xyz.org Total</t>
-  </si>
-  <si>
-    <t>weinhae.helmut@xyz.com Total</t>
-  </si>
-  <si>
-    <t>schotin.milena@xyz.com Total</t>
-  </si>
-  <si>
-    <t>birnbaum.lothar@xyz.com Total</t>
-  </si>
-  <si>
-    <t>stolze.pietro@xyz.com Total</t>
-  </si>
-  <si>
-    <t>tlustek.richard @xyz.com Total</t>
-  </si>
-  <si>
-    <t>raynor.earnestine@xyz.org Total</t>
-  </si>
-  <si>
-    <t>gaylord.jason@xyz.org Total</t>
-  </si>
-  <si>
-    <t>sauer.kendrick@xyz.org Total</t>
-  </si>
-  <si>
-    <t>olson.annabell@xyz.org Total</t>
-  </si>
-  <si>
-    <t>upton.jena@xyz.org Total</t>
-  </si>
-  <si>
-    <t>bins.shanny@xyz.org Total</t>
-  </si>
-  <si>
-    <t>abshire.tia@xyz.org Total</t>
-  </si>
-  <si>
-    <t>runolfsdottir.isabel@xyz.org Total</t>
-  </si>
-  <si>
-    <t>wesack.barney@xyz.com Total</t>
-  </si>
-  <si>
-    <t>kade.baruch@xyz.com Total</t>
-  </si>
-  <si>
-    <t>rosemann.liesbeth@xyz.com Total</t>
-  </si>
-  <si>
-    <t>moreau.valentine@xyz.com Total</t>
-  </si>
-  <si>
-    <t>durand.paulette@xyz.com Total</t>
-  </si>
-  <si>
-    <t>chevalier.laure-alix@xyz.com Total</t>
-  </si>
-  <si>
-    <t>toussaint.claude@xyz.com Total</t>
-  </si>
-  <si>
-    <t>lenoir.victor@xyz.com Total</t>
-  </si>
-  <si>
-    <t>lenoir.arthur@xyz.com Total</t>
-  </si>
-  <si>
-    <t>lebrun-brun.benjamin@xyz.com Total</t>
-  </si>
-  <si>
-    <t>maillard.antoine@xyz.com Total</t>
-  </si>
-  <si>
-    <t>hoarau-guyon.bernard@xyz.com Total</t>
-  </si>
-  <si>
-    <t>tercero.hidalgo@xyz.com Total</t>
-  </si>
-  <si>
-    <t>polanco.hadalgo@xyz.com Total</t>
-  </si>
-  <si>
-    <t>oliviera.laura@xyz.com Total</t>
-  </si>
-  <si>
-    <t>garza.ainhoa@xyz.com Total</t>
-  </si>
-  <si>
-    <t>banda.isabel@xyz.com Total</t>
-  </si>
-  <si>
-    <t>mateos.carolota@xyz.com Total</t>
-  </si>
-  <si>
-    <t>prins.elize@xyz.com Total</t>
-  </si>
-  <si>
-    <t>pham.ryan@xyz.com Total</t>
-  </si>
-  <si>
-    <t>rotteveel.elise@xyz.com Total</t>
-  </si>
-  <si>
-    <t>soderberg.mirjam@xyz.com Total</t>
-  </si>
-  <si>
-    <t>palsson.berndt@xyz.com Total</t>
-  </si>
-  <si>
-    <t>sobrinho.adriano@xyz.com Total</t>
-  </si>
-  <si>
-    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2323,8 +1510,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3826,7 +3011,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -4003,1726 +3188,6 @@
   <dataFields count="1">
     <dataField name="Count of MEMBER ID" fld="0" subtotal="count" baseField="10" baseItem="3"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C94600D-1D23-46A8-949A-CCD0834CCA21}" name="PivotTable6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:G353" firstHeaderRow="1" firstDataRow="1" firstDataCol="7" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="21">
-    <pivotField axis="axisRow" compact="0" numFmtId="165" outline="0" showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="51">
-        <item x="45"/>
-        <item x="21"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="12"/>
-        <item x="46"/>
-        <item x="44"/>
-        <item x="28"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="49"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="2"/>
-        <item x="41"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="24"/>
-        <item x="42"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item x="3"/>
-        <item x="30"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="41"/>
-        <item x="19"/>
-        <item x="37"/>
-        <item x="27"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="36"/>
-        <item x="43"/>
-        <item x="29"/>
-        <item x="10"/>
-        <item x="40"/>
-        <item x="21"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="7"/>
-        <item x="18"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="38"/>
-        <item x="17"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="26"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="33">
-        <item x="3"/>
-        <item x="10"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="1"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="28"/>
-        <item x="14"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="11"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="31"/>
-        <item x="18"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="48">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="7">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="8"/>
-    <field x="10"/>
-    <field x="11"/>
-    <field x="12"/>
-    <field x="17"/>
-  </rowFields>
-  <rowItems count="350">
-    <i>
-      <x/>
-      <x v="32"/>
-      <x/>
-      <x v="10"/>
-      <x v="1"/>
-      <x/>
-      <x v="13"/>
-    </i>
-    <i t="default" r="5">
-      <x/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="32"/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="33"/>
-      <x/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="18"/>
-      <x v="6"/>
-    </i>
-    <i t="default" r="5">
-      <x v="18"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="33"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="45"/>
-      <x v="1"/>
-      <x v="3"/>
-      <x v="4"/>
-      <x v="10"/>
-      <x v="17"/>
-    </i>
-    <i t="default" r="5">
-      <x v="10"/>
-    </i>
-    <i t="default" r="4">
-      <x v="4"/>
-    </i>
-    <i t="default" r="3">
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="45"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="34"/>
-      <x/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i t="default" r="5">
-      <x v="7"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="34"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-      <x v="1"/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="5"/>
-      <x v="31"/>
-    </i>
-    <i t="default" r="5">
-      <x v="5"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="26"/>
-      <x v="1"/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="19"/>
-      <x v="16"/>
-    </i>
-    <i t="default" r="5">
-      <x v="19"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="26"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="31"/>
-      <x/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="9"/>
-      <x v="12"/>
-    </i>
-    <i t="default" r="5">
-      <x v="9"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="31"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="27"/>
-      <x v="1"/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="30"/>
-      <x v="9"/>
-    </i>
-    <i t="default" r="5">
-      <x v="30"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="10"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="27"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="30"/>
-      <x/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="41"/>
-      <x v="26"/>
-    </i>
-    <i t="default" r="5">
-      <x v="41"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="9"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="30"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="28"/>
-      <x v="1"/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="38"/>
-      <x v="12"/>
-    </i>
-    <i t="default" r="5">
-      <x v="38"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="9"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="28"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="41"/>
-      <x v="1"/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="23"/>
-      <x v="18"/>
-    </i>
-    <i t="default" r="5">
-      <x v="23"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="9"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="41"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="29"/>
-      <x/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="49"/>
-      <x v="1"/>
-    </i>
-    <i t="default" r="5">
-      <x v="49"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="9"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="29"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="36"/>
-      <x/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="37"/>
-      <x v="24"/>
-    </i>
-    <i t="default" r="5">
-      <x v="37"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="9"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="36"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="11"/>
-      <x v="1"/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="47"/>
-      <x v="8"/>
-    </i>
-    <i t="default" r="5">
-      <x v="47"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="5"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="11"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="40"/>
-      <x/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="36"/>
-      <x v="10"/>
-    </i>
-    <i t="default" r="5">
-      <x v="36"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="5"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="40"/>
-    </i>
-    <i t="default">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="12"/>
-      <x v="1"/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i t="default" r="5">
-      <x v="4"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="5"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="12"/>
-    </i>
-    <i t="default">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="13"/>
-      <x v="1"/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="42"/>
-      <x v="21"/>
-    </i>
-    <i t="default" r="5">
-      <x v="42"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="5"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="13"/>
-    </i>
-    <i t="default">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="14"/>
-      <x v="1"/>
-      <x v="5"/>
-      <x v="3"/>
-      <x v="44"/>
-      <x v="11"/>
-    </i>
-    <i t="default" r="5">
-      <x v="44"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="5"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="14"/>
-    </i>
-    <i t="default">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="2"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="31"/>
-      <x v="27"/>
-    </i>
-    <i t="default" r="5">
-      <x v="31"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="24"/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="12"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="5">
-      <x v="12"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="24"/>
-    </i>
-    <i t="default">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="25"/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="35"/>
-      <x v="29"/>
-    </i>
-    <i t="default" r="5">
-      <x v="35"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="25"/>
-    </i>
-    <i t="default">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="1"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="25"/>
-      <x v="15"/>
-    </i>
-    <i t="default" r="5">
-      <x v="25"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="4"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="46"/>
-      <x v="4"/>
-    </i>
-    <i t="default" r="5">
-      <x v="46"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="5"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="3"/>
-      <x v="7"/>
-    </i>
-    <i t="default" r="5">
-      <x v="3"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="6"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="12"/>
-    </i>
-    <i t="default" r="5">
-      <x v="1"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="35"/>
-      <x/>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="34"/>
-      <x v="13"/>
-    </i>
-    <i t="default" r="5">
-      <x v="34"/>
-    </i>
-    <i t="default" r="4">
-      <x v="1"/>
-    </i>
-    <i t="default" r="3">
-      <x v="1"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="35"/>
-    </i>
-    <i t="default">
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="9"/>
-      <x v="1"/>
-      <x v="2"/>
-      <x v="3"/>
-      <x v="48"/>
-      <x v="30"/>
-    </i>
-    <i t="default" r="5">
-      <x v="48"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="2"/>
-      <x v="3"/>
-      <x v="14"/>
-      <x v="24"/>
-    </i>
-    <i t="default" r="5">
-      <x v="14"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="10"/>
-    </i>
-    <i t="default">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="39"/>
-      <x/>
-      <x v="2"/>
-      <x v="3"/>
-      <x v="32"/>
-      <x v="12"/>
-    </i>
-    <i t="default" r="5">
-      <x v="32"/>
-    </i>
-    <i t="default" r="4">
-      <x v="3"/>
-    </i>
-    <i t="default" r="3">
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="39"/>
-    </i>
-    <i t="default">
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="23"/>
-      <x/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="22"/>
-      <x v="19"/>
-    </i>
-    <i t="default" r="5">
-      <x v="22"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="23"/>
-    </i>
-    <i t="default">
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="22"/>
-      <x/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="8"/>
-      <x v="30"/>
-    </i>
-    <i t="default" r="5">
-      <x v="8"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="22"/>
-    </i>
-    <i t="default">
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="21"/>
-      <x/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="6"/>
-      <x v="4"/>
-    </i>
-    <i t="default" r="5">
-      <x v="6"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="21"/>
-    </i>
-    <i t="default">
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="19"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="45"/>
-      <x v="14"/>
-    </i>
-    <i t="default" r="5">
-      <x v="45"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="19"/>
-    </i>
-    <i t="default">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="20"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="17"/>
-      <x v="29"/>
-    </i>
-    <i t="default" r="5">
-      <x v="17"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="20"/>
-    </i>
-    <i t="default">
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="16"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="16"/>
-      <x v="22"/>
-    </i>
-    <i t="default" r="5">
-      <x v="16"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="16"/>
-    </i>
-    <i t="default">
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="17"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="15"/>
-      <x v="29"/>
-    </i>
-    <i t="default" r="5">
-      <x v="15"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="17"/>
-    </i>
-    <i t="default">
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="15"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="20"/>
-      <x v="25"/>
-    </i>
-    <i t="default" r="5">
-      <x v="20"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="15"/>
-    </i>
-    <i t="default">
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="18"/>
-      <x v="1"/>
-      <x v="4"/>
-      <x v="2"/>
-      <x v="13"/>
-      <x v="13"/>
-    </i>
-    <i t="default" r="5">
-      <x v="13"/>
-    </i>
-    <i t="default" r="4">
-      <x v="2"/>
-    </i>
-    <i t="default" r="3">
-      <x v="4"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="18"/>
-    </i>
-    <i t="default">
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="44"/>
-      <x v="1"/>
-      <x/>
-      <x v="5"/>
-      <x v="43"/>
-      <x v="7"/>
-    </i>
-    <i t="default" r="5">
-      <x v="43"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="44"/>
-    </i>
-    <i t="default">
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="43"/>
-      <x v="1"/>
-      <x/>
-      <x v="5"/>
-      <x v="28"/>
-      <x v="4"/>
-    </i>
-    <i t="default" r="5">
-      <x v="28"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="43"/>
-    </i>
-    <i t="default">
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="49"/>
-      <x/>
-      <x/>
-      <x v="5"/>
-      <x v="24"/>
-      <x v="2"/>
-    </i>
-    <i t="default" r="5">
-      <x v="24"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="49"/>
-    </i>
-    <i t="default">
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="46"/>
-      <x/>
-      <x v="7"/>
-      <x v="5"/>
-      <x v="11"/>
-      <x v="20"/>
-    </i>
-    <i t="default" r="5">
-      <x v="11"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x v="7"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="46"/>
-    </i>
-    <i t="default">
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="48"/>
-      <x/>
-      <x v="7"/>
-      <x v="5"/>
-      <x v="2"/>
-      <x v="7"/>
-    </i>
-    <i t="default" r="5">
-      <x v="2"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x v="7"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="48"/>
-    </i>
-    <i t="default">
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="47"/>
-      <x/>
-      <x v="7"/>
-      <x v="5"/>
-      <x v="21"/>
-      <x v="2"/>
-    </i>
-    <i t="default" r="5">
-      <x v="21"/>
-    </i>
-    <i t="default" r="4">
-      <x v="5"/>
-    </i>
-    <i t="default" r="3">
-      <x v="7"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="47"/>
-    </i>
-    <i t="default">
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="38"/>
-      <x/>
-      <x v="6"/>
-      <x/>
-      <x v="29"/>
-      <x v="23"/>
-    </i>
-    <i t="default" r="5">
-      <x v="29"/>
-    </i>
-    <i t="default" r="4">
-      <x/>
-    </i>
-    <i t="default" r="3">
-      <x v="6"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="38"/>
-    </i>
-    <i t="default">
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x/>
-      <x v="1"/>
-      <x v="6"/>
-      <x/>
-      <x v="27"/>
-      <x v="4"/>
-    </i>
-    <i t="default" r="5">
-      <x v="27"/>
-    </i>
-    <i t="default" r="4">
-      <x/>
-    </i>
-    <i t="default" r="3">
-      <x v="6"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="37"/>
-      <x/>
-      <x v="6"/>
-      <x/>
-      <x v="33"/>
-      <x v="4"/>
-    </i>
-    <i t="default" r="5">
-      <x v="33"/>
-    </i>
-    <i t="default" r="4">
-      <x/>
-    </i>
-    <i t="default" r="3">
-      <x v="6"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="37"/>
-    </i>
-    <i t="default">
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="7"/>
-      <x/>
-      <x v="8"/>
-      <x v="6"/>
-      <x v="40"/>
-      <x v="17"/>
-    </i>
-    <i t="default" r="5">
-      <x v="40"/>
-    </i>
-    <i t="default" r="4">
-      <x v="6"/>
-    </i>
-    <i t="default" r="3">
-      <x v="8"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="8"/>
-      <x v="1"/>
-      <x v="8"/>
-      <x v="6"/>
-      <x v="26"/>
-      <x v="5"/>
-    </i>
-    <i t="default" r="5">
-      <x v="26"/>
-    </i>
-    <i t="default" r="4">
-      <x v="6"/>
-    </i>
-    <i t="default" r="3">
-      <x v="8"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="8"/>
-    </i>
-    <i t="default">
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="42"/>
-      <x v="1"/>
-      <x v="3"/>
-      <x v="4"/>
-      <x v="39"/>
-      <x v="28"/>
-    </i>
-    <i t="default" r="5">
-      <x v="39"/>
-    </i>
-    <i t="default" r="4">
-      <x v="4"/>
-    </i>
-    <i t="default" r="3">
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="42"/>
-    </i>
-    <i t="default">
-      <x v="49"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="16" hier="-1"/>
-  </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6034,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C0014-F7B1-460D-B1E9-9CA83663BBBB}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6239,7 +3704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42AC1E-DB3A-47CC-B4CD-38E29C26859B}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6643,10 +4108,10 @@
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -6665,10 +4130,10 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -6687,10 +4152,10 @@
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6709,8 +4174,7 @@
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49">
+      <c r="D8">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6729,10 +4193,10 @@
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -6751,10 +4215,10 @@
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -6773,10 +4237,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6795,10 +4259,9 @@
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>159</v>
       </c>
@@ -6815,10 +4278,10 @@
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -6837,10 +4300,10 @@
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6859,10 +4322,10 @@
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6887,2706 +4350,24 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="50">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" t="s">
-        <v>453</v>
-      </c>
-      <c r="G18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" t="s">
-        <v>456</v>
-      </c>
-      <c r="G32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="50">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="s">
-        <v>457</v>
-      </c>
-      <c r="G39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="50">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" t="s">
-        <v>458</v>
-      </c>
-      <c r="G46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="50">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" t="s">
-        <v>459</v>
-      </c>
-      <c r="G53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="50">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
-        <v>460</v>
-      </c>
-      <c r="G60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F61" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E62" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="50">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>296</v>
-      </c>
-      <c r="C67" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
-        <v>461</v>
-      </c>
-      <c r="G67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="50" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="50">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>297</v>
-      </c>
-      <c r="C74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>462</v>
-      </c>
-      <c r="G74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E76" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="50">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" t="s">
-        <v>463</v>
-      </c>
-      <c r="G81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E83" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="50">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>299</v>
-      </c>
-      <c r="C88" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" t="s">
-        <v>464</v>
-      </c>
-      <c r="G88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E90" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="50">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>300</v>
-      </c>
-      <c r="C95" t="s">
-        <v>142</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" t="s">
-        <v>465</v>
-      </c>
-      <c r="G95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F96" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E97" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="50">
-        <v>15</v>
-      </c>
-      <c r="B102" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" t="s">
-        <v>149</v>
-      </c>
-      <c r="E102" t="s">
-        <v>148</v>
-      </c>
-      <c r="F102" t="s">
-        <v>467</v>
-      </c>
-      <c r="G102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F103" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D105" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="50">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>302</v>
-      </c>
-      <c r="C109" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" t="s">
-        <v>149</v>
-      </c>
-      <c r="E109" t="s">
-        <v>148</v>
-      </c>
-      <c r="F109" t="s">
-        <v>468</v>
-      </c>
-      <c r="G109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E111" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D112" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="50">
-        <v>17</v>
-      </c>
-      <c r="B116" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" t="s">
-        <v>142</v>
-      </c>
-      <c r="D116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" t="s">
-        <v>148</v>
-      </c>
-      <c r="F116" t="s">
-        <v>469</v>
-      </c>
-      <c r="G116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F117" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D119" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="50">
-        <v>18</v>
-      </c>
-      <c r="B123" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" t="s">
-        <v>142</v>
-      </c>
-      <c r="D123" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123" t="s">
-        <v>148</v>
-      </c>
-      <c r="F123" t="s">
-        <v>470</v>
-      </c>
-      <c r="G123" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F124" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E125" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D126" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="50" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="50">
-        <v>19</v>
-      </c>
-      <c r="B130" t="s">
-        <v>305</v>
-      </c>
-      <c r="C130" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>139</v>
-      </c>
-      <c r="F130" t="s">
-        <v>471</v>
-      </c>
-      <c r="G130" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F131" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E132" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D133" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="50">
-        <v>20</v>
-      </c>
-      <c r="B137" t="s">
-        <v>306</v>
-      </c>
-      <c r="C137" t="s">
-        <v>142</v>
-      </c>
-      <c r="D137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" t="s">
-        <v>139</v>
-      </c>
-      <c r="F137" t="s">
-        <v>472</v>
-      </c>
-      <c r="G137" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F138" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E139" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D140" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="50" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="50">
-        <v>21</v>
-      </c>
-      <c r="B144" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" t="s">
-        <v>142</v>
-      </c>
-      <c r="D144" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" t="s">
-        <v>139</v>
-      </c>
-      <c r="F144" t="s">
-        <v>473</v>
-      </c>
-      <c r="G144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F145" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E146" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D147" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C148" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="50">
-        <v>22</v>
-      </c>
-      <c r="B151" t="s">
-        <v>308</v>
-      </c>
-      <c r="C151" t="s">
-        <v>138</v>
-      </c>
-      <c r="D151" t="s">
-        <v>151</v>
-      </c>
-      <c r="E151" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" t="s">
-        <v>474</v>
-      </c>
-      <c r="G151" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F152" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E153" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D154" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="50">
-        <v>23</v>
-      </c>
-      <c r="B158" t="s">
-        <v>309</v>
-      </c>
-      <c r="C158" t="s">
-        <v>138</v>
-      </c>
-      <c r="D158" t="s">
-        <v>151</v>
-      </c>
-      <c r="E158" t="s">
-        <v>139</v>
-      </c>
-      <c r="F158" t="s">
-        <v>475</v>
-      </c>
-      <c r="G158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F159" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E160" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D161" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="50">
-        <v>24</v>
-      </c>
-      <c r="B165" t="s">
-        <v>310</v>
-      </c>
-      <c r="C165" t="s">
-        <v>138</v>
-      </c>
-      <c r="D165" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" t="s">
-        <v>139</v>
-      </c>
-      <c r="F165" t="s">
-        <v>476</v>
-      </c>
-      <c r="G165" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F166" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E167" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D168" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="50">
-        <v>25</v>
-      </c>
-      <c r="B172" t="s">
-        <v>311</v>
-      </c>
-      <c r="C172" t="s">
-        <v>138</v>
-      </c>
-      <c r="D172" t="s">
-        <v>151</v>
-      </c>
-      <c r="E172" t="s">
-        <v>139</v>
-      </c>
-      <c r="F172" t="s">
-        <v>477</v>
-      </c>
-      <c r="G172" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F173" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E174" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D175" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="50" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="50">
-        <v>26</v>
-      </c>
-      <c r="B179" t="s">
-        <v>312</v>
-      </c>
-      <c r="C179" t="s">
-        <v>138</v>
-      </c>
-      <c r="D179" t="s">
-        <v>151</v>
-      </c>
-      <c r="E179" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" t="s">
-        <v>478</v>
-      </c>
-      <c r="G179" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F180" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E181" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D182" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="50">
-        <v>27</v>
-      </c>
-      <c r="B186" t="s">
-        <v>313</v>
-      </c>
-      <c r="C186" t="s">
-        <v>142</v>
-      </c>
-      <c r="D186" t="s">
-        <v>153</v>
-      </c>
-      <c r="E186" t="s">
-        <v>148</v>
-      </c>
-      <c r="F186" t="s">
-        <v>479</v>
-      </c>
-      <c r="G186" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F187" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E188" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D189" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C190" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="50" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="50">
-        <v>28</v>
-      </c>
-      <c r="B193" t="s">
-        <v>314</v>
-      </c>
-      <c r="C193" t="s">
-        <v>142</v>
-      </c>
-      <c r="D193" t="s">
-        <v>153</v>
-      </c>
-      <c r="E193" t="s">
-        <v>148</v>
-      </c>
-      <c r="F193" t="s">
-        <v>480</v>
-      </c>
-      <c r="G193" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F194" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E195" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D196" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C197" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="50" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="50">
-        <v>29</v>
-      </c>
-      <c r="B200" t="s">
-        <v>315</v>
-      </c>
-      <c r="C200" t="s">
-        <v>138</v>
-      </c>
-      <c r="D200" t="s">
-        <v>153</v>
-      </c>
-      <c r="E200" t="s">
-        <v>148</v>
-      </c>
-      <c r="F200" t="s">
-        <v>481</v>
-      </c>
-      <c r="G200" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F201" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E202" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D203" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C204" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="50">
-        <v>30</v>
-      </c>
-      <c r="B207" t="s">
-        <v>316</v>
-      </c>
-      <c r="C207" t="s">
-        <v>138</v>
-      </c>
-      <c r="D207" t="s">
-        <v>156</v>
-      </c>
-      <c r="E207" t="s">
-        <v>155</v>
-      </c>
-      <c r="F207" t="s">
-        <v>482</v>
-      </c>
-      <c r="G207" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F208" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E209" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D210" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C211" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="50">
-        <v>31</v>
-      </c>
-      <c r="B214" t="s">
-        <v>317</v>
-      </c>
-      <c r="C214" t="s">
-        <v>138</v>
-      </c>
-      <c r="D214" t="s">
-        <v>156</v>
-      </c>
-      <c r="E214" t="s">
-        <v>155</v>
-      </c>
-      <c r="F214" t="s">
-        <v>484</v>
-      </c>
-      <c r="G214" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F215" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E216" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D217" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C218" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="50" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="50">
-        <v>32</v>
-      </c>
-      <c r="B221" t="s">
-        <v>318</v>
-      </c>
-      <c r="C221" t="s">
-        <v>138</v>
-      </c>
-      <c r="D221" t="s">
-        <v>156</v>
-      </c>
-      <c r="E221" t="s">
-        <v>155</v>
-      </c>
-      <c r="F221" t="s">
-        <v>485</v>
-      </c>
-      <c r="G221" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F222" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E223" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D224" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C225" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="50" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="50">
-        <v>33</v>
-      </c>
-      <c r="B228" t="s">
-        <v>319</v>
-      </c>
-      <c r="C228" t="s">
-        <v>142</v>
-      </c>
-      <c r="D228" t="s">
-        <v>156</v>
-      </c>
-      <c r="E228" t="s">
-        <v>155</v>
-      </c>
-      <c r="F228" t="s">
-        <v>486</v>
-      </c>
-      <c r="G228" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F229" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E230" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D231" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C232" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="50" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="50">
-        <v>34</v>
-      </c>
-      <c r="B235" t="s">
-        <v>320</v>
-      </c>
-      <c r="C235" t="s">
-        <v>142</v>
-      </c>
-      <c r="D235" t="s">
-        <v>156</v>
-      </c>
-      <c r="E235" t="s">
-        <v>155</v>
-      </c>
-      <c r="F235" t="s">
-        <v>487</v>
-      </c>
-      <c r="G235" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F236" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E237" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D238" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C239" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="50">
-        <v>35</v>
-      </c>
-      <c r="B242" t="s">
-        <v>321</v>
-      </c>
-      <c r="C242" t="s">
-        <v>142</v>
-      </c>
-      <c r="D242" t="s">
-        <v>156</v>
-      </c>
-      <c r="E242" t="s">
-        <v>155</v>
-      </c>
-      <c r="F242" t="s">
-        <v>488</v>
-      </c>
-      <c r="G242" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F243" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E244" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D245" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C246" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="50">
-        <v>36</v>
-      </c>
-      <c r="B249" t="s">
-        <v>322</v>
-      </c>
-      <c r="C249" t="s">
-        <v>142</v>
-      </c>
-      <c r="D249" t="s">
-        <v>156</v>
-      </c>
-      <c r="E249" t="s">
-        <v>155</v>
-      </c>
-      <c r="F249" t="s">
-        <v>489</v>
-      </c>
-      <c r="G249" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F250" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E251" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D252" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C253" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="50">
-        <v>37</v>
-      </c>
-      <c r="B256" t="s">
-        <v>323</v>
-      </c>
-      <c r="C256" t="s">
-        <v>142</v>
-      </c>
-      <c r="D256" t="s">
-        <v>156</v>
-      </c>
-      <c r="E256" t="s">
-        <v>155</v>
-      </c>
-      <c r="F256" t="s">
-        <v>490</v>
-      </c>
-      <c r="G256" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F257" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E258" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D259" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C260" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="50">
-        <v>38</v>
-      </c>
-      <c r="B263" t="s">
-        <v>324</v>
-      </c>
-      <c r="C263" t="s">
-        <v>142</v>
-      </c>
-      <c r="D263" t="s">
-        <v>156</v>
-      </c>
-      <c r="E263" t="s">
-        <v>155</v>
-      </c>
-      <c r="F263" t="s">
-        <v>491</v>
-      </c>
-      <c r="G263" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F264" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E265" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D266" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C267" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B268" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="50" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="50">
-        <v>39</v>
-      </c>
-      <c r="B270" t="s">
-        <v>325</v>
-      </c>
-      <c r="C270" t="s">
-        <v>142</v>
-      </c>
-      <c r="D270" t="s">
-        <v>159</v>
-      </c>
-      <c r="E270" t="s">
-        <v>158</v>
-      </c>
-      <c r="F270" t="s">
-        <v>492</v>
-      </c>
-      <c r="G270" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F271" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E272" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D273" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C274" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B275" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="50">
-        <v>40</v>
-      </c>
-      <c r="B277" t="s">
-        <v>326</v>
-      </c>
-      <c r="C277" t="s">
-        <v>142</v>
-      </c>
-      <c r="D277" t="s">
-        <v>159</v>
-      </c>
-      <c r="E277" t="s">
-        <v>158</v>
-      </c>
-      <c r="F277" t="s">
-        <v>494</v>
-      </c>
-      <c r="G277" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F278" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E279" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D280" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C281" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B282" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="50" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="50">
-        <v>41</v>
-      </c>
-      <c r="B284" t="s">
-        <v>327</v>
-      </c>
-      <c r="C284" t="s">
-        <v>138</v>
-      </c>
-      <c r="D284" t="s">
-        <v>159</v>
-      </c>
-      <c r="E284" t="s">
-        <v>158</v>
-      </c>
-      <c r="F284" t="s">
-        <v>495</v>
-      </c>
-      <c r="G284" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F285" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E286" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D287" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C288" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B289" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="50">
-        <v>42</v>
-      </c>
-      <c r="B291" t="s">
-        <v>328</v>
-      </c>
-      <c r="C291" t="s">
-        <v>138</v>
-      </c>
-      <c r="D291" t="s">
-        <v>161</v>
-      </c>
-      <c r="E291" t="s">
-        <v>158</v>
-      </c>
-      <c r="F291" t="s">
-        <v>496</v>
-      </c>
-      <c r="G291" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F292" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E293" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D294" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C295" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="50" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="50">
-        <v>43</v>
-      </c>
-      <c r="B298" t="s">
-        <v>329</v>
-      </c>
-      <c r="C298" t="s">
-        <v>138</v>
-      </c>
-      <c r="D298" t="s">
-        <v>161</v>
-      </c>
-      <c r="E298" t="s">
-        <v>158</v>
-      </c>
-      <c r="F298" t="s">
-        <v>497</v>
-      </c>
-      <c r="G298" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F299" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E300" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D301" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C302" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B303" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="50" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="50">
-        <v>44</v>
-      </c>
-      <c r="B305" t="s">
-        <v>330</v>
-      </c>
-      <c r="C305" t="s">
-        <v>138</v>
-      </c>
-      <c r="D305" t="s">
-        <v>161</v>
-      </c>
-      <c r="E305" t="s">
-        <v>158</v>
-      </c>
-      <c r="F305" t="s">
-        <v>498</v>
-      </c>
-      <c r="G305" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F306" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E307" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D308" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C309" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B310" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A311" s="50" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" s="50">
-        <v>45</v>
-      </c>
-      <c r="B312" t="s">
-        <v>331</v>
-      </c>
-      <c r="C312" t="s">
-        <v>138</v>
-      </c>
-      <c r="D312" t="s">
-        <v>164</v>
-      </c>
-      <c r="E312" t="s">
-        <v>163</v>
-      </c>
-      <c r="F312" t="s">
-        <v>499</v>
-      </c>
-      <c r="G312" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F313" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E314" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D315" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C316" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B317" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A318" s="50" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A319" s="50">
-        <v>46</v>
-      </c>
-      <c r="B319" t="s">
-        <v>332</v>
-      </c>
-      <c r="C319" t="s">
-        <v>142</v>
-      </c>
-      <c r="D319" t="s">
-        <v>164</v>
-      </c>
-      <c r="E319" t="s">
-        <v>163</v>
-      </c>
-      <c r="F319" t="s">
-        <v>501</v>
-      </c>
-      <c r="G319" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F320" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E321" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D322" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C323" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B324" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="50" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" s="50">
-        <v>47</v>
-      </c>
-      <c r="B326" t="s">
-        <v>333</v>
-      </c>
-      <c r="C326" t="s">
-        <v>138</v>
-      </c>
-      <c r="D326" t="s">
-        <v>164</v>
-      </c>
-      <c r="E326" t="s">
-        <v>163</v>
-      </c>
-      <c r="F326" t="s">
-        <v>502</v>
-      </c>
-      <c r="G326" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F327" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E328" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D329" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C330" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B331" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" s="50" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" s="50">
-        <v>48</v>
-      </c>
-      <c r="B333" t="s">
-        <v>334</v>
-      </c>
-      <c r="C333" t="s">
-        <v>138</v>
-      </c>
-      <c r="D333" t="s">
-        <v>167</v>
-      </c>
-      <c r="E333" t="s">
-        <v>166</v>
-      </c>
-      <c r="F333" t="s">
-        <v>503</v>
-      </c>
-      <c r="G333" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F334" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E335" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D336" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C337" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B338" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A340" s="50">
-        <v>49</v>
-      </c>
-      <c r="B340" t="s">
-        <v>335</v>
-      </c>
-      <c r="C340" t="s">
-        <v>142</v>
-      </c>
-      <c r="D340" t="s">
-        <v>167</v>
-      </c>
-      <c r="E340" t="s">
-        <v>166</v>
-      </c>
-      <c r="F340" t="s">
-        <v>505</v>
-      </c>
-      <c r="G340" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F341" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E342" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D343" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C344" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B345" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" s="50" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347" s="50">
-        <v>50</v>
-      </c>
-      <c r="B347" t="s">
-        <v>336</v>
-      </c>
-      <c r="C347" t="s">
-        <v>142</v>
-      </c>
-      <c r="D347" t="s">
-        <v>144</v>
-      </c>
-      <c r="E347" t="s">
-        <v>143</v>
-      </c>
-      <c r="F347" t="s">
-        <v>506</v>
-      </c>
-      <c r="G347" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F348" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E349" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D350" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C351" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B352" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="50" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11678,7 +6459,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" ref="B34:B65" si="2">_xlfn.CONCAT(C34,  " ", D34,  " ", F34)</f>
+        <f t="shared" ref="B34:B51" si="2">_xlfn.CONCAT(C34,  " ", D34,  " ", F34)</f>
         <v>M. Claude Toussaint</v>
       </c>
       <c r="C34" s="2" t="s">

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613C211-45A5-46D9-97E7-2454BDF35C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7694BF5-7A18-4687-BFDF-D90EFD229AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="4" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId9"/>
+    <pivotCache cacheId="45" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="388">
   <si>
     <t>PREFIX</t>
   </si>
@@ -995,6 +995,309 @@
   </si>
   <si>
     <t>Country Names</t>
+  </si>
+  <si>
+    <t>Ms. Annie Abbott</t>
+  </si>
+  <si>
+    <t>Ms. Aurelie Liesuchke</t>
+  </si>
+  <si>
+    <t>Sr. Tomas Filho</t>
+  </si>
+  <si>
+    <t>Ms. Darby Cruickshank</t>
+  </si>
+  <si>
+    <t>Dr. Jaydon Borer</t>
+  </si>
+  <si>
+    <t>Mr. Moriah  Lynch</t>
+  </si>
+  <si>
+    <t>Ms. Amiya Eichmann</t>
+  </si>
+  <si>
+    <t>Mr. Pierce Rau</t>
+  </si>
+  <si>
+    <t>Ms. Amelia Stevens</t>
+  </si>
+  <si>
+    <t>Mr. Toby Simpson</t>
+  </si>
+  <si>
+    <t>Sir Ethan Murphy</t>
+  </si>
+  <si>
+    <t>Mrs. Ashley Wood</t>
+  </si>
+  <si>
+    <t>Ms. Megan Scott</t>
+  </si>
+  <si>
+    <t>Hr. Helmut Weinhae</t>
+  </si>
+  <si>
+    <t>Prof. Milena Schotin</t>
+  </si>
+  <si>
+    <t>Hr. Lothar Birnbaum</t>
+  </si>
+  <si>
+    <t>Hr. Pietro Stolze</t>
+  </si>
+  <si>
+    <t>Hr. Richard  Tlustek</t>
+  </si>
+  <si>
+    <t>Dr. Earnestine Raynor</t>
+  </si>
+  <si>
+    <t>Mr. Jason Gaylord</t>
+  </si>
+  <si>
+    <t>Mr. Kendrick Sauer</t>
+  </si>
+  <si>
+    <t>Dr. Annabell Olson</t>
+  </si>
+  <si>
+    <t>Dr. Jena Upton</t>
+  </si>
+  <si>
+    <t>Dr. Shanny Bins</t>
+  </si>
+  <si>
+    <t>Dr. Tia Abshire</t>
+  </si>
+  <si>
+    <t>Ms. Isabel Runolfsdottir</t>
+  </si>
+  <si>
+    <t>Hr. Barney Wesack</t>
+  </si>
+  <si>
+    <t>Hr. Baruch Kade</t>
+  </si>
+  <si>
+    <t>Prof. Liesbeth Rosemann</t>
+  </si>
+  <si>
+    <t>Mme. Valentine Moreau</t>
+  </si>
+  <si>
+    <t>Mme. Paulette Durand</t>
+  </si>
+  <si>
+    <t>Mme. Laure-Alix Chevalier</t>
+  </si>
+  <si>
+    <t>M. Claude Toussaint</t>
+  </si>
+  <si>
+    <t>M. Victor Lenoir</t>
+  </si>
+  <si>
+    <t>M. Arthur Lenoir</t>
+  </si>
+  <si>
+    <t>M. Benjamin Lebrun-Brun</t>
+  </si>
+  <si>
+    <t>M. Antoine Maillard</t>
+  </si>
+  <si>
+    <t>M. Bernard Hoarau-Guyon</t>
+  </si>
+  <si>
+    <t>Sr. Hidalgo Tercero</t>
+  </si>
+  <si>
+    <t>Sr. Hadalgo Polanco</t>
+  </si>
+  <si>
+    <t>Sra. Laura Oliviera</t>
+  </si>
+  <si>
+    <t>Sra. Ainhoa Garza</t>
+  </si>
+  <si>
+    <t>Sra. Isabel Banda</t>
+  </si>
+  <si>
+    <t>Sra. Carolota Mateos</t>
+  </si>
+  <si>
+    <t>Mw. Elize Prins</t>
+  </si>
+  <si>
+    <t>dhr. Ryan Pham</t>
+  </si>
+  <si>
+    <t>Mw Elise Rotteveel</t>
+  </si>
+  <si>
+    <t>Fru. Mirjam Soderberg</t>
+  </si>
+  <si>
+    <t>H. Berndt Palsson</t>
+  </si>
+  <si>
+    <t>Sr. Adriano Sobrinho</t>
+  </si>
+  <si>
+    <t>abbott.annie@xyz.org</t>
+  </si>
+  <si>
+    <t>liesuchke.aurelie@xyz.org</t>
+  </si>
+  <si>
+    <t>filho.tomas@xyz.com</t>
+  </si>
+  <si>
+    <t>cruickshank.darby@xyz.org</t>
+  </si>
+  <si>
+    <t>borer.jaydon@xyz.org</t>
+  </si>
+  <si>
+    <t>lynch.moriah @xyz.org</t>
+  </si>
+  <si>
+    <t>eichmann.amiya@xyz.org</t>
+  </si>
+  <si>
+    <t>rau.pierce@xyz.org</t>
+  </si>
+  <si>
+    <t>stevens.amelia@xyz.org</t>
+  </si>
+  <si>
+    <t>simpson.toby@xyz.org</t>
+  </si>
+  <si>
+    <t>murphy.ethan@xyz.org</t>
+  </si>
+  <si>
+    <t>wood.ashley@xyz.org</t>
+  </si>
+  <si>
+    <t>scott.megan@xyz.org</t>
+  </si>
+  <si>
+    <t>weinhae.helmut@xyz.com</t>
+  </si>
+  <si>
+    <t>schotin.milena@xyz.com</t>
+  </si>
+  <si>
+    <t>birnbaum.lothar@xyz.com</t>
+  </si>
+  <si>
+    <t>stolze.pietro@xyz.com</t>
+  </si>
+  <si>
+    <t>tlustek.richard @xyz.com</t>
+  </si>
+  <si>
+    <t>raynor.earnestine@xyz.org</t>
+  </si>
+  <si>
+    <t>gaylord.jason@xyz.org</t>
+  </si>
+  <si>
+    <t>sauer.kendrick@xyz.org</t>
+  </si>
+  <si>
+    <t>olson.annabell@xyz.org</t>
+  </si>
+  <si>
+    <t>upton.jena@xyz.org</t>
+  </si>
+  <si>
+    <t>bins.shanny@xyz.org</t>
+  </si>
+  <si>
+    <t>abshire.tia@xyz.org</t>
+  </si>
+  <si>
+    <t>runolfsdottir.isabel@xyz.org</t>
+  </si>
+  <si>
+    <t>wesack.barney@xyz.com</t>
+  </si>
+  <si>
+    <t>kade.baruch@xyz.com</t>
+  </si>
+  <si>
+    <t>rosemann.liesbeth@xyz.com</t>
+  </si>
+  <si>
+    <t>moreau.valentine@xyz.com</t>
+  </si>
+  <si>
+    <t>durand.paulette@xyz.com</t>
+  </si>
+  <si>
+    <t>chevalier.laure-alix@xyz.com</t>
+  </si>
+  <si>
+    <t>toussaint.claude@xyz.com</t>
+  </si>
+  <si>
+    <t>lenoir.victor@xyz.com</t>
+  </si>
+  <si>
+    <t>lenoir.arthur@xyz.com</t>
+  </si>
+  <si>
+    <t>lebrun-brun.benjamin@xyz.com</t>
+  </si>
+  <si>
+    <t>maillard.antoine@xyz.com</t>
+  </si>
+  <si>
+    <t>hoarau-guyon.bernard@xyz.com</t>
+  </si>
+  <si>
+    <t>tercero.hidalgo@xyz.com</t>
+  </si>
+  <si>
+    <t>polanco.hadalgo@xyz.com</t>
+  </si>
+  <si>
+    <t>oliviera.laura@xyz.com</t>
+  </si>
+  <si>
+    <t>garza.ainhoa@xyz.com</t>
+  </si>
+  <si>
+    <t>banda.isabel@xyz.com</t>
+  </si>
+  <si>
+    <t>mateos.carolota@xyz.com</t>
+  </si>
+  <si>
+    <t>prins.elize@xyz.com</t>
+  </si>
+  <si>
+    <t>pham.ryan@xyz.com</t>
+  </si>
+  <si>
+    <t>rotteveel.elise@xyz.com</t>
+  </si>
+  <si>
+    <t>soderberg.mirjam@xyz.com</t>
+  </si>
+  <si>
+    <t>palsson.berndt@xyz.com</t>
+  </si>
+  <si>
+    <t>sobrinho.adriano@xyz.com</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1510,6 +1813,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,7 +1845,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S51" sheet="SPORTSMEN"/>
   </cacheSource>
-  <cacheFields count="21">
+  <cacheFields count="19">
     <cacheField name="MEMBER ID" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50" count="50">
         <n v="1"/>
@@ -1713,25 +2019,6 @@
         <d v="1987-02-24T00:00:00"/>
         <d v="1993-07-28T00:00:00"/>
       </sharedItems>
-      <fieldGroup par="20" base="6">
-        <rangePr groupBy="months" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;30-07-1955"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;29-08-1999"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
     <cacheField name="ZODIAC" numFmtId="0">
       <sharedItems/>
@@ -1878,73 +2165,6 @@
     </cacheField>
     <cacheField name="SALARY" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10241" maxValue="117408"/>
-    </cacheField>
-    <cacheField name="Quarters" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="quarters" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;30-07-1955"/>
-          <s v="Qtr1"/>
-          <s v="Qtr2"/>
-          <s v="Qtr3"/>
-          <s v="Qtr4"/>
-          <s v="&gt;29-08-1999"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Years" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="years" startDate="1955-07-30T00:00:00" endDate="1999-08-29T00:00:00"/>
-        <groupItems count="47">
-          <s v="&lt;30-07-1955"/>
-          <s v="1955"/>
-          <s v="1956"/>
-          <s v="1957"/>
-          <s v="1958"/>
-          <s v="1959"/>
-          <s v="1960"/>
-          <s v="1961"/>
-          <s v="1962"/>
-          <s v="1963"/>
-          <s v="1964"/>
-          <s v="1965"/>
-          <s v="1966"/>
-          <s v="1967"/>
-          <s v="1968"/>
-          <s v="1969"/>
-          <s v="1970"/>
-          <s v="1971"/>
-          <s v="1972"/>
-          <s v="1973"/>
-          <s v="1974"/>
-          <s v="1975"/>
-          <s v="1976"/>
-          <s v="1977"/>
-          <s v="1978"/>
-          <s v="1979"/>
-          <s v="1980"/>
-          <s v="1981"/>
-          <s v="1982"/>
-          <s v="1983"/>
-          <s v="1984"/>
-          <s v="1985"/>
-          <s v="1986"/>
-          <s v="1987"/>
-          <s v="1988"/>
-          <s v="1989"/>
-          <s v="1990"/>
-          <s v="1991"/>
-          <s v="1992"/>
-          <s v="1993"/>
-          <s v="1994"/>
-          <s v="1995"/>
-          <s v="1996"/>
-          <s v="1997"/>
-          <s v="1998"/>
-          <s v="1999"/>
-          <s v="&gt;29-08-1999"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3011,9 +3231,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="21">
+  <pivotFields count="19">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3021,21 +3241,57 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="166" showAll="0">
-      <items count="15">
+      <items count="51">
+        <item x="34"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="46"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="27"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="48"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="41"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="49"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="47"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3072,69 +3328,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="48">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="10"/>
@@ -3195,6 +3388,780 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41323128-27A4-4792-B1B9-86E0DDBBC6C6}" name="PivotTable9" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:G53" firstHeaderRow="1" firstDataRow="1" firstDataCol="7" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="45"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="46"/>
+        <item x="44"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="49"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="40"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="34"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="46"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="27"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="48"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="41"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="49"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="47"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="23"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="36"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="40"/>
+        <item x="21"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="38"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="26"/>
+        <item x="11"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="32">
+        <item x="3"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="31"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="7">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="8"/>
+    <field x="10"/>
+    <field x="17"/>
+    <field x="6"/>
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="50">
+    <i>
+      <x/>
+      <x v="32"/>
+      <x/>
+      <x v="10"/>
+      <x v="13"/>
+      <x v="47"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="33"/>
+      <x/>
+      <x v="10"/>
+      <x v="6"/>
+      <x v="41"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="45"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="17"/>
+      <x v="13"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="34"/>
+      <x/>
+      <x v="10"/>
+      <x/>
+      <x v="23"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="31"/>
+      <x v="15"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="26"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="16"/>
+      <x v="42"/>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="31"/>
+      <x/>
+      <x v="10"/>
+      <x v="12"/>
+      <x v="48"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="27"/>
+      <x v="1"/>
+      <x v="10"/>
+      <x v="9"/>
+      <x v="6"/>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="30"/>
+      <x/>
+      <x v="9"/>
+      <x v="26"/>
+      <x v="18"/>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="28"/>
+      <x v="1"/>
+      <x v="9"/>
+      <x v="12"/>
+      <x v="8"/>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="41"/>
+      <x v="1"/>
+      <x v="9"/>
+      <x v="18"/>
+      <x v="36"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="29"/>
+      <x/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="27"/>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="36"/>
+      <x/>
+      <x v="9"/>
+      <x v="24"/>
+      <x v="25"/>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="11"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="8"/>
+      <x v="2"/>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="40"/>
+      <x/>
+      <x v="5"/>
+      <x v="10"/>
+      <x v="9"/>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="12"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x/>
+      <x v="14"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="21"/>
+      <x v="19"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="14"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="11"/>
+      <x v="3"/>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="2"/>
+      <x/>
+      <x v="1"/>
+      <x v="27"/>
+      <x v="26"/>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="24"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="24"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="25"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="29"/>
+      <x v="45"/>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="1"/>
+      <x/>
+      <x v="1"/>
+      <x v="15"/>
+      <x v="7"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x v="5"/>
+      <x/>
+      <x v="1"/>
+      <x v="7"/>
+      <x v="49"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="6"/>
+      <x/>
+      <x v="1"/>
+      <x v="12"/>
+      <x v="11"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="35"/>
+      <x/>
+      <x v="1"/>
+      <x v="13"/>
+      <x v="28"/>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x v="30"/>
+      <x v="16"/>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x v="24"/>
+      <x v="32"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x v="39"/>
+      <x/>
+      <x v="2"/>
+      <x v="12"/>
+      <x v="44"/>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="23"/>
+      <x/>
+      <x v="4"/>
+      <x v="19"/>
+      <x v="29"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="22"/>
+      <x/>
+      <x v="4"/>
+      <x v="30"/>
+      <x v="39"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="21"/>
+      <x/>
+      <x v="4"/>
+      <x v="4"/>
+      <x v="17"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="19"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="14"/>
+      <x v="30"/>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="20"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="29"/>
+      <x v="31"/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="16"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="22"/>
+      <x/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="17"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="29"/>
+      <x v="22"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="15"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="25"/>
+      <x v="35"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="18"/>
+      <x v="1"/>
+      <x v="4"/>
+      <x v="13"/>
+      <x v="33"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="44"/>
+      <x v="1"/>
+      <x/>
+      <x v="7"/>
+      <x v="34"/>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="43"/>
+      <x v="1"/>
+      <x/>
+      <x v="4"/>
+      <x v="38"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="49"/>
+      <x/>
+      <x/>
+      <x v="2"/>
+      <x v="21"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="46"/>
+      <x/>
+      <x v="7"/>
+      <x v="20"/>
+      <x v="40"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="48"/>
+      <x/>
+      <x v="7"/>
+      <x v="7"/>
+      <x v="4"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="47"/>
+      <x/>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="10"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="38"/>
+      <x/>
+      <x v="6"/>
+      <x v="23"/>
+      <x v="5"/>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x/>
+      <x v="1"/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="20"/>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="37"/>
+      <x/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="12"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="7"/>
+      <x/>
+      <x v="8"/>
+      <x v="17"/>
+      <x v="46"/>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="8"/>
+      <x v="1"/>
+      <x v="8"/>
+      <x v="5"/>
+      <x v="37"/>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="42"/>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="28"/>
+      <x v="43"/>
+      <x v="39"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="16" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4108,10 +5075,10 @@
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="49">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="49">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4130,10 +5097,10 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="49">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="49">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -4152,10 +5119,10 @@
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="49">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="49">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4174,7 +5141,8 @@
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4193,10 +5161,10 @@
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="49">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="49">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4215,10 +5183,10 @@
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="49">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4237,10 +5205,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="49">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -4259,9 +5227,10 @@
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="49">
         <v>3</v>
       </c>
+      <c r="D12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>159</v>
       </c>
@@ -4278,10 +5247,10 @@
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="49">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="49">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -4300,10 +5269,10 @@
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="49">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="49">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -4322,10 +5291,10 @@
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="49">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="49">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -4350,10 +5319,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4362,12 +5331,1235 @@
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="9" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="51">
+        <v>35699</v>
+      </c>
+      <c r="G4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="51">
+        <v>33641</v>
+      </c>
+      <c r="G5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="51">
+        <v>25394</v>
+      </c>
+      <c r="G6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="51">
+        <v>27532</v>
+      </c>
+      <c r="G7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="51">
+        <v>25706</v>
+      </c>
+      <c r="G8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="51">
+        <v>33944</v>
+      </c>
+      <c r="G9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="51">
+        <v>36370</v>
+      </c>
+      <c r="G10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="51">
+        <v>23141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="51">
+        <v>25965</v>
+      </c>
+      <c r="G12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="51">
+        <v>23732</v>
+      </c>
+      <c r="G13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="51">
+        <v>31733</v>
+      </c>
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="51">
+        <v>28412</v>
+      </c>
+      <c r="G15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="51">
+        <v>28168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="51">
+        <v>21788</v>
+      </c>
+      <c r="G17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="51">
+        <v>23804</v>
+      </c>
+      <c r="G18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="51">
+        <v>25405</v>
+      </c>
+      <c r="G19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="51">
+        <v>26582</v>
+      </c>
+      <c r="G20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="51">
+        <v>21793</v>
+      </c>
+      <c r="G21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="50">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="51">
+        <v>28262</v>
+      </c>
+      <c r="G22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="50">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="51">
+        <v>27767</v>
+      </c>
+      <c r="G23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="50">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="51">
+        <v>35268</v>
+      </c>
+      <c r="G24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="51">
+        <v>23483</v>
+      </c>
+      <c r="G25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="50">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="51">
+        <v>20437</v>
+      </c>
+      <c r="G26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="51">
+        <v>36400</v>
+      </c>
+      <c r="G27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="50">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="51">
+        <v>24309</v>
+      </c>
+      <c r="G28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="50">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="51">
+        <v>28570</v>
+      </c>
+      <c r="G29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="51">
+        <v>25767</v>
+      </c>
+      <c r="G30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="51">
+        <v>30020</v>
+      </c>
+      <c r="G31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="51">
+        <v>34361</v>
+      </c>
+      <c r="G32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="50">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="51">
+        <v>29137</v>
+      </c>
+      <c r="G33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="50">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="51">
+        <v>32867</v>
+      </c>
+      <c r="G34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="50">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="51">
+        <v>25925</v>
+      </c>
+      <c r="G35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="50">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="51">
+        <v>29529</v>
+      </c>
+      <c r="G36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="50">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="51">
+        <v>29875</v>
+      </c>
+      <c r="G37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="50">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="51">
+        <v>20300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="51">
+        <v>27428</v>
+      </c>
+      <c r="G39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="50">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="51">
+        <v>31585</v>
+      </c>
+      <c r="G40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="51">
+        <v>30327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="50">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="51">
+        <v>31016</v>
+      </c>
+      <c r="G42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="50">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="51">
+        <v>32314</v>
+      </c>
+      <c r="G43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="50">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="51">
+        <v>27076</v>
+      </c>
+      <c r="G44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="50">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="51">
+        <v>32941</v>
+      </c>
+      <c r="G45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="50">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="51">
+        <v>21927</v>
+      </c>
+      <c r="G46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="51">
+        <v>23952</v>
+      </c>
+      <c r="G47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="50">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="51">
+        <v>22044</v>
+      </c>
+      <c r="G48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="50">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="51">
+        <v>26940</v>
+      </c>
+      <c r="G49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="51">
+        <v>24936</v>
+      </c>
+      <c r="G50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="50">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="51">
+        <v>35567</v>
+      </c>
+      <c r="G51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="50">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="51">
+        <v>31832</v>
+      </c>
+      <c r="G52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="50">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="51">
+        <v>34178</v>
+      </c>
+      <c r="G53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7694BF5-7A18-4687-BFDF-D90EFD229AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7735141-8AC3-45DE-82FA-9554C40914F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="4" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId9"/>
+    <pivotCache cacheId="50" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="388">
   <si>
     <t>PREFIX</t>
   </si>
@@ -1713,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,6 +1783,8 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1813,9 +1815,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1964,7 +1963,57 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="LASTNAME" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="49">
+        <s v="Abbott"/>
+        <s v="Liesuchke"/>
+        <s v="Filho"/>
+        <s v="Cruickshank"/>
+        <s v="Borer"/>
+        <s v="Lynch"/>
+        <s v="Eichmann"/>
+        <s v="Rau"/>
+        <s v="Stevens"/>
+        <s v="Simpson"/>
+        <s v="Murphy"/>
+        <s v="Wood"/>
+        <s v="Scott"/>
+        <s v="Weinhae"/>
+        <s v="Schotin"/>
+        <s v="Birnbaum"/>
+        <s v="Stolze"/>
+        <s v="Tlustek"/>
+        <s v="Raynor"/>
+        <s v="Gaylord"/>
+        <s v="Sauer"/>
+        <s v="Olson"/>
+        <s v="Upton"/>
+        <s v="Bins"/>
+        <s v="Abshire"/>
+        <s v="Runolfsdottir"/>
+        <s v="Wesack"/>
+        <s v="Kade"/>
+        <s v="Rosemann"/>
+        <s v="Moreau"/>
+        <s v="Durand"/>
+        <s v="Chevalier"/>
+        <s v="Toussaint"/>
+        <s v="Lenoir"/>
+        <s v="Lebrun-Brun"/>
+        <s v="Maillard"/>
+        <s v="Hoarau-Guyon"/>
+        <s v="Tercero"/>
+        <s v="Polanco"/>
+        <s v="Oliviera"/>
+        <s v="Garza"/>
+        <s v="Banda"/>
+        <s v="Mateos"/>
+        <s v="Prins"/>
+        <s v="Pham"/>
+        <s v="Rotteveel"/>
+        <s v="Soderberg"/>
+        <s v="Palsson"/>
+        <s v="Sobrinho"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="BIRTHDATE" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1955-07-30T00:00:00" maxDate="1999-08-29T00:00:00" count="50">
@@ -2183,7 +2232,7 @@
     <s v="Ms."/>
     <s v="Annie"/>
     <m/>
-    <s v="Abbott"/>
+    <x v="0"/>
     <x v="0"/>
     <s v="Libra"/>
     <x v="0"/>
@@ -2204,7 +2253,7 @@
     <s v="Ms."/>
     <s v="Aurelie"/>
     <m/>
-    <s v="Liesuchke"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="Aquarius"/>
     <x v="0"/>
@@ -2225,7 +2274,7 @@
     <s v="Sr."/>
     <s v="Tomas"/>
     <s v="Ferreira"/>
-    <s v="Filho"/>
+    <x v="2"/>
     <x v="2"/>
     <s v="Cancer"/>
     <x v="1"/>
@@ -2246,7 +2295,7 @@
     <s v="Ms."/>
     <s v="Darby"/>
     <m/>
-    <s v="Cruickshank"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Taurus"/>
     <x v="0"/>
@@ -2267,7 +2316,7 @@
     <s v="Dr."/>
     <s v="Jaydon"/>
     <m/>
-    <s v="Borer"/>
+    <x v="4"/>
     <x v="4"/>
     <s v="Taurus"/>
     <x v="1"/>
@@ -2288,7 +2337,7 @@
     <s v="Mr."/>
     <s v="Moriah "/>
     <m/>
-    <s v="Lynch"/>
+    <x v="5"/>
     <x v="5"/>
     <s v="Sagittarius"/>
     <x v="1"/>
@@ -2309,7 +2358,7 @@
     <s v="Ms."/>
     <s v="Amiya"/>
     <m/>
-    <s v="Eichmann"/>
+    <x v="6"/>
     <x v="6"/>
     <s v="Leo"/>
     <x v="0"/>
@@ -2330,7 +2379,7 @@
     <s v="Mr."/>
     <s v="Pierce"/>
     <m/>
-    <s v="Rau"/>
+    <x v="7"/>
     <x v="7"/>
     <s v="Taurus"/>
     <x v="1"/>
@@ -2351,7 +2400,7 @@
     <s v="Ms."/>
     <s v="Amelia"/>
     <m/>
-    <s v="Stevens"/>
+    <x v="8"/>
     <x v="8"/>
     <s v="Aquarius"/>
     <x v="0"/>
@@ -2372,7 +2421,7 @@
     <s v="Mr."/>
     <s v="Toby"/>
     <m/>
-    <s v="Simpson"/>
+    <x v="9"/>
     <x v="9"/>
     <s v="Sagittarius"/>
     <x v="1"/>
@@ -2393,7 +2442,7 @@
     <s v="Sir"/>
     <s v="Ethan"/>
     <m/>
-    <s v="Murphy"/>
+    <x v="10"/>
     <x v="10"/>
     <s v="Scorpio"/>
     <x v="1"/>
@@ -2414,7 +2463,7 @@
     <s v="Mrs."/>
     <s v="Ashley"/>
     <m/>
-    <s v="Wood"/>
+    <x v="11"/>
     <x v="11"/>
     <s v="Libra"/>
     <x v="0"/>
@@ -2435,7 +2484,7 @@
     <s v="Ms."/>
     <s v="Megan"/>
     <m/>
-    <s v="Scott"/>
+    <x v="12"/>
     <x v="12"/>
     <s v="Aquarius"/>
     <x v="0"/>
@@ -2456,7 +2505,7 @@
     <s v="Hr."/>
     <s v="Helmut"/>
     <m/>
-    <s v="Weinhae"/>
+    <x v="13"/>
     <x v="13"/>
     <s v="Virgo"/>
     <x v="1"/>
@@ -2477,7 +2526,7 @@
     <s v="Prof."/>
     <s v="Milena"/>
     <m/>
-    <s v="Schotin"/>
+    <x v="14"/>
     <x v="14"/>
     <s v="Pisces"/>
     <x v="0"/>
@@ -2498,7 +2547,7 @@
     <s v="Hr."/>
     <s v="Lothar"/>
     <m/>
-    <s v="Birnbaum"/>
+    <x v="15"/>
     <x v="15"/>
     <s v="Cancer"/>
     <x v="1"/>
@@ -2519,7 +2568,7 @@
     <s v="Hr."/>
     <s v="Pietro"/>
     <m/>
-    <s v="Stolze"/>
+    <x v="16"/>
     <x v="16"/>
     <s v="Libra"/>
     <x v="1"/>
@@ -2540,7 +2589,7 @@
     <s v="Hr."/>
     <s v="Richard "/>
     <m/>
-    <s v="Tlustek"/>
+    <x v="17"/>
     <x v="17"/>
     <s v="Virgo"/>
     <x v="1"/>
@@ -2561,7 +2610,7 @@
     <s v="Dr."/>
     <s v="Earnestine"/>
     <m/>
-    <s v="Raynor"/>
+    <x v="18"/>
     <x v="18"/>
     <s v="Taurus"/>
     <x v="0"/>
@@ -2582,7 +2631,7 @@
     <s v="Mr."/>
     <s v="Jason"/>
     <m/>
-    <s v="Gaylord"/>
+    <x v="19"/>
     <x v="19"/>
     <s v="Capricorn"/>
     <x v="1"/>
@@ -2603,7 +2652,7 @@
     <s v="Mr."/>
     <s v="Kendrick"/>
     <m/>
-    <s v="Sauer"/>
+    <x v="20"/>
     <x v="20"/>
     <s v="Cancer"/>
     <x v="1"/>
@@ -2624,7 +2673,7 @@
     <s v="Dr."/>
     <s v="Annabell"/>
     <m/>
-    <s v="Olson"/>
+    <x v="21"/>
     <x v="21"/>
     <s v="Aries"/>
     <x v="0"/>
@@ -2645,7 +2694,7 @@
     <s v="Dr."/>
     <s v="Jena"/>
     <m/>
-    <s v="Upton"/>
+    <x v="22"/>
     <x v="22"/>
     <s v="Sagittarius"/>
     <x v="0"/>
@@ -2666,7 +2715,7 @@
     <s v="Dr."/>
     <s v="Shanny"/>
     <m/>
-    <s v="Bins"/>
+    <x v="23"/>
     <x v="23"/>
     <s v="Virgo"/>
     <x v="0"/>
@@ -2687,7 +2736,7 @@
     <s v="Dr."/>
     <s v="Tia"/>
     <m/>
-    <s v="Abshire"/>
+    <x v="24"/>
     <x v="24"/>
     <s v="Cancer"/>
     <x v="0"/>
@@ -2708,7 +2757,7 @@
     <s v="Ms."/>
     <s v="Isabel"/>
     <m/>
-    <s v="Runolfsdottir"/>
+    <x v="25"/>
     <x v="25"/>
     <s v="Aries"/>
     <x v="0"/>
@@ -2729,7 +2778,7 @@
     <s v="Hr."/>
     <s v="Barney"/>
     <m/>
-    <s v="Wesack"/>
+    <x v="26"/>
     <x v="26"/>
     <s v="Cancer"/>
     <x v="1"/>
@@ -2750,7 +2799,7 @@
     <s v="Hr."/>
     <s v="Baruch"/>
     <m/>
-    <s v="Kade"/>
+    <x v="27"/>
     <x v="27"/>
     <s v="Pisces"/>
     <x v="1"/>
@@ -2771,7 +2820,7 @@
     <s v="Prof."/>
     <s v="Liesbeth"/>
     <m/>
-    <s v="Rosemann"/>
+    <x v="28"/>
     <x v="28"/>
     <s v="Aquarius"/>
     <x v="0"/>
@@ -2792,7 +2841,7 @@
     <s v="Mme."/>
     <s v="Valentine"/>
     <m/>
-    <s v="Moreau"/>
+    <x v="29"/>
     <x v="29"/>
     <s v="Libra"/>
     <x v="0"/>
@@ -2813,7 +2862,7 @@
     <s v="Mme."/>
     <s v="Paulette"/>
     <m/>
-    <s v="Durand"/>
+    <x v="30"/>
     <x v="30"/>
     <s v="Capricorn"/>
     <x v="0"/>
@@ -2834,7 +2883,7 @@
     <s v="Mme."/>
     <s v="Laure-Alix"/>
     <m/>
-    <s v="Chevalier"/>
+    <x v="31"/>
     <x v="31"/>
     <s v="Capricorn"/>
     <x v="0"/>
@@ -2855,7 +2904,7 @@
     <s v="M."/>
     <s v="Claude"/>
     <m/>
-    <s v="Toussaint"/>
+    <x v="32"/>
     <x v="32"/>
     <s v="Scorpio"/>
     <x v="1"/>
@@ -2876,7 +2925,7 @@
     <s v="M."/>
     <s v="Victor"/>
     <m/>
-    <s v="Lenoir"/>
+    <x v="33"/>
     <x v="33"/>
     <s v="Libra"/>
     <x v="1"/>
@@ -2897,7 +2946,7 @@
     <s v="M."/>
     <s v="Arthur"/>
     <m/>
-    <s v="Lenoir"/>
+    <x v="33"/>
     <x v="34"/>
     <s v="Leo"/>
     <x v="1"/>
@@ -2918,7 +2967,7 @@
     <s v="M."/>
     <s v="Benjamin"/>
     <m/>
-    <s v="Lebrun-Brun"/>
+    <x v="34"/>
     <x v="35"/>
     <s v="Aquarius"/>
     <x v="1"/>
@@ -2939,7 +2988,7 @@
     <s v="M."/>
     <s v="Antoine"/>
     <m/>
-    <s v="Maillard"/>
+    <x v="35"/>
     <x v="36"/>
     <s v="Cancer"/>
     <x v="1"/>
@@ -2960,7 +3009,7 @@
     <s v="M."/>
     <s v="Bernard"/>
     <m/>
-    <s v="Hoarau-Guyon"/>
+    <x v="36"/>
     <x v="37"/>
     <s v="Capricorn"/>
     <x v="1"/>
@@ -2981,7 +3030,7 @@
     <s v="Sr."/>
     <s v="Hidalgo"/>
     <s v="Cantu"/>
-    <s v="Tercero"/>
+    <x v="37"/>
     <x v="38"/>
     <s v="Sagittarius"/>
     <x v="1"/>
@@ -3002,7 +3051,7 @@
     <s v="Sr."/>
     <s v="Hadalgo"/>
     <m/>
-    <s v="Polanco"/>
+    <x v="38"/>
     <x v="39"/>
     <s v="Gemini"/>
     <x v="1"/>
@@ -3023,7 +3072,7 @@
     <s v="Sra."/>
     <s v="Laura"/>
     <m/>
-    <s v="Oliviera"/>
+    <x v="39"/>
     <x v="40"/>
     <s v="Aquarius"/>
     <x v="0"/>
@@ -3044,7 +3093,7 @@
     <s v="Sra."/>
     <s v="Ainhoa"/>
     <m/>
-    <s v="Garza"/>
+    <x v="40"/>
     <x v="41"/>
     <s v="Pisces"/>
     <x v="0"/>
@@ -3065,7 +3114,7 @@
     <s v="Sra."/>
     <s v="Isabel"/>
     <m/>
-    <s v="Banda"/>
+    <x v="41"/>
     <x v="42"/>
     <s v="Capricorn"/>
     <x v="0"/>
@@ -3086,7 +3135,7 @@
     <s v="Sra."/>
     <s v="Carolota"/>
     <m/>
-    <s v="Mateos"/>
+    <x v="42"/>
     <x v="43"/>
     <s v="Leo"/>
     <x v="0"/>
@@ -3107,7 +3156,7 @@
     <s v="Mw."/>
     <s v="Elize"/>
     <m/>
-    <s v="Prins"/>
+    <x v="43"/>
     <x v="44"/>
     <s v="Taurus"/>
     <x v="0"/>
@@ -3128,7 +3177,7 @@
     <s v="dhr."/>
     <s v="Ryan"/>
     <m/>
-    <s v="Pham"/>
+    <x v="44"/>
     <x v="45"/>
     <s v="Libra"/>
     <x v="1"/>
@@ -3149,7 +3198,7 @@
     <s v="Mw"/>
     <s v="Elise"/>
     <m/>
-    <s v="Rotteveel"/>
+    <x v="45"/>
     <x v="46"/>
     <s v="Aries"/>
     <x v="0"/>
@@ -3170,7 +3219,7 @@
     <s v="Fru."/>
     <s v="Mirjam"/>
     <m/>
-    <s v="Soderberg"/>
+    <x v="46"/>
     <x v="47"/>
     <s v="Taurus"/>
     <x v="0"/>
@@ -3191,7 +3240,7 @@
     <s v="H."/>
     <s v="Berndt"/>
     <m/>
-    <s v="Palsson"/>
+    <x v="47"/>
     <x v="48"/>
     <s v="Pisces"/>
     <x v="1"/>
@@ -3212,7 +3261,7 @@
     <s v="Sr."/>
     <s v="Adriano"/>
     <s v="Pontes"/>
-    <s v="Sobrinho"/>
+    <x v="48"/>
     <x v="49"/>
     <s v="Leo"/>
     <x v="1"/>
@@ -3231,7 +3280,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -3394,8 +3443,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41323128-27A4-4792-B1B9-86E0DDBBC6C6}" name="PivotTable9" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:G53" firstHeaderRow="1" firstDataRow="1" firstDataCol="7" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41323128-27A4-4792-B1B9-86E0DDBBC6C6}" name="PivotTable9" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:H53" firstHeaderRow="1" firstDataRow="1" firstDataCol="8" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="50">
@@ -3508,7 +3557,59 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="49">
+        <item x="0"/>
+        <item x="24"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="31"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="40"/>
+        <item x="19"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="47"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="37"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="26"/>
+        <item x="11"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
       <items count="50">
         <item x="34"/>
@@ -3586,7 +3687,17 @@
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="50">
         <item x="0"/>
@@ -3688,9 +3799,10 @@
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="7">
+  <rowFields count="8">
     <field x="0"/>
     <field x="1"/>
+    <field x="11"/>
     <field x="8"/>
     <field x="10"/>
     <field x="17"/>
@@ -3701,6 +3813,7 @@
     <i>
       <x/>
       <x v="32"/>
+      <x v="1"/>
       <x/>
       <x v="10"/>
       <x v="13"/>
@@ -3710,6 +3823,7 @@
     <i>
       <x v="1"/>
       <x v="33"/>
+      <x v="1"/>
       <x/>
       <x v="10"/>
       <x v="6"/>
@@ -3719,6 +3833,7 @@
     <i>
       <x v="2"/>
       <x v="45"/>
+      <x v="4"/>
       <x v="1"/>
       <x v="3"/>
       <x v="17"/>
@@ -3728,6 +3843,7 @@
     <i>
       <x v="3"/>
       <x v="34"/>
+      <x v="1"/>
       <x/>
       <x v="10"/>
       <x/>
@@ -3738,6 +3854,7 @@
       <x v="4"/>
       <x v="3"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="10"/>
       <x v="31"/>
       <x v="15"/>
@@ -3747,6 +3864,7 @@
       <x v="5"/>
       <x v="26"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="10"/>
       <x v="16"/>
       <x v="42"/>
@@ -3755,6 +3873,7 @@
     <i>
       <x v="6"/>
       <x v="31"/>
+      <x v="1"/>
       <x/>
       <x v="10"/>
       <x v="12"/>
@@ -3765,6 +3884,7 @@
       <x v="7"/>
       <x v="27"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="10"/>
       <x v="9"/>
       <x v="6"/>
@@ -3773,6 +3893,7 @@
     <i>
       <x v="8"/>
       <x v="30"/>
+      <x v="1"/>
       <x/>
       <x v="9"/>
       <x v="26"/>
@@ -3783,6 +3904,7 @@
       <x v="9"/>
       <x v="28"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="9"/>
       <x v="12"/>
       <x v="8"/>
@@ -3792,6 +3914,7 @@
       <x v="10"/>
       <x v="41"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="9"/>
       <x v="18"/>
       <x v="36"/>
@@ -3800,6 +3923,7 @@
     <i>
       <x v="11"/>
       <x v="29"/>
+      <x v="1"/>
       <x/>
       <x v="9"/>
       <x v="1"/>
@@ -3809,6 +3933,7 @@
     <i>
       <x v="12"/>
       <x v="36"/>
+      <x v="1"/>
       <x/>
       <x v="9"/>
       <x v="24"/>
@@ -3818,6 +3943,7 @@
     <i>
       <x v="13"/>
       <x v="11"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="5"/>
       <x v="8"/>
@@ -3827,6 +3953,7 @@
     <i>
       <x v="14"/>
       <x v="40"/>
+      <x v="3"/>
       <x/>
       <x v="5"/>
       <x v="10"/>
@@ -3836,6 +3963,7 @@
     <i>
       <x v="15"/>
       <x v="12"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="5"/>
       <x/>
@@ -3845,6 +3973,7 @@
     <i>
       <x v="16"/>
       <x v="13"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="5"/>
       <x v="21"/>
@@ -3854,6 +3983,7 @@
     <i>
       <x v="17"/>
       <x v="14"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="5"/>
       <x v="11"/>
@@ -3863,6 +3993,7 @@
     <i>
       <x v="18"/>
       <x v="2"/>
+      <x v="1"/>
       <x/>
       <x v="1"/>
       <x v="27"/>
@@ -3874,6 +4005,7 @@
       <x v="24"/>
       <x v="1"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="3"/>
       <x v="24"/>
       <x v="12"/>
@@ -3883,12 +4015,14 @@
       <x v="25"/>
       <x v="1"/>
       <x v="1"/>
+      <x v="1"/>
       <x v="29"/>
       <x v="45"/>
       <x v="35"/>
     </i>
     <i>
       <x v="21"/>
+      <x v="1"/>
       <x v="1"/>
       <x/>
       <x v="1"/>
@@ -3899,6 +4033,7 @@
     <i>
       <x v="22"/>
       <x v="4"/>
+      <x v="1"/>
       <x/>
       <x v="1"/>
       <x v="4"/>
@@ -3908,6 +4043,7 @@
     <i>
       <x v="23"/>
       <x v="5"/>
+      <x v="1"/>
       <x/>
       <x v="1"/>
       <x v="7"/>
@@ -3917,6 +4053,7 @@
     <i>
       <x v="24"/>
       <x v="6"/>
+      <x v="1"/>
       <x/>
       <x v="1"/>
       <x v="12"/>
@@ -3926,6 +4063,7 @@
     <i>
       <x v="25"/>
       <x v="35"/>
+      <x v="1"/>
       <x/>
       <x v="1"/>
       <x v="13"/>
@@ -3935,6 +4073,7 @@
     <i>
       <x v="26"/>
       <x v="9"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="2"/>
       <x v="30"/>
@@ -3944,6 +4083,7 @@
     <i>
       <x v="27"/>
       <x v="10"/>
+      <x v="3"/>
       <x v="1"/>
       <x v="2"/>
       <x v="24"/>
@@ -3953,6 +4093,7 @@
     <i>
       <x v="28"/>
       <x v="39"/>
+      <x v="3"/>
       <x/>
       <x v="2"/>
       <x v="12"/>
@@ -3962,6 +4103,7 @@
     <i>
       <x v="29"/>
       <x v="23"/>
+      <x v="2"/>
       <x/>
       <x v="4"/>
       <x v="19"/>
@@ -3971,6 +4113,7 @@
     <i>
       <x v="30"/>
       <x v="22"/>
+      <x v="2"/>
       <x/>
       <x v="4"/>
       <x v="30"/>
@@ -3980,6 +4123,7 @@
     <i>
       <x v="31"/>
       <x v="21"/>
+      <x v="2"/>
       <x/>
       <x v="4"/>
       <x v="4"/>
@@ -3989,6 +4133,7 @@
     <i>
       <x v="32"/>
       <x v="19"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="14"/>
@@ -3998,6 +4143,7 @@
     <i>
       <x v="33"/>
       <x v="20"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="29"/>
@@ -4007,6 +4153,7 @@
     <i>
       <x v="34"/>
       <x v="16"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="22"/>
@@ -4016,6 +4163,7 @@
     <i>
       <x v="35"/>
       <x v="17"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="29"/>
@@ -4025,6 +4173,7 @@
     <i>
       <x v="36"/>
       <x v="15"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="25"/>
@@ -4034,6 +4183,7 @@
     <i>
       <x v="37"/>
       <x v="18"/>
+      <x v="2"/>
       <x v="1"/>
       <x v="4"/>
       <x v="13"/>
@@ -4043,6 +4193,7 @@
     <i>
       <x v="38"/>
       <x v="44"/>
+      <x v="5"/>
       <x v="1"/>
       <x/>
       <x v="7"/>
@@ -4052,6 +4203,7 @@
     <i>
       <x v="39"/>
       <x v="43"/>
+      <x v="5"/>
       <x v="1"/>
       <x/>
       <x v="4"/>
@@ -4061,6 +4213,7 @@
     <i>
       <x v="40"/>
       <x v="49"/>
+      <x v="5"/>
       <x/>
       <x/>
       <x v="2"/>
@@ -4070,6 +4223,7 @@
     <i>
       <x v="41"/>
       <x v="46"/>
+      <x v="5"/>
       <x/>
       <x v="7"/>
       <x v="20"/>
@@ -4079,6 +4233,7 @@
     <i>
       <x v="42"/>
       <x v="48"/>
+      <x v="5"/>
       <x/>
       <x v="7"/>
       <x v="7"/>
@@ -4088,6 +4243,7 @@
     <i>
       <x v="43"/>
       <x v="47"/>
+      <x v="5"/>
       <x/>
       <x v="7"/>
       <x v="2"/>
@@ -4098,6 +4254,7 @@
       <x v="44"/>
       <x v="38"/>
       <x/>
+      <x/>
       <x v="6"/>
       <x v="23"/>
       <x v="5"/>
@@ -4105,6 +4262,7 @@
     </i>
     <i>
       <x v="45"/>
+      <x/>
       <x/>
       <x v="1"/>
       <x v="6"/>
@@ -4116,6 +4274,7 @@
       <x v="46"/>
       <x v="37"/>
       <x/>
+      <x/>
       <x v="6"/>
       <x v="4"/>
       <x v="12"/>
@@ -4124,6 +4283,7 @@
     <i>
       <x v="47"/>
       <x v="7"/>
+      <x v="6"/>
       <x/>
       <x v="8"/>
       <x v="17"/>
@@ -4133,6 +4293,7 @@
     <i>
       <x v="48"/>
       <x v="8"/>
+      <x v="6"/>
       <x v="1"/>
       <x v="8"/>
       <x v="5"/>
@@ -4142,6 +4303,7 @@
     <i>
       <x v="49"/>
       <x v="42"/>
+      <x v="4"/>
       <x v="1"/>
       <x v="3"/>
       <x v="28"/>
@@ -4479,20 +4641,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4510,11 +4672,11 @@
       <c r="B6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
@@ -4591,11 +4753,11 @@
       <c r="B13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
@@ -4684,20 +4846,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4723,11 +4885,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -4796,11 +4958,11 @@
       <c r="B14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
@@ -4889,20 +5051,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4928,11 +5090,11 @@
       <c r="B7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
@@ -5075,10 +5237,10 @@
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5097,10 +5259,10 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5119,10 +5281,10 @@
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5141,8 +5303,7 @@
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49">
+      <c r="D8">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5161,10 +5322,10 @@
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5183,10 +5344,10 @@
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5205,10 +5366,10 @@
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5227,10 +5388,9 @@
       <c r="B12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>159</v>
       </c>
@@ -5247,10 +5407,10 @@
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -5269,10 +5429,10 @@
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5291,10 +5451,10 @@
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -5319,15 +5479,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -5378,7 +5536,7 @@
     <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>238</v>
       </c>
@@ -5386,7 +5544,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>222</v>
       </c>
@@ -5394,1168 +5552,1321 @@
         <v>221</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="H3" s="38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>287</v>
       </c>
       <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="51">
+      <c r="G4" s="40">
         <v>35699</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="50">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>288</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="51">
+      <c r="G5" s="40">
         <v>33641</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>289</v>
       </c>
       <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
         <v>142</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>144</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="51">
+      <c r="G6" s="40">
         <v>25394</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="50">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>290</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="51">
+      <c r="G7" s="40">
         <v>27532</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="50">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>291</v>
       </c>
       <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>142</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>140</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="51">
+      <c r="G8" s="40">
         <v>25706</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>292</v>
       </c>
       <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>142</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="51">
+      <c r="G9" s="40">
         <v>33944</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="50">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>293</v>
       </c>
       <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>140</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="51">
+      <c r="G10" s="40">
         <v>36370</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>294</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="51">
+      <c r="G11" s="40">
         <v>23141</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="50">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>295</v>
       </c>
       <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
         <v>138</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>146</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="51">
+      <c r="G12" s="40">
         <v>25965</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="50">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>296</v>
       </c>
       <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="51">
+      <c r="G13" s="40">
         <v>23732</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="50">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>297</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="51">
+      <c r="G14" s="40">
         <v>31733</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="50">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>298</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
         <v>138</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>146</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="51">
+      <c r="G15" s="40">
         <v>28412</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>299</v>
       </c>
       <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>138</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>146</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="51">
+      <c r="G16" s="40">
         <v>28168</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="50">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>300</v>
       </c>
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>149</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="51">
+      <c r="G17" s="40">
         <v>21788</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="50">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>301</v>
       </c>
       <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>149</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="51">
+      <c r="G18" s="40">
         <v>23804</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="50">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>302</v>
       </c>
       <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>149</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="51">
+      <c r="G19" s="40">
         <v>25405</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="50">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>303</v>
       </c>
       <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>149</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="51">
+      <c r="G20" s="40">
         <v>26582</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>304</v>
       </c>
       <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
         <v>142</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>149</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="51">
+      <c r="G21" s="40">
         <v>21793</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="50">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>305</v>
       </c>
       <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>151</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="51">
+      <c r="G22" s="40">
         <v>28262</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="50">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>306</v>
       </c>
       <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>151</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="51">
+      <c r="G23" s="40">
         <v>27767</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="39">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>307</v>
       </c>
       <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
         <v>142</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>151</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="51">
+      <c r="G24" s="40">
         <v>35268</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="39">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>308</v>
       </c>
       <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>151</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="51">
+      <c r="G25" s="40">
         <v>23483</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="50">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="39">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>309</v>
       </c>
       <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
         <v>138</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="51">
+      <c r="G26" s="40">
         <v>20437</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="39">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>310</v>
       </c>
       <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>151</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="51">
+      <c r="G27" s="40">
         <v>36400</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="39">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>311</v>
       </c>
       <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>151</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="51">
+      <c r="G28" s="40">
         <v>24309</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="39">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>312</v>
       </c>
       <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
         <v>138</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="51">
+      <c r="G29" s="40">
         <v>28570</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="39">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>313</v>
       </c>
       <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
         <v>142</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>153</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="51">
+      <c r="G30" s="40">
         <v>25767</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="39">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>314</v>
       </c>
       <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>153</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="51">
+      <c r="G31" s="40">
         <v>30020</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="39">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>315</v>
       </c>
       <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
         <v>138</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="51">
+      <c r="G32" s="40">
         <v>34361</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="50">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="39">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>316</v>
       </c>
       <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>156</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="51">
+      <c r="G33" s="40">
         <v>29137</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="50">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="39">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>317</v>
       </c>
       <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>156</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="51">
+      <c r="G34" s="40">
         <v>32867</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="50">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="39">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>318</v>
       </c>
       <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
         <v>138</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>156</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="51">
+      <c r="G35" s="40">
         <v>25925</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="50">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="39">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>319</v>
       </c>
       <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>156</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="51">
+      <c r="G36" s="40">
         <v>29529</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="50">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="39">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>320</v>
       </c>
       <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
         <v>142</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>156</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="51">
+      <c r="G37" s="40">
         <v>29875</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="50">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="39">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>321</v>
       </c>
       <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>200</v>
       </c>
-      <c r="F38" s="51">
+      <c r="G38" s="40">
         <v>20300</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="50">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>322</v>
       </c>
       <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>156</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="51">
+      <c r="G39" s="40">
         <v>27428</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="50">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="39">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>323</v>
       </c>
       <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>156</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="51">
+      <c r="G40" s="40">
         <v>31585</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="50">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="39">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>324</v>
       </c>
       <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>156</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="51">
+      <c r="G41" s="40">
         <v>30327</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="39">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>325</v>
       </c>
       <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
         <v>142</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>159</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>196</v>
       </c>
-      <c r="F42" s="51">
+      <c r="G42" s="40">
         <v>31016</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="50">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="39">
         <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>326</v>
       </c>
       <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
         <v>142</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>159</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="51">
+      <c r="G43" s="40">
         <v>32314</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="50">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="39">
         <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>327</v>
       </c>
       <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
         <v>138</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>159</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="51">
+      <c r="G44" s="40">
         <v>27076</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="50">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="39">
         <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>328</v>
       </c>
       <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>161</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="51">
+      <c r="G45" s="40">
         <v>32941</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="50">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="39">
         <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>329</v>
       </c>
       <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>161</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="51">
+      <c r="G46" s="40">
         <v>21927</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="39">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>330</v>
       </c>
       <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>161</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="51">
+      <c r="G47" s="40">
         <v>23952</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="39">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>331</v>
       </c>
       <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
         <v>138</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>164</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="51">
+      <c r="G48" s="40">
         <v>22044</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="50">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="39">
         <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>332</v>
       </c>
       <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s">
         <v>142</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>164</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="51">
+      <c r="G49" s="40">
         <v>26940</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="39">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>333</v>
       </c>
       <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
         <v>138</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>164</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="51">
+      <c r="G50" s="40">
         <v>24936</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="50">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="39">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>334</v>
       </c>
       <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
         <v>138</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>167</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>177</v>
       </c>
-      <c r="F51" s="51">
+      <c r="G51" s="40">
         <v>35567</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="50">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="39">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>335</v>
       </c>
       <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
         <v>142</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>167</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="51">
+      <c r="G52" s="40">
         <v>31832</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="50">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="39">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>336</v>
       </c>
       <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>144</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="51">
+      <c r="G53" s="40">
         <v>34178</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6571,11 +6882,11 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Case Study - 2.xlsx
+++ b/Excel Case Study - 2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sakshi\ALABS\ALABS Classes Learning\Case Studies\Case Studies for Github\Excel Case Studies\Excel - Sports data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7735141-8AC3-45DE-82FA-9554C40914F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91C7211-73C1-4A26-AC78-85F68EEA4775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" xr2:uid="{79EB00AA-E363-4462-86A0-44CFA398920C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1400,7 +1400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +1434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1815,16 +1821,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0,\ &quot;k&quot;"/>
+      <numFmt numFmtId="169" formatCode="0.00,\ &quot;k&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00,\ &quot;k&quot;"/>
+      <numFmt numFmtId="168" formatCode="0.0,\ &quot;k&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3280,7 +3287,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADDA2F19-9239-427E-AD8F-799C6E841B5B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -3443,7 +3450,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41323128-27A4-4792-B1B9-86E0DDBBC6C6}" name="PivotTable9" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41323128-27A4-4792-B1B9-86E0DDBBC6C6}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:H53" firstHeaderRow="1" firstDataRow="1" firstDataCol="8" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
@@ -4618,7 +4625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4628,7 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C0014-F7B1-460D-B1E9-9CA83663BBBB}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5193,7 +5200,7 @@
   <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5223,13 +5230,13 @@
       <c r="D4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="51" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6882,8 +6889,8 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -10079,10 +10086,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S2:S51">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10098,9 +10105,7 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10384,9 +10389,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
